--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)&amp;SAR_manual_oper'!$P$1:$P$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)&amp;SAR_manual_oper'!$P$1:$P$188</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!K1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!E1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!A1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!A:A)-1)</definedName>
@@ -46,6 +46,10 @@
   <si>
     <t>historical PE mean</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sales shares</t>
@@ -94,10 +98,6 @@
   <si>
     <t>annualized RR</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sales amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +303,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,19 +384,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>model4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>）</a:t>
+              <a:t>model4(1)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -458,7 +447,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -503,6 +492,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,7 +504,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -557,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2578842.5224166512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2917649.7563926717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +594,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -644,6 +639,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,7 +651,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -698,6 +696,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2436534.5716019869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2555575.9199227449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +741,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -785,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +798,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -839,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-142307.95081466436</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-362073.83646992687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77231232"/>
-        <c:axId val="77233152"/>
+        <c:axId val="517600000"/>
+        <c:axId val="517601536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77231232"/>
+        <c:axId val="517600000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,14 +914,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77233152"/>
+        <c:crossAx val="517601536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77233152"/>
+        <c:axId val="517601536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77231232"/>
+        <c:crossAx val="517600000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1098,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1126,7 +1132,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1171,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>252649.34925635549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>338807.23397602042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,8 +1194,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525068928"/>
-        <c:axId val="525044736"/>
+        <c:axId val="618058880"/>
+        <c:axId val="617298560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1211,7 +1220,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1256,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,7 +1277,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1310,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.76499998569488525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69599997997283936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,11 +1341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525041664"/>
-        <c:axId val="525043200"/>
+        <c:axId val="604941312"/>
+        <c:axId val="617296640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525041664"/>
+        <c:axId val="604941312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +1388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525043200"/>
+        <c:crossAx val="617296640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525043200"/>
+        <c:axId val="617296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,12 +1446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525041664"/>
+        <c:crossAx val="604941312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525044736"/>
+        <c:axId val="617298560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,12 +1488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525068928"/>
+        <c:crossAx val="618058880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525068928"/>
+        <c:axId val="618058880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525044736"/>
+        <c:crossAx val="617298560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,15 +1559,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1575,16 +1590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6933,6 +6948,7 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="B2"/>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -10901,6 +10917,257 @@
           </cell>
           <cell r="D346">
             <v>33.177616240465106</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v xml:space="preserve">2022/9/1
+</v>
+          </cell>
+          <cell r="C347">
+            <v>23.5</v>
+          </cell>
+          <cell r="D347">
+            <v>33.149565178898534</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v xml:space="preserve">2022/9/2
+</v>
+          </cell>
+          <cell r="C348">
+            <v>23.5</v>
+          </cell>
+          <cell r="D348">
+            <v>33.121676262196516</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v xml:space="preserve">2022/9/5
+</v>
+          </cell>
+          <cell r="C349">
+            <v>23.5</v>
+          </cell>
+          <cell r="D349">
+            <v>33.093948088530247</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v xml:space="preserve">2022/9/6
+</v>
+          </cell>
+          <cell r="C350">
+            <v>23.33</v>
+          </cell>
+          <cell r="D350">
+            <v>33.065890766436766</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v xml:space="preserve">2022/9/7
+</v>
+          </cell>
+          <cell r="C351">
+            <v>23.05</v>
+          </cell>
+          <cell r="D351">
+            <v>33.037191939025774</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v xml:space="preserve">2022/9/8
+</v>
+          </cell>
+          <cell r="C352">
+            <v>22.91</v>
+          </cell>
+          <cell r="D352">
+            <v>33.008257104914271</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v xml:space="preserve">2022/9/9
+</v>
+          </cell>
+          <cell r="C353">
+            <v>23</v>
+          </cell>
+          <cell r="D353">
+            <v>32.979743551908818</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v xml:space="preserve">2022/9/13
+</v>
+          </cell>
+          <cell r="C354">
+            <v>23.46</v>
+          </cell>
+          <cell r="D354">
+            <v>32.952698825909074</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v xml:space="preserve">2022/9/14
+</v>
+          </cell>
+          <cell r="C355">
+            <v>22.93</v>
+          </cell>
+          <cell r="D355">
+            <v>32.924305911388082</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v xml:space="preserve">2022/9/15
+</v>
+          </cell>
+          <cell r="C356">
+            <v>23.03</v>
+          </cell>
+          <cell r="D356">
+            <v>32.89635589468925</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="B357" t="str">
+            <v xml:space="preserve">2022/9/16
+</v>
+          </cell>
+          <cell r="C357">
+            <v>22.61000061</v>
+          </cell>
+          <cell r="D357">
+            <v>32.867380245999989</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="B358" t="str">
+            <v xml:space="preserve">2022/9/19
+</v>
+          </cell>
+          <cell r="C358">
+            <v>22.040000920000001</v>
+          </cell>
+          <cell r="D358">
+            <v>32.836966259129198</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="B359" t="str">
+            <v xml:space="preserve">2022/9/20
+</v>
+          </cell>
+          <cell r="C359">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D359">
+            <v>32.807282879607826</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="B360" t="str">
+            <v xml:space="preserve">2022/9/21
+</v>
+          </cell>
+          <cell r="C360">
+            <v>22.920000080000001</v>
+          </cell>
+          <cell r="D360">
+            <v>32.779664771229037</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="B361" t="str">
+            <v xml:space="preserve">2022/9/22
+</v>
+          </cell>
+          <cell r="C361">
+            <v>22.850000380000001</v>
+          </cell>
+          <cell r="D361">
+            <v>32.752005538941489</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="B362" t="str">
+            <v xml:space="preserve">2022/9/23
+</v>
+          </cell>
+          <cell r="C362">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D362">
+            <v>32.726722189166651</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="B363" t="str">
+            <v xml:space="preserve">2022/9/26
+</v>
+          </cell>
+          <cell r="C363">
+            <v>23.719999309999999</v>
+          </cell>
+          <cell r="D363">
+            <v>32.701772818310232</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="B364" t="str">
+            <v xml:space="preserve">2022/9/27
+</v>
+          </cell>
+          <cell r="C364">
+            <v>23.850000380000001</v>
+          </cell>
+          <cell r="D364">
+            <v>32.677320408259654</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="B365" t="str">
+            <v xml:space="preserve">2022/9/28
+</v>
+          </cell>
+          <cell r="C365">
+            <v>23.590000150000002</v>
+          </cell>
+          <cell r="D365">
+            <v>32.652286468154252</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="B366" t="str">
+            <v xml:space="preserve">2022/9/29
+</v>
+          </cell>
+          <cell r="C366">
+            <v>23.399999619999999</v>
+          </cell>
+          <cell r="D366">
+            <v>32.626868097692288</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="B367">
+            <v>44834</v>
+          </cell>
+          <cell r="C367">
+            <v>23.340000150000002</v>
+          </cell>
+          <cell r="D367">
+            <v>32.601424623862997</v>
           </cell>
         </row>
       </sheetData>
@@ -11197,7 +11464,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11209,12 +11476,12 @@
     <col min="1" max="1" width="10" style="10" customWidth="1"/>
     <col min="2" max="2" width="8" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="20" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="20" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="20" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="20" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.75" style="10" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="20" customWidth="1"/>
@@ -11237,41 +11504,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>11</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
@@ -11318,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F17" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -11326,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H17" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -11334,11 +11601,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J17" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K17" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -11346,29 +11613,29 @@
         <v>0</v>
       </c>
       <c r="M3" s="8"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>11</v>
-      </c>
       <c r="V3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -11396,7 +11663,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G17" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G18" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -11404,7 +11671,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I17" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I18" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -11416,11 +11683,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L17" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L18" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="P4" s="21">
+      <c r="P4" s="22">
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
@@ -11537,7 +11804,7 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E17" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E18" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -12114,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="11">
         <v>44804</v>
       </c>
@@ -12165,6 +12432,465 @@
       <c r="M17" s="8">
         <v>0</v>
       </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+      <c r="A18" s="11">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="12">
+        <f>VLOOKUP(A18,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C18" s="12">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
+        <v>23.340000150000002</v>
+      </c>
+      <c r="D18" s="13">
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
+        <v>32.601424623862997</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="9"/>
+        <v>338807.23397602042</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>486792.0168463827</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="5"/>
+        <v>3671804.5883025359</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>2555575.9199227449</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="6"/>
+        <v>2917649.7563926717</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
+        <v>2555575.9199227449</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="3"/>
+        <v>-362073.83646992687</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M22" s="8"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.1" customHeight="1">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M34" s="8"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="35" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="49" ht="14.1" customHeight="1"/>
+    <row r="50" ht="14.1" customHeight="1"/>
+    <row r="51" ht="14.1" customHeight="1"/>
+    <row r="52" ht="14.1" customHeight="1"/>
+    <row r="53" ht="14.1" customHeight="1"/>
+    <row r="54" ht="14.1" customHeight="1"/>
+    <row r="55" ht="14.1" customHeight="1"/>
+    <row r="56" ht="14.1" customHeight="1"/>
+    <row r="57" ht="14.1" customHeight="1"/>
+    <row r="58" ht="14.1" customHeight="1"/>
+    <row r="59" ht="14.1" customHeight="1"/>
+    <row r="60" ht="14.1" customHeight="1"/>
+    <row r="61" ht="14.1" customHeight="1"/>
+    <row r="62" ht="14.1" customHeight="1"/>
+    <row r="63" ht="14.1" customHeight="1"/>
+    <row r="64" ht="14.1" customHeight="1"/>
+    <row r="65" ht="14.1" customHeight="1"/>
+    <row r="66" ht="14.1" customHeight="1"/>
+    <row r="67" ht="14.1" customHeight="1"/>
+    <row r="68" ht="14.1" customHeight="1"/>
+    <row r="69" ht="14.1" customHeight="1"/>
+    <row r="70" ht="14.1" customHeight="1"/>
+    <row r="71" ht="14.1" customHeight="1"/>
+    <row r="72" ht="14.1" customHeight="1"/>
+    <row r="73" ht="14.1" customHeight="1"/>
+    <row r="74" ht="14.1" customHeight="1"/>
+    <row r="75" ht="14.1" customHeight="1"/>
+    <row r="76" ht="14.1" customHeight="1"/>
+    <row r="77" ht="14.1" customHeight="1"/>
+    <row r="78" ht="14.1" customHeight="1"/>
+    <row r="79" ht="14.1" customHeight="1"/>
+    <row r="80" ht="14.1" customHeight="1"/>
+    <row r="81" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="82" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="83" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="84" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="85" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="86" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="87" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="88" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="89" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="90" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="91" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="92" spans="13:16" ht="14.1" customHeight="1"/>
+    <row r="93" spans="13:16" ht="14.1" customHeight="1">
+      <c r="P93" s="20"/>
+    </row>
+    <row r="94" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M97" s="8"/>
+    </row>
+    <row r="98" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M102" s="8"/>
+    </row>
+    <row r="103" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M103" s="8"/>
+    </row>
+    <row r="104" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M105" s="8"/>
+      <c r="P105" s="20"/>
+    </row>
+    <row r="106" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M108" s="8"/>
+    </row>
+    <row r="109" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M115" s="8"/>
+    </row>
+    <row r="116" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M117" s="8"/>
+      <c r="P117" s="20"/>
+    </row>
+    <row r="118" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M120" s="8"/>
+    </row>
+    <row r="121" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M121" s="8"/>
+    </row>
+    <row r="122" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M125" s="8"/>
+    </row>
+    <row r="126" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M128" s="8"/>
+    </row>
+    <row r="129" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M129" s="8"/>
+      <c r="P129" s="20"/>
+    </row>
+    <row r="130" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M137" s="8"/>
+    </row>
+    <row r="138" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M139" s="8"/>
+    </row>
+    <row r="140" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M141" s="8"/>
+      <c r="P141" s="20"/>
+    </row>
+    <row r="142" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M142" s="8"/>
+    </row>
+    <row r="143" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M144" s="8"/>
+    </row>
+    <row r="145" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M146" s="8"/>
+    </row>
+    <row r="147" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M148" s="8"/>
+    </row>
+    <row r="149" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M149" s="8"/>
+    </row>
+    <row r="150" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M150" s="8"/>
+    </row>
+    <row r="151" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M151" s="8"/>
+    </row>
+    <row r="152" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M152" s="8"/>
+    </row>
+    <row r="153" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M153" s="8"/>
+      <c r="P153" s="20"/>
+    </row>
+    <row r="154" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M154" s="8"/>
+    </row>
+    <row r="155" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M155" s="8"/>
+    </row>
+    <row r="156" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M156" s="8"/>
+    </row>
+    <row r="157" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M157" s="8"/>
+    </row>
+    <row r="158" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M158" s="8"/>
+    </row>
+    <row r="159" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M159" s="8"/>
+    </row>
+    <row r="160" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M160" s="8"/>
+    </row>
+    <row r="161" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M161" s="8"/>
+    </row>
+    <row r="162" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M162" s="8"/>
+    </row>
+    <row r="163" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M163" s="8"/>
+    </row>
+    <row r="164" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M164" s="8"/>
+    </row>
+    <row r="165" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M165" s="8"/>
+      <c r="P165" s="20"/>
+    </row>
+    <row r="166" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M166" s="8"/>
+    </row>
+    <row r="167" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M167" s="8"/>
+    </row>
+    <row r="168" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M168" s="8"/>
+    </row>
+    <row r="169" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M169" s="21"/>
+    </row>
+    <row r="170" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M170" s="21"/>
+    </row>
+    <row r="171" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M171" s="21"/>
+    </row>
+    <row r="172" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M172" s="21"/>
+    </row>
+    <row r="173" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M173" s="21"/>
+    </row>
+    <row r="174" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M174" s="21"/>
+    </row>
+    <row r="175" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M175" s="21"/>
+    </row>
+    <row r="176" spans="13:16" ht="14.1" customHeight="1">
+      <c r="M176" s="21"/>
+    </row>
+    <row r="177" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M177" s="21"/>
+    </row>
+    <row r="178" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M178" s="21"/>
+    </row>
+    <row r="179" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M179" s="21"/>
+    </row>
+    <row r="180" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M180" s="21"/>
+    </row>
+    <row r="181" spans="13:13" ht="14.1" customHeight="1">
+      <c r="M181" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)&amp;SAR_manual_oper'!$P$1:$P$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'model4(1)&amp;SAR_manual_oper'!$P$1:$P$24</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!K1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!K:K)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!E1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!E:E)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model4(1)&amp;SAR_manual_oper'!A1,0,0,COUNTA('model4(1)&amp;SAR_manual_oper'!A:A)-1)</definedName>
@@ -263,7 +263,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,7 +303,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,11 +866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517600000"/>
-        <c:axId val="517601536"/>
+        <c:axId val="428925312"/>
+        <c:axId val="428926848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517600000"/>
+        <c:axId val="428925312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,14 +913,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517601536"/>
+        <c:crossAx val="428926848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517601536"/>
+        <c:axId val="428926848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517600000"/>
+        <c:crossAx val="428925312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,8 +1193,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618058880"/>
-        <c:axId val="617298560"/>
+        <c:axId val="558764416"/>
+        <c:axId val="520579712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1341,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="604941312"/>
-        <c:axId val="617296640"/>
+        <c:axId val="506223616"/>
+        <c:axId val="520577792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="604941312"/>
+        <c:axId val="506223616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,14 +1387,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617296640"/>
+        <c:crossAx val="520577792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617296640"/>
+        <c:axId val="520577792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,12 +1445,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604941312"/>
+        <c:crossAx val="506223616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617298560"/>
+        <c:axId val="520579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,12 +1487,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618058880"/>
+        <c:crossAx val="558764416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618058880"/>
+        <c:axId val="558764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,7 +1501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617298560"/>
+        <c:crossAx val="520579712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,8 +1565,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1598,8 +1597,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6923,6 +6922,261 @@
             <v>0.69599997997283936</v>
           </cell>
         </row>
+        <row r="313">
+          <cell r="A313">
+            <v>44844</v>
+          </cell>
+          <cell r="B313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="C313">
+            <v>0.69499999284744263</v>
+          </cell>
+          <cell r="D313">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E313">
+            <v>0.67900002002716064</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="A314">
+            <v>44845</v>
+          </cell>
+          <cell r="B314">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="C314">
+            <v>0.68599998950958252</v>
+          </cell>
+          <cell r="D314">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="E314">
+            <v>0.68400001525878906</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="A315">
+            <v>44846</v>
+          </cell>
+          <cell r="B315">
+            <v>0.68199998140335083</v>
+          </cell>
+          <cell r="C315">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D315">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E315">
+            <v>0.70200002193450928</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="A316">
+            <v>44847</v>
+          </cell>
+          <cell r="B316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C316">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D316">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E316">
+            <v>0.70200002193450928</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="A317">
+            <v>44848</v>
+          </cell>
+          <cell r="B317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="C317">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D317">
+            <v>0.70099997520446777</v>
+          </cell>
+          <cell r="E317">
+            <v>0.72500002384185791</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="A318">
+            <v>44851</v>
+          </cell>
+          <cell r="B318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C318">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D318">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E318">
+            <v>0.7279999852180481</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="A319">
+            <v>44852</v>
+          </cell>
+          <cell r="B319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C319">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="D319">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E319">
+            <v>0.73100000619888306</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="A320">
+            <v>44853</v>
+          </cell>
+          <cell r="B320">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C320">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D320">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E320">
+            <v>0.72399997711181641</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="A321">
+            <v>44854</v>
+          </cell>
+          <cell r="B321">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C321">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D321">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="E321">
+            <v>0.71700000762939453</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="A322">
+            <v>44855</v>
+          </cell>
+          <cell r="B322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C322">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="D322">
+            <v>0.71200001239776611</v>
+          </cell>
+          <cell r="E322">
+            <v>0.7149999737739563</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="A323">
+            <v>44858</v>
+          </cell>
+          <cell r="B323">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C323">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D323">
+            <v>0.69599997997283936</v>
+          </cell>
+          <cell r="E323">
+            <v>0.70300000905990601</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="A324">
+            <v>44859</v>
+          </cell>
+          <cell r="B324">
+            <v>0.69800001382827759</v>
+          </cell>
+          <cell r="C324">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="D324">
+            <v>0.69099998474121094</v>
+          </cell>
+          <cell r="E324">
+            <v>0.69800001382827759</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="A325">
+            <v>44860</v>
+          </cell>
+          <cell r="B325">
+            <v>0.70300000905990601</v>
+          </cell>
+          <cell r="C325">
+            <v>0.71799999475479126</v>
+          </cell>
+          <cell r="D325">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="E325">
+            <v>0.71299999952316284</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="A326">
+            <v>44861</v>
+          </cell>
+          <cell r="B326">
+            <v>0.71399998664855957</v>
+          </cell>
+          <cell r="C326">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D326">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E326">
+            <v>0.7070000171661377</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="A327">
+            <v>44862</v>
+          </cell>
+          <cell r="B327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="C327">
+            <v>0.70200002193450928</v>
+          </cell>
+          <cell r="D327">
+            <v>0.6809999942779541</v>
+          </cell>
+          <cell r="E327">
+            <v>0.68300002813339233</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -6948,7 +7202,9 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2"/>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -11464,7 +11720,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG181"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11504,16 +11760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -11534,10 +11790,10 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -11613,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="8"/>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="15" t="s">
@@ -11628,7 +11884,7 @@
       <c r="T3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="27" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="15" t="s">
@@ -11687,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
-      <c r="P4" s="22">
+      <c r="P4" s="21">
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
@@ -12381,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="11">
         <v>44804</v>
       </c>
@@ -12433,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="11">
         <v>44834</v>
       </c>
@@ -12484,413 +12740,6 @@
       <c r="M18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M22" s="8"/>
-      <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="14.1" customHeight="1">
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M34" s="8"/>
-      <c r="P34" s="20"/>
-    </row>
-    <row r="35" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="49" ht="14.1" customHeight="1"/>
-    <row r="50" ht="14.1" customHeight="1"/>
-    <row r="51" ht="14.1" customHeight="1"/>
-    <row r="52" ht="14.1" customHeight="1"/>
-    <row r="53" ht="14.1" customHeight="1"/>
-    <row r="54" ht="14.1" customHeight="1"/>
-    <row r="55" ht="14.1" customHeight="1"/>
-    <row r="56" ht="14.1" customHeight="1"/>
-    <row r="57" ht="14.1" customHeight="1"/>
-    <row r="58" ht="14.1" customHeight="1"/>
-    <row r="59" ht="14.1" customHeight="1"/>
-    <row r="60" ht="14.1" customHeight="1"/>
-    <row r="61" ht="14.1" customHeight="1"/>
-    <row r="62" ht="14.1" customHeight="1"/>
-    <row r="63" ht="14.1" customHeight="1"/>
-    <row r="64" ht="14.1" customHeight="1"/>
-    <row r="65" ht="14.1" customHeight="1"/>
-    <row r="66" ht="14.1" customHeight="1"/>
-    <row r="67" ht="14.1" customHeight="1"/>
-    <row r="68" ht="14.1" customHeight="1"/>
-    <row r="69" ht="14.1" customHeight="1"/>
-    <row r="70" ht="14.1" customHeight="1"/>
-    <row r="71" ht="14.1" customHeight="1"/>
-    <row r="72" ht="14.1" customHeight="1"/>
-    <row r="73" ht="14.1" customHeight="1"/>
-    <row r="74" ht="14.1" customHeight="1"/>
-    <row r="75" ht="14.1" customHeight="1"/>
-    <row r="76" ht="14.1" customHeight="1"/>
-    <row r="77" ht="14.1" customHeight="1"/>
-    <row r="78" ht="14.1" customHeight="1"/>
-    <row r="79" ht="14.1" customHeight="1"/>
-    <row r="80" ht="14.1" customHeight="1"/>
-    <row r="81" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="82" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="83" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="84" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="85" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="86" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="87" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="88" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="89" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="90" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="91" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="92" spans="13:16" ht="14.1" customHeight="1"/>
-    <row r="93" spans="13:16" ht="14.1" customHeight="1">
-      <c r="P93" s="20"/>
-    </row>
-    <row r="94" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M94" s="8"/>
-    </row>
-    <row r="95" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M95" s="8"/>
-    </row>
-    <row r="96" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M96" s="8"/>
-    </row>
-    <row r="97" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M97" s="8"/>
-    </row>
-    <row r="98" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M98" s="8"/>
-    </row>
-    <row r="99" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M99" s="8"/>
-    </row>
-    <row r="100" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M100" s="8"/>
-    </row>
-    <row r="101" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M101" s="8"/>
-    </row>
-    <row r="102" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M102" s="8"/>
-    </row>
-    <row r="103" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M103" s="8"/>
-    </row>
-    <row r="104" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M104" s="8"/>
-    </row>
-    <row r="105" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M105" s="8"/>
-      <c r="P105" s="20"/>
-    </row>
-    <row r="106" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M106" s="8"/>
-    </row>
-    <row r="107" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M107" s="8"/>
-    </row>
-    <row r="108" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M108" s="8"/>
-    </row>
-    <row r="109" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M110" s="8"/>
-    </row>
-    <row r="111" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M111" s="8"/>
-    </row>
-    <row r="112" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M112" s="8"/>
-    </row>
-    <row r="113" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M113" s="8"/>
-    </row>
-    <row r="114" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M114" s="8"/>
-    </row>
-    <row r="115" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M115" s="8"/>
-    </row>
-    <row r="116" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M116" s="8"/>
-    </row>
-    <row r="117" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M117" s="8"/>
-      <c r="P117" s="20"/>
-    </row>
-    <row r="118" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M118" s="8"/>
-    </row>
-    <row r="119" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M119" s="8"/>
-    </row>
-    <row r="120" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M120" s="8"/>
-    </row>
-    <row r="121" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M121" s="8"/>
-    </row>
-    <row r="122" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M122" s="8"/>
-    </row>
-    <row r="123" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M123" s="8"/>
-    </row>
-    <row r="124" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M124" s="8"/>
-    </row>
-    <row r="125" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M125" s="8"/>
-    </row>
-    <row r="126" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M126" s="8"/>
-    </row>
-    <row r="127" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M127" s="8"/>
-    </row>
-    <row r="128" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M128" s="8"/>
-    </row>
-    <row r="129" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M129" s="8"/>
-      <c r="P129" s="20"/>
-    </row>
-    <row r="130" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M130" s="8"/>
-    </row>
-    <row r="131" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M131" s="8"/>
-    </row>
-    <row r="132" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M132" s="8"/>
-    </row>
-    <row r="133" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M133" s="8"/>
-    </row>
-    <row r="134" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M134" s="8"/>
-    </row>
-    <row r="135" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M135" s="8"/>
-    </row>
-    <row r="136" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M136" s="8"/>
-    </row>
-    <row r="137" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M137" s="8"/>
-    </row>
-    <row r="138" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M138" s="8"/>
-    </row>
-    <row r="139" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M139" s="8"/>
-    </row>
-    <row r="140" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M140" s="8"/>
-    </row>
-    <row r="141" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M141" s="8"/>
-      <c r="P141" s="20"/>
-    </row>
-    <row r="142" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M142" s="8"/>
-    </row>
-    <row r="143" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M143" s="8"/>
-    </row>
-    <row r="144" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M144" s="8"/>
-    </row>
-    <row r="145" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M145" s="8"/>
-    </row>
-    <row r="146" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M146" s="8"/>
-    </row>
-    <row r="147" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M147" s="8"/>
-    </row>
-    <row r="148" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M148" s="8"/>
-    </row>
-    <row r="149" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M149" s="8"/>
-    </row>
-    <row r="150" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M150" s="8"/>
-    </row>
-    <row r="151" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M151" s="8"/>
-    </row>
-    <row r="152" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M152" s="8"/>
-    </row>
-    <row r="153" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M153" s="8"/>
-      <c r="P153" s="20"/>
-    </row>
-    <row r="154" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M154" s="8"/>
-    </row>
-    <row r="155" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M155" s="8"/>
-    </row>
-    <row r="156" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M156" s="8"/>
-    </row>
-    <row r="157" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M157" s="8"/>
-    </row>
-    <row r="158" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M158" s="8"/>
-    </row>
-    <row r="159" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M159" s="8"/>
-    </row>
-    <row r="160" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M160" s="8"/>
-    </row>
-    <row r="161" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M161" s="8"/>
-    </row>
-    <row r="162" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M162" s="8"/>
-    </row>
-    <row r="163" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M163" s="8"/>
-    </row>
-    <row r="164" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M164" s="8"/>
-    </row>
-    <row r="165" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M165" s="8"/>
-      <c r="P165" s="20"/>
-    </row>
-    <row r="166" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M166" s="8"/>
-    </row>
-    <row r="167" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M167" s="8"/>
-    </row>
-    <row r="168" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M168" s="8"/>
-    </row>
-    <row r="169" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M169" s="21"/>
-    </row>
-    <row r="170" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M170" s="21"/>
-    </row>
-    <row r="171" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M171" s="21"/>
-    </row>
-    <row r="172" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M172" s="21"/>
-    </row>
-    <row r="173" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M173" s="21"/>
-    </row>
-    <row r="174" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M174" s="21"/>
-    </row>
-    <row r="175" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M175" s="21"/>
-    </row>
-    <row r="176" spans="13:16" ht="14.1" customHeight="1">
-      <c r="M176" s="21"/>
-    </row>
-    <row r="177" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M177" s="21"/>
-    </row>
-    <row r="178" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M178" s="21"/>
-    </row>
-    <row r="179" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M179" s="21"/>
-    </row>
-    <row r="180" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M180" s="21"/>
-    </row>
-    <row r="181" spans="13:13" ht="14.1" customHeight="1">
-      <c r="M181" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -446,7 +446,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -494,6 +494,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +506,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -551,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2917649.7563926717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3309291.6638443549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,7 +599,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -641,6 +647,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,7 +659,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -698,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2555575.9199227449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2914171.5738237351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +752,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -788,6 +800,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +812,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -845,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-362073.83646992687</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-395120.0900206198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428925312"/>
-        <c:axId val="428926848"/>
+        <c:axId val="39302656"/>
+        <c:axId val="70988544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428925312"/>
+        <c:axId val="39302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,14 +931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428926848"/>
+        <c:crossAx val="70988544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428926848"/>
+        <c:axId val="70988544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428925312"/>
+        <c:crossAx val="39302656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1131,7 +1149,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1179,6 +1197,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>338807.23397602042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391641.90745168331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,8 +1214,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558764416"/>
-        <c:axId val="520579712"/>
+        <c:axId val="108182912"/>
+        <c:axId val="108180992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1219,7 +1240,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1267,6 +1288,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,7 +1300,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1324,6 +1348,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.69599997997283936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68699997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506223616"/>
-        <c:axId val="520577792"/>
+        <c:axId val="92081152"/>
+        <c:axId val="108179456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506223616"/>
+        <c:axId val="92081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,14 +1414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520577792"/>
+        <c:crossAx val="108179456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520577792"/>
+        <c:axId val="108179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,12 +1472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506223616"/>
+        <c:crossAx val="92081152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520579712"/>
+        <c:axId val="108180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,12 +1514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558764416"/>
+        <c:crossAx val="108182912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="558764416"/>
+        <c:axId val="108182912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520579712"/>
+        <c:crossAx val="108180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7177,6 +7204,23 @@
             <v>0.68300002813339233</v>
           </cell>
         </row>
+        <row r="328">
+          <cell r="A328">
+            <v>44865</v>
+          </cell>
+          <cell r="B328">
+            <v>0.68000000715255737</v>
+          </cell>
+          <cell r="C328">
+            <v>0.69199997186660767</v>
+          </cell>
+          <cell r="D328">
+            <v>0.67799997329711914</v>
+          </cell>
+          <cell r="E328">
+            <v>0.68699997663497925</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -11424,6 +11468,196 @@
           </cell>
           <cell r="D367">
             <v>32.601424623862997</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="B368" t="str">
+            <v xml:space="preserve">2022/10/10
+</v>
+          </cell>
+          <cell r="C368">
+            <v>22.040000920000001</v>
+          </cell>
+          <cell r="D368">
+            <v>32.57256827494534</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="B369" t="str">
+            <v xml:space="preserve">2022/10/11
+</v>
+          </cell>
+          <cell r="C369">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D369">
+            <v>32.544414137329682</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="B370" t="str">
+            <v xml:space="preserve">2022/10/12
+</v>
+          </cell>
+          <cell r="C370">
+            <v>22.920000080000001</v>
+          </cell>
+          <cell r="D370">
+            <v>32.518260838260851</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="B371" t="str">
+            <v xml:space="preserve">2022/10/13
+</v>
+          </cell>
+          <cell r="C371">
+            <v>22.850000380000001</v>
+          </cell>
+          <cell r="D371">
+            <v>32.492059590406484</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="B372" t="str">
+            <v xml:space="preserve">2022/10/14
+</v>
+          </cell>
+          <cell r="C372">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D372">
+            <v>32.468162131027007</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="B373" t="str">
+            <v xml:space="preserve">2022/10/17
+</v>
+          </cell>
+          <cell r="C373">
+            <v>23.719999309999999</v>
+          </cell>
+          <cell r="D373">
+            <v>32.444582177331519</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="B374" t="str">
+            <v xml:space="preserve">2022/10/18
+</v>
+          </cell>
+          <cell r="C374">
+            <v>23.850000380000001</v>
+          </cell>
+          <cell r="D374">
+            <v>32.421478462822563</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="B375" t="str">
+            <v xml:space="preserve">2022/10/19
+</v>
+          </cell>
+          <cell r="C375">
+            <v>23.590000150000002</v>
+          </cell>
+          <cell r="D375">
+            <v>32.39780157726539</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="B376" t="str">
+            <v xml:space="preserve">2022/10/20
+</v>
+          </cell>
+          <cell r="C376">
+            <v>23.399999619999999</v>
+          </cell>
+          <cell r="D376">
+            <v>32.373743283262009</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="B377" t="str">
+            <v xml:space="preserve">2022/10/21
+</v>
+          </cell>
+          <cell r="C377">
+            <v>23.340000150000002</v>
+          </cell>
+          <cell r="D377">
+            <v>32.349653301573312</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="B378" t="str">
+            <v xml:space="preserve">2022/10/24
+</v>
+          </cell>
+          <cell r="C378">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D378">
+            <v>32.324335074494662</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="B379" t="str">
+            <v xml:space="preserve">2022/10/25
+</v>
+          </cell>
+          <cell r="C379">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D379">
+            <v>32.298912434429688</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="B380" t="str">
+            <v xml:space="preserve">2022/10/26
+</v>
+          </cell>
+          <cell r="C380">
+            <v>23.18000031</v>
+          </cell>
+          <cell r="D380">
+            <v>32.274788328280401</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="B381" t="str">
+            <v xml:space="preserve">2022/10/27
+</v>
+          </cell>
+          <cell r="C381">
+            <v>22.959999079999999</v>
+          </cell>
+          <cell r="D381">
+            <v>32.250211047941931</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="B382">
+            <v>44862</v>
+          </cell>
+          <cell r="C382">
+            <v>22.13999939</v>
+          </cell>
+          <cell r="D382">
+            <v>32.223605227789449</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="B383">
+            <v>44865</v>
+          </cell>
+          <cell r="C383">
+            <v>22.239999770000001</v>
+          </cell>
+          <cell r="D383">
+            <v>32.197401538923856</v>
           </cell>
         </row>
       </sheetData>
@@ -11720,7 +11954,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11841,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F18" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -11849,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H18" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -11857,11 +12091,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J18" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K18" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -11919,7 +12153,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G18" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -11927,7 +12161,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I18" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -11939,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L18" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
@@ -12060,7 +12294,7 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E18" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E19" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -12738,6 +12972,58 @@
         <v>0</v>
       </c>
       <c r="M18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="11">
+        <v>44865</v>
+      </c>
+      <c r="B19" s="12">
+        <f>VLOOKUP(A19,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C19" s="12">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <v>22.239999770000001</v>
+      </c>
+      <c r="D19" s="13">
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
+        <v>32.197401538923856</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="9"/>
+        <v>391641.90745168331</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>570075.57608662441</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="5"/>
+        <v>4241880.1643891605</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>2914171.5738237351</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="6"/>
+        <v>3309291.6638443549</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
+        <v>2914171.5738237351</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="3"/>
+        <v>-395120.0900206198</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -446,7 +446,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -497,6 +497,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,7 +509,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -557,6 +560,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3309291.6638443549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3620268.9256477943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +605,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -650,6 +656,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,7 +668,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -710,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2914171.5738237351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3365131.1015247996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +764,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -803,6 +815,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +827,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -863,6 +878,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-395120.0900206198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-255137.82412299467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,11 +902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39302656"/>
-        <c:axId val="70988544"/>
+        <c:axId val="75664000"/>
+        <c:axId val="75719040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="39302656"/>
+        <c:axId val="75664000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,14 +949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70988544"/>
+        <c:crossAx val="75719040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70988544"/>
+        <c:axId val="75719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +1007,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39302656"/>
+        <c:crossAx val="75664000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1149,7 +1167,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1200,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>391641.90745168331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>310977.26180343935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,8 +1235,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108182912"/>
-        <c:axId val="108180992"/>
+        <c:axId val="88947712"/>
+        <c:axId val="88945792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1240,7 +1261,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1291,6 +1312,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1324,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1351,6 +1375,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.68699997663497925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72000002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,11 +1394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92081152"/>
-        <c:axId val="108179456"/>
+        <c:axId val="88339584"/>
+        <c:axId val="88341888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92081152"/>
+        <c:axId val="88339584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,14 +1441,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108179456"/>
+        <c:crossAx val="88341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108179456"/>
+        <c:axId val="88341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,12 +1499,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92081152"/>
+        <c:crossAx val="88339584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108180992"/>
+        <c:axId val="88945792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,12 +1541,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108182912"/>
+        <c:crossAx val="88947712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="108182912"/>
+        <c:axId val="88947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108180992"/>
+        <c:crossAx val="88945792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7221,6 +7248,380 @@
             <v>0.68699997663497925</v>
           </cell>
         </row>
+        <row r="329">
+          <cell r="A329">
+            <v>44866</v>
+          </cell>
+          <cell r="B329">
+            <v>0.68900001049041748</v>
+          </cell>
+          <cell r="C329">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="D329">
+            <v>0.68400001525878906</v>
+          </cell>
+          <cell r="E329">
+            <v>0.70499998331069946</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="A330">
+            <v>44867</v>
+          </cell>
+          <cell r="B330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="C330">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="D330">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E330">
+            <v>0.71700000762939453</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="A331">
+            <v>44868</v>
+          </cell>
+          <cell r="B331">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="C331">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="D331">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="E331">
+            <v>0.71299999952316284</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="A332">
+            <v>44869</v>
+          </cell>
+          <cell r="B332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C332">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D332">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E332">
+            <v>0.73600000143051147</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="A333">
+            <v>44872</v>
+          </cell>
+          <cell r="B333">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="C333">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D333">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E333">
+            <v>0.73400002717971802</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="A334">
+            <v>44873</v>
+          </cell>
+          <cell r="B334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="C334">
+            <v>0.73600000143051147</v>
+          </cell>
+          <cell r="D334">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="E334">
+            <v>0.72699999809265137</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="A335">
+            <v>44874</v>
+          </cell>
+          <cell r="B335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="C335">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D335">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E335">
+            <v>0.72200000286102295</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="A336">
+            <v>44875</v>
+          </cell>
+          <cell r="B336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C336">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D336">
+            <v>0.70499998331069946</v>
+          </cell>
+          <cell r="E336">
+            <v>0.70899999141693115</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="A337">
+            <v>44876</v>
+          </cell>
+          <cell r="B337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C337">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D337">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E337">
+            <v>0.72600001096725464</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="A338">
+            <v>44879</v>
+          </cell>
+          <cell r="B338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="C338">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="D338">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E338">
+            <v>0.72399997711181641</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="A339">
+            <v>44880</v>
+          </cell>
+          <cell r="B339">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C339">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D339">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="E339">
+            <v>0.74299997091293335</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="A340">
+            <v>44881</v>
+          </cell>
+          <cell r="B340">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="C340">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="D340">
+            <v>0.73400002717971802</v>
+          </cell>
+          <cell r="E340">
+            <v>0.73400002717971802</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="A341">
+            <v>44882</v>
+          </cell>
+          <cell r="B341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C341">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="D341">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E341">
+            <v>0.73000001907348633</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="A342">
+            <v>44883</v>
+          </cell>
+          <cell r="B342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="C342">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="D342">
+            <v>0.73100000619888306</v>
+          </cell>
+          <cell r="E342">
+            <v>0.73100000619888306</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="A343">
+            <v>44886</v>
+          </cell>
+          <cell r="B343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C343">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D343">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E343">
+            <v>0.72899997234344482</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="A344">
+            <v>44887</v>
+          </cell>
+          <cell r="B344">
+            <v>0.72299998998641968</v>
+          </cell>
+          <cell r="C344">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D344">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E344">
+            <v>0.7160000205039978</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="A345">
+            <v>44888</v>
+          </cell>
+          <cell r="B345">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="C345">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="D345">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E345">
+            <v>0.71700000762939453</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="A346">
+            <v>44889</v>
+          </cell>
+          <cell r="B346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C346">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D346">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E346">
+            <v>0.71399998664855957</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="A347">
+            <v>44890</v>
+          </cell>
+          <cell r="B347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C347">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D347">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E347">
+            <v>0.70899999141693115</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>44893</v>
+          </cell>
+          <cell r="B348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="C348">
+            <v>0.70999997854232788</v>
+          </cell>
+          <cell r="D348">
+            <v>0.6940000057220459</v>
+          </cell>
+          <cell r="E348">
+            <v>0.70499998331069946</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>44894</v>
+          </cell>
+          <cell r="B349">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C349">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="D349">
+            <v>0.70800000429153442</v>
+          </cell>
+          <cell r="E349">
+            <v>0.71899998188018799</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>44895</v>
+          </cell>
+          <cell r="B350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="C350">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D350">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E350">
+            <v>0.72000002861022949</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -11658,6 +12059,269 @@
           </cell>
           <cell r="D383">
             <v>32.197401538923856</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="B384" t="str">
+            <v xml:space="preserve">2022/11/1
+</v>
+          </cell>
+          <cell r="C384">
+            <v>22.270000459999999</v>
+          </cell>
+          <cell r="D384">
+            <v>32.171413577984268</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="B385" t="str">
+            <v xml:space="preserve">2022/11/2
+</v>
+          </cell>
+          <cell r="C385">
+            <v>22.600000380000001</v>
+          </cell>
+          <cell r="D385">
+            <v>32.146422943002584</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="B386" t="str">
+            <v xml:space="preserve">2022/11/3
+</v>
+          </cell>
+          <cell r="C386">
+            <v>22.479999540000001</v>
+          </cell>
+          <cell r="D386">
+            <v>32.121249965390597</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="B387" t="str">
+            <v xml:space="preserve">2022/11/4
+</v>
+          </cell>
+          <cell r="C387">
+            <v>23.200000760000002</v>
+          </cell>
+          <cell r="D387">
+            <v>32.098077889532441</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="B388" t="str">
+            <v xml:space="preserve">2022/11/7
+</v>
+          </cell>
+          <cell r="C388">
+            <v>23.190000529999999</v>
+          </cell>
+          <cell r="D388">
+            <v>32.074999968911889</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v xml:space="preserve">2022/11/8
+</v>
+          </cell>
+          <cell r="C389">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D389">
+            <v>32.051627877751912</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v xml:space="preserve">2022/11/9
+</v>
+          </cell>
+          <cell r="C390">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D390">
+            <v>32.027680383814406</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v xml:space="preserve">2022/11/10
+</v>
+          </cell>
+          <cell r="C391">
+            <v>22.31999969</v>
+          </cell>
+          <cell r="D391">
+            <v>32.002724906452414</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v xml:space="preserve">2022/11/11
+</v>
+          </cell>
+          <cell r="C392">
+            <v>22.870000839999999</v>
+          </cell>
+          <cell r="D392">
+            <v>31.979307665256382</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v xml:space="preserve">2022/11/14
+</v>
+          </cell>
+          <cell r="C393">
+            <v>22.88999939</v>
+          </cell>
+          <cell r="D393">
+            <v>31.95606135253194</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v xml:space="preserve">2022/11/15
+</v>
+          </cell>
+          <cell r="C394">
+            <v>23.450000760000002</v>
+          </cell>
+          <cell r="D394">
+            <v>31.934362218367319</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v xml:space="preserve">2022/11/16
+</v>
+          </cell>
+          <cell r="C395">
+            <v>23.129999160000001</v>
+          </cell>
+          <cell r="D395">
+            <v>31.911959258931272</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v xml:space="preserve">2022/11/17
+</v>
+          </cell>
+          <cell r="C396">
+            <v>23.010000229999999</v>
+          </cell>
+          <cell r="D396">
+            <v>31.889365454289315</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v xml:space="preserve">2022/11/18
+</v>
+          </cell>
+          <cell r="C397">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D397">
+            <v>31.866936682734149</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v xml:space="preserve">2022/11/21
+</v>
+          </cell>
+          <cell r="C398">
+            <v>23</v>
+          </cell>
+          <cell r="D398">
+            <v>31.844545428484821</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v xml:space="preserve">2022/11/22
+</v>
+          </cell>
+          <cell r="C399">
+            <v>22.649999619999999</v>
+          </cell>
+          <cell r="D399">
+            <v>31.821385363476043</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="B400" t="str">
+            <v xml:space="preserve">2022/11/23
+</v>
+          </cell>
+          <cell r="C400">
+            <v>22.540000920000001</v>
+          </cell>
+          <cell r="D400">
+            <v>31.798065302060277</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="B401" t="str">
+            <v xml:space="preserve">2022/11/24
+</v>
+          </cell>
+          <cell r="C401">
+            <v>22.510000229999999</v>
+          </cell>
+          <cell r="D401">
+            <v>31.774786943483686</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="B402" t="str">
+            <v xml:space="preserve">2022/11/25
+</v>
+          </cell>
+          <cell r="C402">
+            <v>22.36000061</v>
+          </cell>
+          <cell r="D402">
+            <v>31.751249977649977</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="B403" t="str">
+            <v xml:space="preserve">2022/11/28
+</v>
+          </cell>
+          <cell r="C403">
+            <v>22.200000760000002</v>
+          </cell>
+          <cell r="D403">
+            <v>31.727431401047358</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v xml:space="preserve">2022/11/29
+</v>
+          </cell>
+          <cell r="C404">
+            <v>22.700000760000002</v>
+          </cell>
+          <cell r="D404">
+            <v>31.704975105920376</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405">
+            <v>44895</v>
+          </cell>
+          <cell r="C405">
+            <v>22.809999470000001</v>
+          </cell>
+          <cell r="D405">
+            <v>31.682903206079384</v>
           </cell>
         </row>
       </sheetData>
@@ -11954,7 +12618,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12075,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F19" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -12083,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H19" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -12091,11 +12755,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J19" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K19" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -12153,7 +12817,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G19" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -12161,7 +12825,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I19" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -12173,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L19" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
@@ -12294,7 +12958,7 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E19" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E20" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -13024,6 +13688,58 @@
         <v>0</v>
       </c>
       <c r="M19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="11">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="12">
+        <f>VLOOKUP(A20,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C20" s="12">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <v>22.809999470000001</v>
+      </c>
+      <c r="D20" s="13">
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
+        <v>31.682903206079384</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="9"/>
+        <v>310977.26180343935</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>431912.84645321348</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="5"/>
+        <v>4673793.0108423736</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>3365131.1015247996</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="6"/>
+        <v>3620268.9256477943</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="2"/>
+        <v>3365131.1015247996</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="3"/>
+        <v>-255137.82412299467</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -446,7 +446,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -500,6 +500,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,7 +512,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -563,6 +566,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3620268.9256477943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3905605.8819636819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,7 +611,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -659,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +677,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -722,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3365131.1015247996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3664489.2563535217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +776,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -818,6 +830,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +842,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -881,6 +896,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-255137.82412299467</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-241116.62561016018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,11 +920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75664000"/>
-        <c:axId val="75719040"/>
+        <c:axId val="77917184"/>
+        <c:axId val="77948032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75664000"/>
+        <c:axId val="77917184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,14 +967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75719040"/>
+        <c:crossAx val="77948032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75719040"/>
+        <c:axId val="77948032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75664000"/>
+        <c:crossAx val="77917184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1167,7 +1185,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1221,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>310977.26180343935</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285336.95631588745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,8 +1256,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88947712"/>
-        <c:axId val="88945792"/>
+        <c:axId val="89828352"/>
+        <c:axId val="89826432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1261,7 +1282,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1315,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,7 +1348,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1378,6 +1402,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72299998998641968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,11 +1421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88339584"/>
-        <c:axId val="88341888"/>
+        <c:axId val="89568768"/>
+        <c:axId val="89570688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="88339584"/>
+        <c:axId val="89568768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1468,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88341888"/>
+        <c:crossAx val="89570688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="88341888"/>
+        <c:axId val="89570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,12 +1526,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88339584"/>
+        <c:crossAx val="89568768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88945792"/>
+        <c:axId val="89826432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,12 +1568,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88947712"/>
+        <c:crossAx val="89828352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="88947712"/>
+        <c:axId val="89828352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88945792"/>
+        <c:crossAx val="89826432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7622,6 +7649,380 @@
             <v>0.72000002861022949</v>
           </cell>
         </row>
+        <row r="351">
+          <cell r="A351">
+            <v>44896</v>
+          </cell>
+          <cell r="B351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C351">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D351">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E351">
+            <v>0.73400002717971802</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>44897</v>
+          </cell>
+          <cell r="B352">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C352">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D352">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="E352">
+            <v>0.72899997234344482</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>44900</v>
+          </cell>
+          <cell r="B353">
+            <v>0.73199999332427979</v>
+          </cell>
+          <cell r="C353">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="D353">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="E353">
+            <v>0.73500001430511475</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>44901</v>
+          </cell>
+          <cell r="B354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="C354">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D354">
+            <v>0.73299998044967651</v>
+          </cell>
+          <cell r="E354">
+            <v>0.74000000953674316</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>44902</v>
+          </cell>
+          <cell r="B355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C355">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D355">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E355">
+            <v>0.74599999189376831</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>44903</v>
+          </cell>
+          <cell r="B356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="C356">
+            <v>0.74800002574920654</v>
+          </cell>
+          <cell r="D356">
+            <v>0.74199998378753662</v>
+          </cell>
+          <cell r="E356">
+            <v>0.74400001764297485</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>44904</v>
+          </cell>
+          <cell r="B357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="C357">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D357">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E357">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>44907</v>
+          </cell>
+          <cell r="B358">
+            <v>0.74500000476837158</v>
+          </cell>
+          <cell r="C358">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="D358">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E358">
+            <v>0.74699997901916504</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>44908</v>
+          </cell>
+          <cell r="B359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C359">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="D359">
+            <v>0.7369999885559082</v>
+          </cell>
+          <cell r="E359">
+            <v>0.73799997568130493</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>44909</v>
+          </cell>
+          <cell r="B360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C360">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="D360">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E360">
+            <v>0.73500001430511475</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361">
+            <v>44910</v>
+          </cell>
+          <cell r="B361">
+            <v>0.73900002241134644</v>
+          </cell>
+          <cell r="C361">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="D361">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E361">
+            <v>0.74299997091293335</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362">
+            <v>44911</v>
+          </cell>
+          <cell r="B362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="C362">
+            <v>0.73799997568130493</v>
+          </cell>
+          <cell r="D362">
+            <v>0.73500001430511475</v>
+          </cell>
+          <cell r="E362">
+            <v>0.73600000143051147</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363">
+            <v>44914</v>
+          </cell>
+          <cell r="B363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="C363">
+            <v>0.74099999666213989</v>
+          </cell>
+          <cell r="D363">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="E363">
+            <v>0.72600001096725464</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364">
+            <v>44915</v>
+          </cell>
+          <cell r="B364">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="C364">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D364">
+            <v>0.7160000205039978</v>
+          </cell>
+          <cell r="E364">
+            <v>0.71899998188018799</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365">
+            <v>44916</v>
+          </cell>
+          <cell r="B365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="C365">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D365">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="E365">
+            <v>0.7149999737739563</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366">
+            <v>44917</v>
+          </cell>
+          <cell r="B366">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C366">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D366">
+            <v>0.71100002527236938</v>
+          </cell>
+          <cell r="E366">
+            <v>0.71399998664855957</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367">
+            <v>44918</v>
+          </cell>
+          <cell r="B367">
+            <v>0.70899999141693115</v>
+          </cell>
+          <cell r="C367">
+            <v>0.71299999952316284</v>
+          </cell>
+          <cell r="D367">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E367">
+            <v>0.70999997854232788</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368">
+            <v>44921</v>
+          </cell>
+          <cell r="B368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="C368">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="D368">
+            <v>0.7070000171661377</v>
+          </cell>
+          <cell r="E368">
+            <v>0.71899998188018799</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>44922</v>
+          </cell>
+          <cell r="B369">
+            <v>0.72200000286102295</v>
+          </cell>
+          <cell r="C369">
+            <v>0.73000001907348633</v>
+          </cell>
+          <cell r="D369">
+            <v>0.71899998188018799</v>
+          </cell>
+          <cell r="E369">
+            <v>0.72899997234344482</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370">
+            <v>44923</v>
+          </cell>
+          <cell r="B370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="C370">
+            <v>0.72399997711181641</v>
+          </cell>
+          <cell r="D370">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E370">
+            <v>0.72100001573562622</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371">
+            <v>44924</v>
+          </cell>
+          <cell r="B371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="C371">
+            <v>0.72600001096725464</v>
+          </cell>
+          <cell r="D371">
+            <v>0.71700000762939453</v>
+          </cell>
+          <cell r="E371">
+            <v>0.72299998998641968</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372">
+            <v>44925</v>
+          </cell>
+          <cell r="B372">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C372">
+            <v>0.72699999809265137</v>
+          </cell>
+          <cell r="D372">
+            <v>0.72100001573562622</v>
+          </cell>
+          <cell r="E372">
+            <v>0.72299998998641968</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -12322,6 +12723,268 @@
           </cell>
           <cell r="D405">
             <v>31.682903206079384</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="B406" t="str">
+            <v xml:space="preserve">2022/12/1
+</v>
+          </cell>
+          <cell r="C406">
+            <v>23.170000080000001</v>
+          </cell>
+          <cell r="D406">
+            <v>31.661831663688094</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="B407" t="str">
+            <v xml:space="preserve">2022/12/2
+</v>
+          </cell>
+          <cell r="C407">
+            <v>23.030000690000001</v>
+          </cell>
+          <cell r="D407">
+            <v>31.640518500790101</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="B408" t="str">
+            <v xml:space="preserve">2022/12/5
+</v>
+          </cell>
+          <cell r="C408">
+            <v>23.219999309999999</v>
+          </cell>
+          <cell r="D408">
+            <v>31.619778305738894</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="B409" t="str">
+            <v xml:space="preserve">2022/12/6
+</v>
+          </cell>
+          <cell r="C409">
+            <v>23.459999079999999</v>
+          </cell>
+          <cell r="D409">
+            <v>31.599729708132653</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="B410" t="str">
+            <v xml:space="preserve">2022/12/7
+</v>
+          </cell>
+          <cell r="C410">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D410">
+            <v>31.580245075563703</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="B411" t="str">
+            <v xml:space="preserve">2022/12/8
+</v>
+          </cell>
+          <cell r="C411">
+            <v>23.629999160000001</v>
+          </cell>
+          <cell r="D411">
+            <v>31.560806821491422</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="B412" t="str">
+            <v xml:space="preserve">2022/12/9
+</v>
+          </cell>
+          <cell r="C412">
+            <v>23.840000150000002</v>
+          </cell>
+          <cell r="D412">
+            <v>31.541975585707295</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="B413" t="str">
+            <v xml:space="preserve">2022/12/12
+</v>
+          </cell>
+          <cell r="C413">
+            <v>23.600000380000001</v>
+          </cell>
+          <cell r="D413">
+            <v>31.522652045060806</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="B414" t="str">
+            <v xml:space="preserve">2022/12/13
+</v>
+          </cell>
+          <cell r="C414">
+            <v>23.329999919999999</v>
+          </cell>
+          <cell r="D414">
+            <v>31.502766967087357</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="B415" t="str">
+            <v xml:space="preserve">2022/12/14
+</v>
+          </cell>
+          <cell r="C415">
+            <v>23.270000459999999</v>
+          </cell>
+          <cell r="D415">
+            <v>31.482832907748161</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="B416" t="str">
+            <v xml:space="preserve">2022/12/15
+</v>
+          </cell>
+          <cell r="C416">
+            <v>23.5</v>
+          </cell>
+          <cell r="D416">
+            <v>31.463550702656981</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="B417" t="str">
+            <v xml:space="preserve">2022/12/16
+</v>
+          </cell>
+          <cell r="C417">
+            <v>23.350000380000001</v>
+          </cell>
+          <cell r="D417">
+            <v>31.443999978987929</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="B418" t="str">
+            <v xml:space="preserve">2022/12/19
+</v>
+          </cell>
+          <cell r="C418">
+            <v>23.079999919999999</v>
+          </cell>
+          <cell r="D418">
+            <v>31.423894209615362</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="B419" t="str">
+            <v xml:space="preserve">2022/12/20
+</v>
+          </cell>
+          <cell r="C419">
+            <v>22.709999079999999</v>
+          </cell>
+          <cell r="D419">
+            <v>31.402997578609092</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="B420" t="str">
+            <v xml:space="preserve">2022/12/21
+</v>
+          </cell>
+          <cell r="C420">
+            <v>22.61000061</v>
+          </cell>
+          <cell r="D420">
+            <v>31.381961700693761</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="B421" t="str">
+            <v xml:space="preserve">2022/12/22
+</v>
+          </cell>
+          <cell r="C421">
+            <v>22.549999239999998</v>
+          </cell>
+          <cell r="D421">
+            <v>31.360883031336495</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="B422" t="str">
+            <v xml:space="preserve">2022/12/23
+</v>
+          </cell>
+          <cell r="C422">
+            <v>22.450000760000002</v>
+          </cell>
+          <cell r="D422">
+            <v>31.33966664497617</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="B423" t="str">
+            <v xml:space="preserve">2022/12/26
+</v>
+          </cell>
+          <cell r="C423">
+            <v>22.790000920000001</v>
+          </cell>
+          <cell r="D423">
+            <v>31.319358650380028</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="B424" t="str">
+            <v xml:space="preserve">2022/12/27
+</v>
+          </cell>
+          <cell r="C424">
+            <v>23</v>
+          </cell>
+          <cell r="D424">
+            <v>31.29964453035543</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="B425" t="str">
+            <v xml:space="preserve">2022/12/28
+</v>
+          </cell>
+          <cell r="C425">
+            <v>22.729999540000001</v>
+          </cell>
+          <cell r="D425">
+            <v>31.279385322340406</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="B426">
+            <v>44924</v>
+          </cell>
+          <cell r="C426">
+            <v>22.760000229999999</v>
+          </cell>
+          <cell r="D426">
+            <v>31.259292432971684</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="B427">
+            <v>44925</v>
+          </cell>
+          <cell r="C427">
+            <v>22.739999770000001</v>
+          </cell>
+          <cell r="D427">
+            <v>31.23924703847057</v>
           </cell>
         </row>
       </sheetData>
@@ -12618,7 +13281,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12739,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F20" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -12747,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H20" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -12755,11 +13418,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J20" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K20" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -12817,7 +13480,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G20" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -12825,7 +13488,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I20" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -12837,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L20" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
@@ -12958,7 +13621,7 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E20" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E21" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -13740,6 +14403,58 @@
         <v>0</v>
       </c>
       <c r="M20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75">
+      <c r="A21" s="11">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="12">
+        <f>VLOOKUP(A21,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C21" s="12">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D21" s="13">
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
+        <v>31.23924703847057</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="9"/>
+        <v>285336.95631588745</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>394656.92983100459</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="5"/>
+        <v>5068449.9406733783</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>3664489.2563535217</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="6"/>
+        <v>3905605.8819636819</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="2"/>
+        <v>3664489.2563535217</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="3"/>
+        <v>-241116.62561016018</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -446,7 +446,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -503,6 +503,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,7 +515,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -559,16 +562,19 @@
                   <c:v>2578842.5224166512</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2917649.7563926717</c:v>
+                  <c:v>2976221.3286045827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3309291.6638443549</c:v>
+                  <c:v>3370780.6845249124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3620268.9256477943</c:v>
+                  <c:v>3684216.00351919</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3905605.8819636819</c:v>
+                  <c:v>3971785.5765907508</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4119475.6005098699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +617,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -668,6 +674,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +686,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -724,16 +733,19 @@
                   <c:v>2436534.5716019869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2555575.9199227449</c:v>
+                  <c:v>2614147.4921346558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2914171.5738237351</c:v>
+                  <c:v>2974903.2031816216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3365131.1015247996</c:v>
+                  <c:v>3431238.0326055675</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3664489.2563535217</c:v>
+                  <c:v>3733104.2461789353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4221575.4965124391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +788,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -833,6 +845,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +857,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -892,13 +907,16 @@
                   <c:v>-362073.83646992687</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-395120.0900206198</c:v>
+                  <c:v>-395877.48134329077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-255137.82412299467</c:v>
+                  <c:v>-252977.97091362253</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-241116.62561016018</c:v>
+                  <c:v>-238681.33041181555</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102099.89600256924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,11 +938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77917184"/>
-        <c:axId val="77948032"/>
+        <c:axId val="90420736"/>
+        <c:axId val="90422656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77917184"/>
+        <c:axId val="90420736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,14 +985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77948032"/>
+        <c:crossAx val="90422656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="77948032"/>
+        <c:axId val="90422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1043,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77917184"/>
+        <c:crossAx val="90420736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,7 +1203,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1232,16 +1250,19 @@
                   <c:v>252649.34925635549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338807.23397602042</c:v>
+                  <c:v>397378.80618793133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>391641.90745168331</c:v>
+                  <c:v>394559.35592032992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>310977.26180343935</c:v>
+                  <c:v>313435.3189942778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>285336.95631588745</c:v>
+                  <c:v>287569.57307156065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147690.02391911903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,8 +1277,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89828352"/>
-        <c:axId val="89826432"/>
+        <c:axId val="547545856"/>
+        <c:axId val="545466624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1282,7 +1303,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1339,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1372,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1405,6 +1429,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.72299998998641968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,11 +1448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89568768"/>
-        <c:axId val="89570688"/>
+        <c:axId val="254688256"/>
+        <c:axId val="478425856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89568768"/>
+        <c:axId val="254688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,14 +1495,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89570688"/>
+        <c:crossAx val="478425856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89570688"/>
+        <c:axId val="478425856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,12 +1553,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89568768"/>
+        <c:crossAx val="254688256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89826432"/>
+        <c:axId val="545466624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,12 +1595,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89828352"/>
+        <c:crossAx val="547545856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="89828352"/>
+        <c:axId val="547545856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89826432"/>
+        <c:crossAx val="545466624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8023,6 +8050,601 @@
             <v>0.72299998998641968</v>
           </cell>
         </row>
+        <row r="373">
+          <cell r="A373">
+            <v>44929</v>
+          </cell>
+          <cell r="B373">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="C373">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="D373">
+            <v>0.7149999737739563</v>
+          </cell>
+          <cell r="E373">
+            <v>0.72899997234344482</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374">
+            <v>44930</v>
+          </cell>
+          <cell r="B374">
+            <v>0.72500002384185791</v>
+          </cell>
+          <cell r="C374">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="D374">
+            <v>0.72000002861022949</v>
+          </cell>
+          <cell r="E374">
+            <v>0.72500002384185791</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375">
+            <v>44931</v>
+          </cell>
+          <cell r="B375">
+            <v>0.72899997234344482</v>
+          </cell>
+          <cell r="C375">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="D375">
+            <v>0.7279999852180481</v>
+          </cell>
+          <cell r="E375">
+            <v>0.74199998378753662</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376">
+            <v>44932</v>
+          </cell>
+          <cell r="B376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="C376">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="D376">
+            <v>0.74000000953674316</v>
+          </cell>
+          <cell r="E376">
+            <v>0.74500000476837158</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377">
+            <v>44935</v>
+          </cell>
+          <cell r="B377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C377">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="D377">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="E377">
+            <v>0.74699997901916504</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378">
+            <v>44936</v>
+          </cell>
+          <cell r="B378">
+            <v>0.74599999189376831</v>
+          </cell>
+          <cell r="C378">
+            <v>0.75499999523162842</v>
+          </cell>
+          <cell r="D378">
+            <v>0.74400001764297485</v>
+          </cell>
+          <cell r="E378">
+            <v>0.75300002098083496</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379">
+            <v>44937</v>
+          </cell>
+          <cell r="B379">
+            <v>0.75199997425079346</v>
+          </cell>
+          <cell r="C379">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D379">
+            <v>0.74699997901916504</v>
+          </cell>
+          <cell r="E379">
+            <v>0.74800002574920654</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380">
+            <v>44938</v>
+          </cell>
+          <cell r="B380">
+            <v>0.75099998712539673</v>
+          </cell>
+          <cell r="C380">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="D380">
+            <v>0.74900001287460327</v>
+          </cell>
+          <cell r="E380">
+            <v>0.75199997425079346</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381">
+            <v>44939</v>
+          </cell>
+          <cell r="B381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C381">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D381">
+            <v>0.74299997091293335</v>
+          </cell>
+          <cell r="E381">
+            <v>0.75900000333786011</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382">
+            <v>44942</v>
+          </cell>
+          <cell r="B382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="C382">
+            <v>0.77799999713897705</v>
+          </cell>
+          <cell r="D382">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E382">
+            <v>0.77300000190734863</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383">
+            <v>44943</v>
+          </cell>
+          <cell r="B383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="C383">
+            <v>0.79500001668930054</v>
+          </cell>
+          <cell r="D383">
+            <v>0.77300000190734863</v>
+          </cell>
+          <cell r="E383">
+            <v>0.77499997615814209</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384">
+            <v>44944</v>
+          </cell>
+          <cell r="B384">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="C384">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D384">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="E384">
+            <v>0.77600002288818359</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385">
+            <v>44945</v>
+          </cell>
+          <cell r="B385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C385">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="D385">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E385">
+            <v>0.78200000524520874</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386">
+            <v>44946</v>
+          </cell>
+          <cell r="B386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C386">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D386">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E386">
+            <v>0.78700000047683716</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387">
+            <v>44956</v>
+          </cell>
+          <cell r="B387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="C387">
+            <v>0.81000000238418579</v>
+          </cell>
+          <cell r="D387">
+            <v>0.78700000047683716</v>
+          </cell>
+          <cell r="E387">
+            <v>0.79799997806549072</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388">
+            <v>44957</v>
+          </cell>
+          <cell r="B388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="C388">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D388">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E388">
+            <v>0.78899997472763062</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389">
+            <v>44958</v>
+          </cell>
+          <cell r="B389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C389">
+            <v>0.80000001192092896</v>
+          </cell>
+          <cell r="D389">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="E389">
+            <v>0.79900002479553223</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390">
+            <v>44959</v>
+          </cell>
+          <cell r="B390">
+            <v>0.80099999904632568</v>
+          </cell>
+          <cell r="C390">
+            <v>0.80199998617172241</v>
+          </cell>
+          <cell r="D390">
+            <v>0.79400002956390381</v>
+          </cell>
+          <cell r="E390">
+            <v>0.79500001668930054</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391">
+            <v>44960</v>
+          </cell>
+          <cell r="B391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C391">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D391">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E391">
+            <v>0.79100000858306885</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392">
+            <v>44963</v>
+          </cell>
+          <cell r="B392">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C392">
+            <v>0.7850000262260437</v>
+          </cell>
+          <cell r="D392">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E392">
+            <v>0.77700001001358032</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393">
+            <v>44964</v>
+          </cell>
+          <cell r="B393">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="C393">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="D393">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="E393">
+            <v>0.77999997138977051</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394">
+            <v>44965</v>
+          </cell>
+          <cell r="B394">
+            <v>0.77999997138977051</v>
+          </cell>
+          <cell r="C394">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="D394">
+            <v>0.77600002288818359</v>
+          </cell>
+          <cell r="E394">
+            <v>0.77700001001358032</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395">
+            <v>44966</v>
+          </cell>
+          <cell r="B395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C395">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D395">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="E395">
+            <v>0.78799998760223389</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396">
+            <v>44967</v>
+          </cell>
+          <cell r="B396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C396">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="D396">
+            <v>0.77899998426437378</v>
+          </cell>
+          <cell r="E396">
+            <v>0.7839999794960022</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397">
+            <v>44970</v>
+          </cell>
+          <cell r="B397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="C397">
+            <v>0.79000002145767212</v>
+          </cell>
+          <cell r="D397">
+            <v>0.78100001811981201</v>
+          </cell>
+          <cell r="E397">
+            <v>0.78899997472763062</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398">
+            <v>44971</v>
+          </cell>
+          <cell r="B398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="C398">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D398">
+            <v>0.78299999237060547</v>
+          </cell>
+          <cell r="E398">
+            <v>0.78700000047683716</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399">
+            <v>44972</v>
+          </cell>
+          <cell r="B399">
+            <v>0.78799998760223389</v>
+          </cell>
+          <cell r="C399">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="D399">
+            <v>0.7839999794960022</v>
+          </cell>
+          <cell r="E399">
+            <v>0.78600001335144043</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400">
+            <v>44973</v>
+          </cell>
+          <cell r="B400">
+            <v>0.79100000858306885</v>
+          </cell>
+          <cell r="C400">
+            <v>0.79199999570846558</v>
+          </cell>
+          <cell r="D400">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="E400">
+            <v>0.77799999713897705</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="A401">
+            <v>44974</v>
+          </cell>
+          <cell r="B401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="C401">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D401">
+            <v>0.75999999046325684</v>
+          </cell>
+          <cell r="E401">
+            <v>0.76099997758865356</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402">
+            <v>44977</v>
+          </cell>
+          <cell r="B402">
+            <v>0.75800001621246338</v>
+          </cell>
+          <cell r="C402">
+            <v>0.77499997615814209</v>
+          </cell>
+          <cell r="D402">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E402">
+            <v>0.77399998903274536</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403">
+            <v>44978</v>
+          </cell>
+          <cell r="B403">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="C403">
+            <v>0.77700001001358032</v>
+          </cell>
+          <cell r="D403">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="E403">
+            <v>0.77399998903274536</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404">
+            <v>44979</v>
+          </cell>
+          <cell r="B404">
+            <v>0.76999998092651367</v>
+          </cell>
+          <cell r="C404">
+            <v>0.77100002765655518</v>
+          </cell>
+          <cell r="D404">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E404">
+            <v>0.76800000667572021</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405">
+            <v>44980</v>
+          </cell>
+          <cell r="B405">
+            <v>0.7720000147819519</v>
+          </cell>
+          <cell r="C405">
+            <v>0.77399998903274536</v>
+          </cell>
+          <cell r="D405">
+            <v>0.76700001955032349</v>
+          </cell>
+          <cell r="E405">
+            <v>0.76700001955032349</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406">
+            <v>44981</v>
+          </cell>
+          <cell r="B406">
+            <v>0.76800000667572021</v>
+          </cell>
+          <cell r="C406">
+            <v>0.76899999380111694</v>
+          </cell>
+          <cell r="D406">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="E406">
+            <v>0.76499998569488525</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407">
+            <v>44984</v>
+          </cell>
+          <cell r="B407">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="C407">
+            <v>0.76099997758865356</v>
+          </cell>
+          <cell r="D407">
+            <v>0.75599998235702515</v>
+          </cell>
+          <cell r="E407">
+            <v>0.75700002908706665</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -12027,10 +12649,10 @@
 </v>
           </cell>
           <cell r="C347">
-            <v>23.5</v>
+            <v>24.68000031</v>
           </cell>
           <cell r="D347">
-            <v>33.149565178898534</v>
+            <v>33.152985469652158</v>
           </cell>
         </row>
         <row r="348">
@@ -12039,10 +12661,10 @@
 </v>
           </cell>
           <cell r="C348">
-            <v>23.5</v>
+            <v>24.6341</v>
           </cell>
           <cell r="D348">
-            <v>33.121676262196516</v>
+            <v>33.128364413381483</v>
           </cell>
         </row>
         <row r="349">
@@ -12051,10 +12673,10 @@
 </v>
           </cell>
           <cell r="C349">
-            <v>23.5</v>
+            <v>24.469999309999999</v>
           </cell>
           <cell r="D349">
-            <v>33.093948088530247</v>
+            <v>33.103412352564824</v>
           </cell>
         </row>
         <row r="350">
@@ -12063,10 +12685,10 @@
 </v>
           </cell>
           <cell r="C350">
-            <v>23.33</v>
+            <v>24.540000920000001</v>
           </cell>
           <cell r="D350">
-            <v>33.065890766436766</v>
+            <v>33.078804848448264</v>
           </cell>
         </row>
         <row r="351">
@@ -12075,10 +12697,10 @@
 </v>
           </cell>
           <cell r="C351">
-            <v>23.05</v>
+            <v>24.780000690000001</v>
           </cell>
           <cell r="D351">
-            <v>33.037191939025774</v>
+            <v>33.055026039971331</v>
           </cell>
         </row>
         <row r="352">
@@ -12087,10 +12709,10 @@
 </v>
           </cell>
           <cell r="C352">
-            <v>22.91</v>
+            <v>24.440000529999999</v>
           </cell>
           <cell r="D352">
-            <v>33.008257104914271</v>
+            <v>33.030411681371412</v>
           </cell>
         </row>
         <row r="353">
@@ -12099,10 +12721,10 @@
 </v>
           </cell>
           <cell r="C353">
-            <v>23</v>
+            <v>24.770099999999999</v>
           </cell>
           <cell r="D353">
-            <v>32.979743551908818</v>
+            <v>33.006878029857532</v>
           </cell>
         </row>
         <row r="354">
@@ -12111,10 +12733,10 @@
 </v>
           </cell>
           <cell r="C354">
-            <v>23.46</v>
+            <v>24.93</v>
           </cell>
           <cell r="D354">
-            <v>32.952698825909074</v>
+            <v>32.983932353636348</v>
           </cell>
         </row>
         <row r="355">
@@ -12123,10 +12745,10 @@
 </v>
           </cell>
           <cell r="C355">
-            <v>22.93</v>
+            <v>24.52</v>
           </cell>
           <cell r="D355">
-            <v>32.924305911388082</v>
+            <v>32.959955208158625</v>
           </cell>
         </row>
         <row r="356">
@@ -12135,10 +12757,10 @@
 </v>
           </cell>
           <cell r="C356">
-            <v>23.03</v>
+            <v>23.94</v>
           </cell>
           <cell r="D356">
-            <v>32.89635589468925</v>
+            <v>32.934475108700553</v>
           </cell>
         </row>
         <row r="357">
@@ -12147,10 +12769,10 @@
 </v>
           </cell>
           <cell r="C357">
-            <v>22.61000061</v>
+            <v>23.5</v>
           </cell>
           <cell r="D357">
-            <v>32.867380245999989</v>
+            <v>32.90789912247886</v>
           </cell>
         </row>
         <row r="358">
@@ -12159,10 +12781,10 @@
 </v>
           </cell>
           <cell r="C358">
-            <v>22.040000920000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D358">
-            <v>32.836966259129198</v>
+            <v>32.881472439550549</v>
           </cell>
         </row>
         <row r="359">
@@ -12171,10 +12793,10 @@
 </v>
           </cell>
           <cell r="C359">
-            <v>22.239999770000001</v>
+            <v>23.5</v>
           </cell>
           <cell r="D359">
-            <v>32.807282879607826</v>
+            <v>32.85519380526609</v>
           </cell>
         </row>
         <row r="360">
@@ -12183,10 +12805,10 @@
 </v>
           </cell>
           <cell r="C360">
-            <v>22.920000080000001</v>
+            <v>23.33</v>
           </cell>
           <cell r="D360">
-            <v>32.779664771229037</v>
+            <v>32.8285871186592</v>
           </cell>
         </row>
         <row r="361">
@@ -12195,10 +12817,10 @@
 </v>
           </cell>
           <cell r="C361">
-            <v>22.850000380000001</v>
+            <v>23.05</v>
           </cell>
           <cell r="D361">
-            <v>32.752005538941489</v>
+            <v>32.801348714428954</v>
           </cell>
         </row>
         <row r="362">
@@ -12207,10 +12829,10 @@
 </v>
           </cell>
           <cell r="C362">
-            <v>23.649999619999999</v>
+            <v>22.91</v>
           </cell>
           <cell r="D362">
-            <v>32.726722189166651</v>
+            <v>32.773872745777759</v>
           </cell>
         </row>
         <row r="363">
@@ -12219,10 +12841,10 @@
 </v>
           </cell>
           <cell r="C363">
-            <v>23.719999309999999</v>
+            <v>23</v>
           </cell>
           <cell r="D363">
-            <v>32.701772818310232</v>
+            <v>32.746798306038762</v>
           </cell>
         </row>
         <row r="364">
@@ -12231,10 +12853,10 @@
 </v>
           </cell>
           <cell r="C364">
-            <v>23.850000380000001</v>
+            <v>23.46</v>
           </cell>
           <cell r="D364">
-            <v>32.677320408259654</v>
+            <v>32.721144167071806</v>
           </cell>
         </row>
         <row r="365">
@@ -12243,10 +12865,10 @@
 </v>
           </cell>
           <cell r="C365">
-            <v>23.590000150000002</v>
+            <v>22.93</v>
           </cell>
           <cell r="D365">
-            <v>32.652286468154252</v>
+            <v>32.694171318126706</v>
           </cell>
         </row>
         <row r="366">
@@ -12255,10 +12877,10 @@
 </v>
           </cell>
           <cell r="C366">
-            <v>23.399999619999999</v>
+            <v>23.030000690000001</v>
           </cell>
           <cell r="D366">
-            <v>32.626868097692288</v>
+            <v>32.66762139881866</v>
           </cell>
         </row>
         <row r="367">
@@ -12266,10 +12888,10 @@
             <v>44834</v>
           </cell>
           <cell r="C367">
-            <v>23.340000150000002</v>
+            <v>22.61</v>
           </cell>
           <cell r="D367">
-            <v>32.601424623862997</v>
+            <v>32.640066271698615</v>
           </cell>
         </row>
         <row r="368">
@@ -12281,7 +12903,7 @@
             <v>22.040000920000001</v>
           </cell>
           <cell r="D368">
-            <v>32.57256827494534</v>
+            <v>32.611104344508178</v>
           </cell>
         </row>
         <row r="369">
@@ -12293,7 +12915,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D369">
-            <v>32.544414137329682</v>
+            <v>32.582845203978181</v>
           </cell>
         </row>
         <row r="370">
@@ -12305,7 +12927,7 @@
             <v>22.920000080000001</v>
           </cell>
           <cell r="D370">
-            <v>32.518260838260851</v>
+            <v>32.556587472663026</v>
           </cell>
         </row>
         <row r="371">
@@ -12317,7 +12939,7 @@
             <v>22.850000380000001</v>
           </cell>
           <cell r="D371">
-            <v>32.492059590406484</v>
+            <v>32.530282358590767</v>
           </cell>
         </row>
         <row r="372">
@@ -12329,7 +12951,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D372">
-            <v>32.468162131027007</v>
+            <v>32.506281594432416</v>
           </cell>
         </row>
         <row r="373">
@@ -12341,7 +12963,7 @@
             <v>23.719999309999999</v>
           </cell>
           <cell r="D373">
-            <v>32.444582177331519</v>
+            <v>32.482598892857126</v>
           </cell>
         </row>
         <row r="374">
@@ -12353,7 +12975,7 @@
             <v>23.850000380000001</v>
           </cell>
           <cell r="D374">
-            <v>32.421478462822563</v>
+            <v>32.459392982876324</v>
           </cell>
         </row>
         <row r="375">
@@ -12365,7 +12987,7 @@
             <v>23.590000150000002</v>
           </cell>
           <cell r="D375">
-            <v>32.39780157726539</v>
+            <v>32.435614449812313</v>
           </cell>
         </row>
         <row r="376">
@@ -12377,7 +12999,7 @@
             <v>23.399999619999999</v>
           </cell>
           <cell r="D376">
-            <v>32.373743283262009</v>
+            <v>32.411455051871634</v>
           </cell>
         </row>
         <row r="377">
@@ -12389,7 +13011,7 @@
             <v>23.340000150000002</v>
           </cell>
           <cell r="D377">
-            <v>32.349653301573312</v>
+            <v>32.387264505466646</v>
           </cell>
         </row>
         <row r="378">
@@ -12401,7 +13023,7 @@
             <v>22.829999919999999</v>
           </cell>
           <cell r="D378">
-            <v>32.324335074494662</v>
+            <v>32.361846248590403</v>
           </cell>
         </row>
         <row r="379">
@@ -12413,7 +13035,7 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D379">
-            <v>32.298912434429688</v>
+            <v>32.336324109389899</v>
           </cell>
         </row>
         <row r="380">
@@ -12425,7 +13047,7 @@
             <v>23.18000031</v>
           </cell>
           <cell r="D380">
-            <v>32.274788328280401</v>
+            <v>32.312101030555532</v>
           </cell>
         </row>
         <row r="381">
@@ -12437,7 +13059,7 @@
             <v>22.959999079999999</v>
           </cell>
           <cell r="D381">
-            <v>32.250211047941931</v>
+            <v>32.287425299815283</v>
           </cell>
         </row>
         <row r="382">
@@ -12448,7 +13070,7 @@
             <v>22.13999939</v>
           </cell>
           <cell r="D382">
-            <v>32.223605227789449</v>
+            <v>32.260721547421028</v>
           </cell>
         </row>
         <row r="383">
@@ -12459,7 +13081,7 @@
             <v>22.239999770000001</v>
           </cell>
           <cell r="D383">
-            <v>32.197401538923856</v>
+            <v>32.234420440393677</v>
           </cell>
         </row>
         <row r="384">
@@ -12471,7 +13093,7 @@
             <v>22.270000459999999</v>
           </cell>
           <cell r="D384">
-            <v>32.171413577984268</v>
+            <v>32.208335571335049</v>
           </cell>
         </row>
         <row r="385">
@@ -12483,7 +13105,7 @@
             <v>22.600000380000001</v>
           </cell>
           <cell r="D385">
-            <v>32.146422943002584</v>
+            <v>32.183248534281958</v>
           </cell>
         </row>
         <row r="386">
@@ -12495,7 +13117,7 @@
             <v>22.479999540000001</v>
           </cell>
           <cell r="D386">
-            <v>32.121249965390597</v>
+            <v>32.157979656692682</v>
           </cell>
         </row>
         <row r="387">
@@ -12507,7 +13129,7 @@
             <v>23.200000760000002</v>
           </cell>
           <cell r="D387">
-            <v>32.098077889532441</v>
+            <v>32.134712179038935</v>
           </cell>
         </row>
         <row r="388">
@@ -12519,7 +13141,7 @@
             <v>23.190000529999999</v>
           </cell>
           <cell r="D388">
-            <v>32.074999968911889</v>
+            <v>32.111539350932617</v>
           </cell>
         </row>
         <row r="389">
@@ -12531,7 +13153,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D389">
-            <v>32.051627877751912</v>
+            <v>32.088072842764831</v>
           </cell>
         </row>
         <row r="390">
@@ -12543,7 +13165,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D390">
-            <v>32.027680383814406</v>
+            <v>32.064031418505131</v>
           </cell>
         </row>
         <row r="391">
@@ -12555,7 +13177,7 @@
             <v>22.31999969</v>
           </cell>
           <cell r="D391">
-            <v>32.002724906452414</v>
+            <v>32.038982493753188</v>
           </cell>
         </row>
         <row r="392">
@@ -12567,7 +13189,7 @@
             <v>22.870000839999999</v>
           </cell>
           <cell r="D392">
-            <v>31.979307665256382</v>
+            <v>32.015472284384586</v>
           </cell>
         </row>
         <row r="393">
@@ -12579,7 +13201,7 @@
             <v>22.88999939</v>
           </cell>
           <cell r="D393">
-            <v>31.95606135253194</v>
+            <v>31.992133479028105</v>
           </cell>
         </row>
         <row r="394">
@@ -12591,7 +13213,7 @@
             <v>23.450000760000002</v>
           </cell>
           <cell r="D394">
-            <v>31.934362218367319</v>
+            <v>31.970342324132627</v>
           </cell>
         </row>
         <row r="395">
@@ -12603,7 +13225,7 @@
             <v>23.129999160000001</v>
           </cell>
           <cell r="D395">
-            <v>31.911959258931272</v>
+            <v>31.947847812264605</v>
           </cell>
         </row>
         <row r="396">
@@ -12615,7 +13237,7 @@
             <v>23.010000229999999</v>
           </cell>
           <cell r="D396">
-            <v>31.889365454289315</v>
+            <v>31.925162919923835</v>
           </cell>
         </row>
         <row r="397">
@@ -12627,7 +13249,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D397">
-            <v>31.866936682734149</v>
+            <v>31.902643521873394</v>
           </cell>
         </row>
         <row r="398">
@@ -12639,7 +13261,7 @@
             <v>23</v>
           </cell>
           <cell r="D398">
-            <v>31.844545428484821</v>
+            <v>31.880162098838358</v>
           </cell>
         </row>
         <row r="399">
@@ -12651,7 +13273,7 @@
             <v>22.649999619999999</v>
           </cell>
           <cell r="D399">
-            <v>31.821385363476043</v>
+            <v>31.856912319294686</v>
           </cell>
         </row>
         <row r="400">
@@ -12663,7 +13285,7 @@
             <v>22.540000920000001</v>
           </cell>
           <cell r="D400">
-            <v>31.798065302060277</v>
+            <v>31.833502994170832</v>
           </cell>
         </row>
         <row r="401">
@@ -12675,7 +13297,7 @@
             <v>22.510000229999999</v>
           </cell>
           <cell r="D401">
-            <v>31.774786943483686</v>
+            <v>31.810135819323285</v>
           </cell>
         </row>
         <row r="402">
@@ -12687,7 +13309,7 @@
             <v>22.36000061</v>
           </cell>
           <cell r="D402">
-            <v>31.751249977649977</v>
+            <v>31.786510481299977</v>
           </cell>
         </row>
         <row r="403">
@@ -12699,7 +13321,7 @@
             <v>22.200000760000002</v>
           </cell>
           <cell r="D403">
-            <v>31.727431401047358</v>
+            <v>31.762603973266813</v>
           </cell>
         </row>
         <row r="404">
@@ -12711,7 +13333,7 @@
             <v>22.700000760000002</v>
           </cell>
           <cell r="D404">
-            <v>31.704975105920376</v>
+            <v>31.740060184179082</v>
           </cell>
         </row>
         <row r="405">
@@ -12722,7 +13344,7 @@
             <v>22.809999470000001</v>
           </cell>
           <cell r="D405">
-            <v>31.682903206079384</v>
+            <v>31.717901224590552</v>
           </cell>
         </row>
         <row r="406">
@@ -12734,7 +13356,7 @@
             <v>23.170000080000001</v>
           </cell>
           <cell r="D406">
-            <v>31.661831663688094</v>
+            <v>31.696743053440571</v>
           </cell>
         </row>
         <row r="407">
@@ -12746,7 +13368,7 @@
             <v>23.030000690000001</v>
           </cell>
           <cell r="D407">
-            <v>31.640518500790101</v>
+            <v>31.675343689580224</v>
           </cell>
         </row>
         <row r="408">
@@ -12758,7 +13380,7 @@
             <v>23.219999309999999</v>
           </cell>
           <cell r="D408">
-            <v>31.619778305738894</v>
+            <v>31.654517718201948</v>
           </cell>
         </row>
         <row r="409">
@@ -12770,7 +13392,7 @@
             <v>23.459999079999999</v>
           </cell>
           <cell r="D409">
-            <v>31.599729708132653</v>
+            <v>31.634383765773933</v>
           </cell>
         </row>
         <row r="410">
@@ -12782,7 +13404,7 @@
             <v>23.649999619999999</v>
           </cell>
           <cell r="D410">
-            <v>31.580245075563703</v>
+            <v>31.614814196789194</v>
           </cell>
         </row>
         <row r="411">
@@ -12794,7 +13416,7 @@
             <v>23.629999160000001</v>
           </cell>
           <cell r="D411">
-            <v>31.560806821491422</v>
+            <v>31.595291421638123</v>
           </cell>
         </row>
         <row r="412">
@@ -12806,7 +13428,7 @@
             <v>23.840000150000002</v>
           </cell>
           <cell r="D412">
-            <v>31.541975585707295</v>
+            <v>31.576376077073149</v>
           </cell>
         </row>
         <row r="413">
@@ -12818,7 +13440,7 @@
             <v>23.600000380000001</v>
           </cell>
           <cell r="D413">
-            <v>31.522652045060806</v>
+            <v>31.556968836934285</v>
           </cell>
         </row>
         <row r="414">
@@ -12830,7 +13452,7 @@
             <v>23.329999919999999</v>
           </cell>
           <cell r="D414">
-            <v>31.502766967087357</v>
+            <v>31.537000465776678</v>
           </cell>
         </row>
         <row r="415">
@@ -12842,7 +13464,7 @@
             <v>23.270000459999999</v>
           </cell>
           <cell r="D415">
-            <v>31.482832907748161</v>
+            <v>31.51698351661015</v>
           </cell>
         </row>
         <row r="416">
@@ -12854,7 +13476,7 @@
             <v>23.5</v>
           </cell>
           <cell r="D416">
-            <v>31.463550702656981</v>
+            <v>31.497618822125581</v>
           </cell>
         </row>
         <row r="417">
@@ -12866,7 +13488,7 @@
             <v>23.350000380000001</v>
           </cell>
           <cell r="D417">
-            <v>31.443999978987929</v>
+            <v>31.477986006602389</v>
           </cell>
         </row>
         <row r="418">
@@ -12878,7 +13500,7 @@
             <v>23.079999919999999</v>
           </cell>
           <cell r="D418">
-            <v>31.423894209615362</v>
+            <v>31.457798540048056</v>
           </cell>
         </row>
         <row r="419">
@@ -12890,7 +13512,7 @@
             <v>22.709999079999999</v>
           </cell>
           <cell r="D419">
-            <v>31.402997578609092</v>
+            <v>31.436820603693025</v>
           </cell>
         </row>
         <row r="420">
@@ -12902,7 +13524,7 @@
             <v>22.61000061</v>
           </cell>
           <cell r="D420">
-            <v>31.381961700693761</v>
+            <v>31.415703809449742</v>
           </cell>
         </row>
         <row r="421">
@@ -12914,7 +13536,7 @@
             <v>22.549999239999998</v>
           </cell>
           <cell r="D421">
-            <v>31.360883031336495</v>
+            <v>31.394544609999983</v>
           </cell>
         </row>
         <row r="422">
@@ -12926,7 +13548,7 @@
             <v>22.450000760000002</v>
           </cell>
           <cell r="D422">
-            <v>31.33966664497617</v>
+            <v>31.373248077023792</v>
           </cell>
         </row>
         <row r="423">
@@ -12938,7 +13560,7 @@
             <v>22.790000920000001</v>
           </cell>
           <cell r="D423">
-            <v>31.319358650380028</v>
+            <v>31.352860316555802</v>
           </cell>
         </row>
         <row r="424">
@@ -12950,7 +13572,7 @@
             <v>23</v>
           </cell>
           <cell r="D424">
-            <v>31.29964453035543</v>
+            <v>31.333066808696664</v>
           </cell>
         </row>
         <row r="425">
@@ -12962,7 +13584,7 @@
             <v>22.729999540000001</v>
           </cell>
           <cell r="D425">
-            <v>31.279385322340406</v>
+            <v>31.312728588203292</v>
           </cell>
         </row>
         <row r="426">
@@ -12973,7 +13595,7 @@
             <v>22.760000229999999</v>
           </cell>
           <cell r="D426">
-            <v>31.259292432971684</v>
+            <v>31.292557059056588</v>
           </cell>
         </row>
         <row r="427">
@@ -12984,7 +13606,197 @@
             <v>22.739999770000001</v>
           </cell>
           <cell r="D427">
-            <v>31.23924703847057</v>
+            <v>31.272433394847042</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="B428" t="str">
+            <v xml:space="preserve">2023/1/3
+</v>
+          </cell>
+          <cell r="C428">
+            <v>22.829999919999999</v>
+          </cell>
+          <cell r="D428">
+            <v>31.252615475892004</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="B429" t="str">
+            <v xml:space="preserve">2023/1/4
+</v>
+          </cell>
+          <cell r="C429">
+            <v>23.409999849999998</v>
+          </cell>
+          <cell r="D429">
+            <v>31.234248694566734</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="B430" t="str">
+            <v xml:space="preserve">2023/1/5
+</v>
+          </cell>
+          <cell r="C430">
+            <v>23.5</v>
+          </cell>
+          <cell r="D430">
+            <v>31.216178020046716</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="B431" t="str">
+            <v xml:space="preserve">2023/1/6
+</v>
+          </cell>
+          <cell r="C431">
+            <v>23.579999919999999</v>
+          </cell>
+          <cell r="D431">
+            <v>31.198378071095561</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="B432" t="str">
+            <v xml:space="preserve">2023/1/9
+</v>
+          </cell>
+          <cell r="C432">
+            <v>23.81999969</v>
+          </cell>
+          <cell r="D432">
+            <v>31.181219051604643</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="B433" t="str">
+            <v xml:space="preserve">2023/1/10
+</v>
+          </cell>
+          <cell r="C433">
+            <v>23.649999619999999</v>
+          </cell>
+          <cell r="D433">
+            <v>31.163745224617159</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="B434" t="str">
+            <v xml:space="preserve">2023/1/11
+</v>
+          </cell>
+          <cell r="C434">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D434">
+            <v>31.146653223379619</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="B435" t="str">
+            <v xml:space="preserve">2023/1/12
+</v>
+          </cell>
+          <cell r="C435">
+            <v>24.100000380000001</v>
+          </cell>
+          <cell r="D435">
+            <v>31.13037919833717</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="B436" t="str">
+            <v xml:space="preserve">2023/1/13
+</v>
+          </cell>
+          <cell r="C436">
+            <v>24.450000760000002</v>
+          </cell>
+          <cell r="D436">
+            <v>31.114986621290313</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="B437" t="str">
+            <v xml:space="preserve">2023/1/16
+</v>
+          </cell>
+          <cell r="C437">
+            <v>24.520000459999999</v>
+          </cell>
+          <cell r="D437">
+            <v>31.099825733563208</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="B438" t="str">
+            <v xml:space="preserve">2023/1/17
+</v>
+          </cell>
+          <cell r="C438">
+            <v>24.530000690000001</v>
+          </cell>
+          <cell r="D438">
+            <v>31.084757327499986</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="B439" t="str">
+            <v xml:space="preserve">2023/1/18
+</v>
+          </cell>
+          <cell r="C439">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D439">
+            <v>31.0702384314874</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="B440" t="str">
+            <v xml:space="preserve">2023/1/19
+</v>
+          </cell>
+          <cell r="C440">
+            <v>24.829999919999999</v>
+          </cell>
+          <cell r="D440">
+            <v>31.055991311598159</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="B441" t="str">
+            <v xml:space="preserve">2023/1/20
+</v>
+          </cell>
+          <cell r="C441">
+            <v>25.170000080000001</v>
+          </cell>
+          <cell r="D441">
+            <v>31.042583586697024</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="B442">
+            <v>44956</v>
+          </cell>
+          <cell r="C442">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D442">
+            <v>31.028623168590894</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="B443">
+            <v>44957</v>
+          </cell>
+          <cell r="C443">
+            <v>24.899999619999999</v>
+          </cell>
+          <cell r="D443">
+            <v>31.014726063038534</v>
           </cell>
         </row>
       </sheetData>
@@ -13281,7 +14093,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13391,18 +14203,18 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="C3" s="12">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>41.45</v>
       </c>
       <c r="D3" s="13">
-        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A3,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>41.041896551724122</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F21" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -13410,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H21" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -13418,11 +14230,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J21" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K21" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -13464,11 +14276,11 @@
         <v>1.006</v>
       </c>
       <c r="C4" s="12">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>39.930000305175781</v>
       </c>
       <c r="D4" s="13">
-        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A4,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.930499984741189</v>
       </c>
       <c r="E4" s="13">
@@ -13480,7 +14292,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G21" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -13488,7 +14300,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I21" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -13500,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L21" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
@@ -13554,11 +14366,11 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="C5" s="12">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>38.069999694824219</v>
       </c>
       <c r="D5" s="13">
-        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A5,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>40.654705834482208</v>
       </c>
       <c r="E5" s="13">
@@ -13613,15 +14425,15 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="C6" s="12">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.020000457763672</v>
       </c>
       <c r="D6" s="13">
-        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A6,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E21" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E22" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -13672,11 +14484,11 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="12">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>36.299999239999998</v>
       </c>
       <c r="D7" s="13">
-        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A7,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="13">
@@ -13728,11 +14540,11 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="12">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>35.450000000000003</v>
       </c>
       <c r="D8" s="13">
-        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A8,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="13">
@@ -13780,11 +14592,11 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="12">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>34.630000000000003</v>
       </c>
       <c r="D9" s="13">
-        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A9,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="13">
@@ -13835,11 +14647,11 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="12">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>31.159999849999998</v>
       </c>
       <c r="D10" s="13">
-        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A10,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="13">
@@ -13890,11 +14702,11 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="12">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>30.969999309999999</v>
       </c>
       <c r="D11" s="13">
-        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A11,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="13">
@@ -13945,11 +14757,11 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="12">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.63999939</v>
       </c>
       <c r="D12" s="13">
-        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A12,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="13">
@@ -13998,11 +14810,11 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="12">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.129999160000001</v>
       </c>
       <c r="D13" s="13">
-        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A13,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="13">
@@ -14051,11 +14863,11 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="12">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>24.129999160000001</v>
       </c>
       <c r="D14" s="13">
-        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A14,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="13">
@@ -14103,11 +14915,11 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="12">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>27.809999470000001</v>
       </c>
       <c r="D15" s="13">
-        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A15,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="13">
@@ -14155,11 +14967,11 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="12">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>26.329999919999999</v>
       </c>
       <c r="D16" s="13">
-        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A16,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="13">
@@ -14207,11 +15019,11 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="12">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>25.18000031</v>
       </c>
       <c r="D17" s="13">
-        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3)</f>
+        <f>VLOOKUP(A17,[2]myPEPB!$B:$D,3,FALSE)</f>
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="13">
@@ -14259,36 +15071,36 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="12">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2)</f>
-        <v>23.340000150000002</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>22.61</v>
       </c>
       <c r="D18" s="13">
-        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3)</f>
-        <v>32.601424623862997</v>
+        <f>VLOOKUP(A18,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.640066271698615</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="9"/>
-        <v>338807.23397602042</v>
+        <v>397378.80618793133</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="0"/>
-        <v>486792.0168463827</v>
+        <v>570946.57704363531</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="5"/>
-        <v>3671804.5883025359</v>
+        <v>3755959.1484997887</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="1"/>
-        <v>2555575.9199227449</v>
+        <v>2614147.4921346558</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="6"/>
-        <v>2917649.7563926717</v>
+        <v>2976221.3286045827</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>2555575.9199227449</v>
+        <v>2614147.4921346558</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="3"/>
@@ -14311,40 +15123,40 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="12">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.239999770000001</v>
       </c>
       <c r="D19" s="13">
-        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3)</f>
-        <v>32.197401538923856</v>
+        <f>VLOOKUP(A19,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>32.234420440393677</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="9"/>
-        <v>391641.90745168331</v>
+        <v>394559.35592032992</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="0"/>
-        <v>570075.57608662441</v>
+        <v>574322.22611263557</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="5"/>
-        <v>4241880.1643891605</v>
+        <v>4330281.3746124245</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="1"/>
-        <v>2914171.5738237351</v>
+        <v>2974903.2031816216</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="6"/>
-        <v>3309291.6638443549</v>
+        <v>3370780.6845249124</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>2914171.5738237351</v>
+        <v>2974903.2031816216</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="3"/>
-        <v>-395120.0900206198</v>
+        <v>-395877.48134329077</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="7"/>
@@ -14363,40 +15175,40 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="12">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.809999470000001</v>
       </c>
       <c r="D20" s="13">
-        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3)</f>
-        <v>31.682903206079384</v>
+        <f>VLOOKUP(A20,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.717901224590552</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="9"/>
-        <v>310977.26180343935</v>
+        <v>313435.3189942778</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="0"/>
-        <v>431912.84645321348</v>
+        <v>435326.81463816349</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="5"/>
-        <v>4673793.0108423736</v>
+        <v>4765608.1892505884</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="1"/>
-        <v>3365131.1015247996</v>
+        <v>3431238.0326055675</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="6"/>
-        <v>3620268.9256477943</v>
+        <v>3684216.00351919</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="2"/>
-        <v>3365131.1015247996</v>
+        <v>3431238.0326055675</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="3"/>
-        <v>-255137.82412299467</v>
+        <v>-252977.97091362253</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="7"/>
@@ -14415,46 +15227,98 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="12">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2)</f>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$C,2,FALSE)</f>
         <v>22.739999770000001</v>
       </c>
       <c r="D21" s="13">
-        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3)</f>
-        <v>31.23924703847057</v>
+        <f>VLOOKUP(A21,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.272433394847042</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="9"/>
-        <v>285336.95631588745</v>
+        <v>287569.57307156065</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="0"/>
-        <v>394656.92983100459</v>
+        <v>397744.9198539576</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="5"/>
-        <v>5068449.9406733783</v>
+        <v>5163353.1091045458</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>3664489.2563535217</v>
+        <v>3733104.2461789353</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="6"/>
-        <v>3905605.8819636819</v>
+        <v>3971785.5765907508</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
-        <v>3664489.2563535217</v>
+        <v>3733104.2461789353</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="3"/>
-        <v>-241116.62561016018</v>
+        <v>-238681.33041181555</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75">
+      <c r="A22" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B22" s="12">
+        <f>VLOOKUP(A22,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C22" s="12">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D22" s="13">
+        <f>VLOOKUP(A22,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>31.014726063038534</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="9"/>
+        <v>147690.02391911903</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>187186.34809855712</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="5"/>
+        <v>5350539.4572031032</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>4221575.4965124391</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="6"/>
+        <v>4119475.6005098699</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="2"/>
+        <v>4221575.4965124391</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="3"/>
+        <v>102099.89600256924</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -446,7 +446,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -506,6 +506,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,7 +518,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -575,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4119475.6005098699</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4299606.4914968191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,7 +623,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -677,6 +683,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +695,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -746,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4221575.4965124391</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4262592.5580649814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +800,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -848,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +872,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -917,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>102099.89600256924</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-37013.933431837708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,11 +956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90420736"/>
-        <c:axId val="90422656"/>
+        <c:axId val="569774464"/>
+        <c:axId val="569776000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90420736"/>
+        <c:axId val="569774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,14 +1003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90422656"/>
+        <c:crossAx val="569776000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90422656"/>
+        <c:axId val="569776000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90420736"/>
+        <c:crossAx val="569774464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1203,7 +1221,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1263,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>147690.02391911903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180130.89098694932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,8 +1298,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="547545856"/>
-        <c:axId val="545466624"/>
+        <c:axId val="578192512"/>
+        <c:axId val="577871232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1303,7 +1324,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1363,6 +1384,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,7 +1396,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1432,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7630000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,11 +1475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254688256"/>
-        <c:axId val="478425856"/>
+        <c:axId val="577867776"/>
+        <c:axId val="577869696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254688256"/>
+        <c:axId val="577867776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,14 +1522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478425856"/>
+        <c:crossAx val="577869696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478425856"/>
+        <c:axId val="577869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,12 +1580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254688256"/>
+        <c:crossAx val="577867776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545466624"/>
+        <c:axId val="577871232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,12 +1622,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547545856"/>
+        <c:crossAx val="578192512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="547545856"/>
+        <c:axId val="578192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545466624"/>
+        <c:crossAx val="577871232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8645,6 +8672,23 @@
             <v>0.75700002908706665</v>
           </cell>
         </row>
+        <row r="408">
+          <cell r="A408">
+            <v>44985</v>
+          </cell>
+          <cell r="B408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="C408">
+            <v>0.7630000114440918</v>
+          </cell>
+          <cell r="D408">
+            <v>0.75900000333786011</v>
+          </cell>
+          <cell r="E408">
+            <v>0.7630000114440918</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -8670,9 +8714,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
           <cell r="C2" t="str">
             <v>PE</v>
           </cell>
@@ -13797,6 +13838,244 @@
           </cell>
           <cell r="D443">
             <v>31.014726063038534</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="B444" t="str">
+            <v xml:space="preserve">2023/2/1
+</v>
+          </cell>
+          <cell r="C444">
+            <v>25.239999770000001</v>
+          </cell>
+          <cell r="D444">
+            <v>31.001661071425325</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="B445" t="str">
+            <v xml:space="preserve">2023/2/2
+</v>
+          </cell>
+          <cell r="C445">
+            <v>25.129999160000001</v>
+          </cell>
+          <cell r="D445">
+            <v>30.988406755598181</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="B446" t="str">
+            <v xml:space="preserve">2023/2/3
+</v>
+          </cell>
+          <cell r="C446">
+            <v>24.93000031</v>
+          </cell>
+          <cell r="D446">
+            <v>30.974761696036023</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="B447" t="str">
+            <v xml:space="preserve">2023/2/6
+</v>
+          </cell>
+          <cell r="C447">
+            <v>24.600000380000001</v>
+          </cell>
+          <cell r="D447">
+            <v>30.960436389707851</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="B448" t="str">
+            <v xml:space="preserve">2023/2/7
+</v>
+          </cell>
+          <cell r="C448">
+            <v>24.61000061</v>
+          </cell>
+          <cell r="D448">
+            <v>30.94619774446187</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="B449" t="str">
+            <v xml:space="preserve">2023/2/8
+</v>
+          </cell>
+          <cell r="C449">
+            <v>24.5</v>
+          </cell>
+          <cell r="D449">
+            <v>30.931776720425042</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="B450" t="str">
+            <v xml:space="preserve">2023/2/9
+</v>
+          </cell>
+          <cell r="C450">
+            <v>24.870000839999999</v>
+          </cell>
+          <cell r="D450">
+            <v>30.918245970691949</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="B451" t="str">
+            <v xml:space="preserve">2023/2/10
+</v>
+          </cell>
+          <cell r="C451">
+            <v>24.63999939</v>
+          </cell>
+          <cell r="D451">
+            <v>30.904263238886397</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="B452" t="str">
+            <v xml:space="preserve">2023/2/13
+</v>
+          </cell>
+          <cell r="C452">
+            <v>24.879999160000001</v>
+          </cell>
+          <cell r="D452">
+            <v>30.890875985377765</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="B453" t="str">
+            <v xml:space="preserve">2023/2/14
+</v>
+          </cell>
+          <cell r="C453">
+            <v>24.809999470000001</v>
+          </cell>
+          <cell r="D453">
+            <v>30.87739288889134</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="B454" t="str">
+            <v xml:space="preserve">2023/2/15
+</v>
+          </cell>
+          <cell r="C454">
+            <v>24.739999770000001</v>
+          </cell>
+          <cell r="D454">
+            <v>30.86381458553096</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="B455" t="str">
+            <v xml:space="preserve">2023/2/16
+</v>
+          </cell>
+          <cell r="C455">
+            <v>24.489999770000001</v>
+          </cell>
+          <cell r="D455">
+            <v>30.849744354150097</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="B456" t="str">
+            <v xml:space="preserve">2023/2/17
+</v>
+          </cell>
+          <cell r="C456">
+            <v>23.950000760000002</v>
+          </cell>
+          <cell r="D456">
+            <v>30.834546681035228</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="B457" t="str">
+            <v xml:space="preserve">2023/2/20
+</v>
+          </cell>
+          <cell r="C457">
+            <v>24.409999849999998</v>
+          </cell>
+          <cell r="D457">
+            <v>30.820426797890097</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="B458" t="str">
+            <v xml:space="preserve">2023/2/21
+</v>
+          </cell>
+          <cell r="C458">
+            <v>24.399999619999999</v>
+          </cell>
+          <cell r="D458">
+            <v>30.806346913728056</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="B459" t="str">
+            <v xml:space="preserve">2023/2/22
+</v>
+          </cell>
+          <cell r="C459">
+            <v>24.200000760000002</v>
+          </cell>
+          <cell r="D459">
+            <v>30.791891014048126</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="B460" t="str">
+            <v xml:space="preserve">2023/2/23
+</v>
+          </cell>
+          <cell r="C460">
+            <v>24.229999540000001</v>
+          </cell>
+          <cell r="D460">
+            <v>30.777563740087324</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="B461" t="str">
+            <v xml:space="preserve">2023/2/24
+</v>
+          </cell>
+          <cell r="C461">
+            <v>24.020000459999999</v>
+          </cell>
+          <cell r="D461">
+            <v>30.762841379999987</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="B462">
+            <v>44984</v>
+          </cell>
+          <cell r="C462">
+            <v>23.780000690000001</v>
+          </cell>
+          <cell r="D462">
+            <v>30.747661291543466</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="B463">
+            <v>44985</v>
+          </cell>
+          <cell r="C463">
+            <v>23.979999540000001</v>
+          </cell>
+          <cell r="D463">
+            <v>30.732980897288492</v>
           </cell>
         </row>
       </sheetData>
@@ -14093,7 +14372,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14214,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F22" si="0">E3/B3</f>
+        <f t="shared" ref="F3:F23" si="0">E3/B3</f>
         <v>0</v>
       </c>
       <c r="G3" s="14">
@@ -14222,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H22" si="1">G3*B3</f>
+        <f t="shared" ref="H3:H23" si="1">G3*B3</f>
         <v>0</v>
       </c>
       <c r="I3" s="14">
@@ -14230,11 +14509,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <f t="shared" ref="J3:J22" si="2">H3+L3</f>
+        <f t="shared" ref="J3:J23" si="2">H3+L3</f>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K22" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K23" si="3">J3-I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="13">
@@ -14265,6 +14544,16 @@
       </c>
       <c r="W3" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>460092.89506698097</v>
+      </c>
+      <c r="AA3" s="10">
+        <f>-Z3</f>
+        <v>-460092.89506698097</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -14292,7 +14581,7 @@
         <v>3930.3662572578642</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" ref="G4:G22" si="5">G3+F4</f>
+        <f t="shared" ref="G4:G23" si="5">G3+F4</f>
         <v>3930.3662572578642</v>
       </c>
       <c r="H4" s="14">
@@ -14300,7 +14589,7 @@
         <v>3953.9484548014116</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" ref="I4:I22" si="6">IF(E4&gt;0,I3+E4,I3)</f>
+        <f t="shared" ref="I4:I23" si="6">IF(E4&gt;0,I3+E4,I3)</f>
         <v>3953.9484548014116</v>
       </c>
       <c r="J4" s="14">
@@ -14312,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" ref="L4:L22" si="7">IF(E4&lt;0,L3-E4,L3)</f>
+        <f t="shared" ref="L4:L23" si="7">IF(E4&lt;0,L3-E4,L3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="8"/>
@@ -14347,9 +14636,16 @@
         <f>V4</f>
         <v>1.0166019156370816E-2</v>
       </c>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="Y4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="AA4" s="8">
+        <f>-Z4</f>
+        <v>-3511692.6815237701</v>
+      </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
@@ -14406,9 +14702,43 @@
         <v>0</v>
       </c>
       <c r="M5" s="8"/>
-      <c r="Y5" s="16"/>
+      <c r="P5" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>R5-R4</f>
+        <v>3511692.6815237701</v>
+      </c>
+      <c r="R5" s="7">
+        <f>VLOOKUP(P5,A:I,9,)</f>
+        <v>3971785.5765907508</v>
+      </c>
+      <c r="S5" s="7">
+        <f>VLOOKUP(P5,A:J,10,)</f>
+        <v>3733104.2461789353</v>
+      </c>
+      <c r="T5" s="7">
+        <f>VLOOKUP(P5,A:K,11,)</f>
+        <v>-238681.33041181555</v>
+      </c>
+      <c r="U5" s="7">
+        <f>VLOOKUP(P5,A:L,12,)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <f t="shared" ref="V5" si="9">(S5-R5)/R5</f>
+        <v>-6.0094213498980399E-2</v>
+      </c>
+      <c r="W5" s="18">
+        <v>-5.4160087961851233E-2</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>44925</v>
+      </c>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+      <c r="AA5" s="8">
+        <v>3733104.2461789353</v>
+      </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
@@ -14433,7 +14763,7 @@
         <v>39.730819672131133</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" ref="E6:E22" si="9">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
+        <f t="shared" ref="E6:E23" si="10">IF(M6&lt;1,IF(C6&lt;D6,$E$2*(D6-C6)^2,-$E$2*(D6-C6)^2),IF(C6&lt;D6,2*$E$2*(D6-C6)^2,-2*$E$2*(D6-C6)^2))</f>
         <v>175315.35959658396</v>
       </c>
       <c r="F6" s="14">
@@ -14469,7 +14799,10 @@
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="19"/>
+      <c r="AA6" s="19">
+        <f>IRR(AA3:AA5)</f>
+        <v>-5.4160087961851233E-2</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="19"/>
@@ -14492,7 +14825,7 @@
         <v>39.253623134275358</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68918.763459791298</v>
       </c>
       <c r="F7" s="14">
@@ -14548,7 +14881,7 @@
         <v>38.695499988749994</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83212.834398111911</v>
       </c>
       <c r="F8" s="14">
@@ -14600,7 +14933,7 @@
         <v>38.228579205136612</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>102303.20113556886</v>
       </c>
       <c r="F9" s="14">
@@ -14655,7 +14988,7 @@
         <v>37.710494996683174</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>169490.49733354338</v>
       </c>
       <c r="F10" s="14">
@@ -14710,7 +15043,7 @@
         <v>37.189770586238538</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>152807.94117845185</v>
       </c>
       <c r="F11" s="14">
@@ -14765,7 +15098,7 @@
         <v>36.340622369004151</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>299018.3188799615</v>
       </c>
       <c r="F12" s="14">
@@ -14818,7 +15151,7 @@
         <v>35.566653817730753</v>
       </c>
       <c r="E13" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>430248.85375669535</v>
       </c>
       <c r="F13" s="14">
@@ -14871,7 +15204,7 @@
         <v>34.740573439534039</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>444707.93183896161</v>
       </c>
       <c r="F14" s="14">
@@ -14923,7 +15256,7 @@
         <v>34.119366627533324</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>157242.05001781249</v>
       </c>
       <c r="F15" s="14">
@@ -14975,7 +15308,7 @@
         <v>33.666137024579427</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>212584.68508788882</v>
       </c>
       <c r="F16" s="14">
@@ -15027,7 +15360,7 @@
         <v>33.177616240465106</v>
       </c>
       <c r="E17" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>252649.34925635549</v>
       </c>
       <c r="F17" s="14">
@@ -15079,7 +15412,7 @@
         <v>32.640066271698615</v>
       </c>
       <c r="E18" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>397378.80618793133</v>
       </c>
       <c r="F18" s="14">
@@ -15131,7 +15464,7 @@
         <v>32.234420440393677</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>394559.35592032992</v>
       </c>
       <c r="F19" s="14">
@@ -15183,7 +15516,7 @@
         <v>31.717901224590552</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>313435.3189942778</v>
       </c>
       <c r="F20" s="14">
@@ -15235,7 +15568,7 @@
         <v>31.272433394847042</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>287569.57307156065</v>
       </c>
       <c r="F21" s="14">
@@ -15287,7 +15620,7 @@
         <v>31.014726063038534</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>147690.02391911903</v>
       </c>
       <c r="F22" s="14">
@@ -15319,6 +15652,58 @@
         <v>0</v>
       </c>
       <c r="M22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75">
+      <c r="A23" s="11">
+        <v>44985</v>
+      </c>
+      <c r="B23" s="12">
+        <f>VLOOKUP(A23,[1]HwabaoWP_szse_innovation_100!$A:$E,5)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C23" s="12">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$C,2,FALSE)</f>
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D23" s="13">
+        <f>VLOOKUP(A23,[2]myPEPB!$B:$D,3,FALSE)</f>
+        <v>30.732980897288492</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="10"/>
+        <v>180130.89098694932</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>236082.42239213682</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="5"/>
+        <v>5586621.8795952396</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="1"/>
+        <v>4262592.5580649814</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="6"/>
+        <v>4299606.4914968191</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="2"/>
+        <v>4262592.5580649814</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="3"/>
+        <v>-37013.933431837708</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -505,6 +505,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +517,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -577,6 +580,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4299606.4914968191</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4453283.1582146324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,7 +625,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -682,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,7 +700,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -754,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>4262592.5580649814</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4460962.2903924594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,7 +808,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -859,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +883,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -931,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-37013.933431837708</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7679.1321778269485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,11 +970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80153984"/>
-        <c:axId val="80889344"/>
+        <c:axId val="354055680"/>
+        <c:axId val="368922624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80153984"/>
+        <c:axId val="354055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,14 +1017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80889344"/>
+        <c:crossAx val="368922624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80889344"/>
+        <c:axId val="368922624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80153984"/>
+        <c:crossAx val="354055680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,7 +1235,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1280,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>180130.89098694932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153676.66671781347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,8 +1315,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="264015232"/>
-        <c:axId val="264013696"/>
+        <c:axId val="473464832"/>
+        <c:axId val="473450368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1320,7 +1341,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1383,6 +1404,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1416,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1455,6 +1479,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7630000114440918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77100002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,11 +1498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82258560"/>
-        <c:axId val="264011776"/>
+        <c:axId val="466279040"/>
+        <c:axId val="473448832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82258560"/>
+        <c:axId val="466279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,14 +1545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264011776"/>
+        <c:crossAx val="473448832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="264011776"/>
+        <c:axId val="473448832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,12 +1603,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82258560"/>
+        <c:crossAx val="466279040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264013696"/>
+        <c:axId val="473450368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,12 +1645,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264015232"/>
+        <c:crossAx val="473464832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="264015232"/>
+        <c:axId val="473464832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264013696"/>
+        <c:crossAx val="473450368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2041,7 +2068,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3146,6 +3173,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="11">
+        <v>45016</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C24" s="12">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D24" s="13">
+        <v>30.397426021508249</v>
+      </c>
+      <c r="E24" s="13">
+        <v>153676.66671781347</v>
+      </c>
+      <c r="F24" s="14">
+        <v>199321.22075911172</v>
+      </c>
+      <c r="G24" s="14">
+        <v>5785943.1003543511</v>
+      </c>
+      <c r="H24" s="14">
+        <v>4460962.2903924594</v>
+      </c>
+      <c r="I24" s="14">
+        <v>4453283.1582146324</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4460962.2903924594</v>
+      </c>
+      <c r="K24" s="14">
+        <v>7679.1321778269485</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -508,6 +508,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,7 +526,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -583,6 +592,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4459543.9456519447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4630272.8246680694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4915951.1129773855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5128787.9025565619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,7 +643,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -691,6 +709,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -700,7 +727,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -766,6 +793,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4466237.7687487239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4521110.7032867828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4620165.4940633783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5057593.4387147119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +844,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -874,6 +910,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -883,7 +928,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -949,6 +994,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6693.8230967791751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-109162.12138128653</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-295785.61891400721</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-71194.463841849938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483408128"/>
-        <c:axId val="582702976"/>
+        <c:axId val="314172544"/>
+        <c:axId val="314174464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483408128"/>
+        <c:axId val="314172544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,14 +1071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582702976"/>
+        <c:crossAx val="314174464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582702976"/>
+        <c:axId val="314174464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483408128"/>
+        <c:crossAx val="314172544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,7 +1290,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,6 +1356,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,8 +1379,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617264640"/>
-        <c:axId val="617263104"/>
+        <c:axId val="551927808"/>
+        <c:axId val="548726272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1342,7 +1405,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1408,6 +1471,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +1489,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1483,6 +1555,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,11 +1580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613552512"/>
-        <c:axId val="613554048"/>
+        <c:axId val="503874304"/>
+        <c:axId val="548724736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613552512"/>
+        <c:axId val="503874304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,14 +1627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613554048"/>
+        <c:crossAx val="548724736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613554048"/>
+        <c:axId val="548724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,12 +1685,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613552512"/>
+        <c:crossAx val="503874304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617263104"/>
+        <c:axId val="548726272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,12 +1727,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617264640"/>
+        <c:crossAx val="551927808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617264640"/>
+        <c:axId val="551927808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617263104"/>
+        <c:crossAx val="548726272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2150,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2309,11 +2390,11 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="8">
-        <v>3511692.6815237701</v>
+        <v>3518640.0716485083</v>
       </c>
       <c r="AA4" s="8">
         <f>-Z4</f>
-        <v>-3511692.6815237701</v>
+        <v>-3518640.0716485083</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="8"/>
@@ -2382,14 +2463,14 @@
         <v>-6.0330852184447503E-2</v>
       </c>
       <c r="W5" s="18">
-        <v>-5.4160087961851233E-2</v>
+        <v>-5.4384005588597684E-2</v>
       </c>
       <c r="Y5" s="21">
         <v>44925</v>
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8">
-        <v>3733104.2461789353</v>
+        <v>3738692.616219189</v>
       </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="8"/>
@@ -2441,7 +2522,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="19">
-        <v>-5.4160087961851233E-2</v>
+        <v>-5.4384005588597684E-2</v>
       </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
@@ -3198,6 +3279,129 @@
         <v>0</v>
       </c>
       <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="12">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="13">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="14">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="14">
+        <v>6020120.8798847543</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4521110.7032867828</v>
+      </c>
+      <c r="I25" s="14">
+        <v>4630272.8246680694</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4521110.7032867828</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-109162.12138128653</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="12">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="13">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="13">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="14">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="14">
+        <v>6416896.2645479217</v>
+      </c>
+      <c r="H26" s="14">
+        <v>4620165.4940633783</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4915951.1129773855</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4620165.4940633783</v>
+      </c>
+      <c r="K26" s="14">
+        <v>-295785.61891400721</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="12">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="13">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="13">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="14">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="14">
+        <v>6698799.2988835443</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5057593.4387147119</v>
+      </c>
+      <c r="I27" s="14">
+        <v>5128787.9025565619</v>
+      </c>
+      <c r="J27" s="14">
+        <v>5057593.4387147119</v>
+      </c>
+      <c r="K27" s="14">
+        <v>-71194.463841849938</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -517,6 +517,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +529,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -601,6 +604,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5128787.9025565619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5314295.3367163166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,7 +649,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -718,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +736,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -802,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5057593.4387147119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5283293.5504810195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +856,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -919,6 +931,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +943,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1003,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-71194.463841849938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-31001.786235297099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,11 +1042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314172544"/>
-        <c:axId val="314174464"/>
+        <c:axId val="383727872"/>
+        <c:axId val="383751296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="314172544"/>
+        <c:axId val="383727872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,14 +1089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314174464"/>
+        <c:crossAx val="383751296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="314174464"/>
+        <c:axId val="383751296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314172544"/>
+        <c:crossAx val="383727872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1290,7 +1308,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1365,6 +1383,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,8 +1400,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551927808"/>
-        <c:axId val="548726272"/>
+        <c:axId val="396776960"/>
+        <c:axId val="396758400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1405,7 +1426,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1480,6 +1501,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1513,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1564,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,11 +1607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503874304"/>
-        <c:axId val="548724736"/>
+        <c:axId val="396754944"/>
+        <c:axId val="396756864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503874304"/>
+        <c:axId val="396754944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,14 +1654,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548724736"/>
+        <c:crossAx val="396756864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548724736"/>
+        <c:axId val="396756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,12 +1712,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503874304"/>
+        <c:crossAx val="396754944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548726272"/>
+        <c:axId val="396758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,12 +1754,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551927808"/>
+        <c:crossAx val="396776960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="551927808"/>
+        <c:axId val="396776960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548726272"/>
+        <c:crossAx val="396758400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2150,7 +2177,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3405,6 +3432,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="12">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="13">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="13">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="14">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="14">
+        <v>6942567.2878755592</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5283293.5504810195</v>
+      </c>
+      <c r="I28" s="14">
+        <v>5314295.3367163166</v>
+      </c>
+      <c r="J28" s="14">
+        <v>5283293.5504810195</v>
+      </c>
+      <c r="K28" s="14">
+        <v>-31001.786235297099</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -520,6 +520,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,7 +532,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -607,6 +610,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5314295.3367163166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5570385.9603669886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,7 +655,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -727,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +745,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -814,6 +823,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5283293.5504810195</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5213083.5745005477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +868,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -934,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,7 +958,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1021,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-31001.786235297099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-357302.38586644083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383727872"/>
-        <c:axId val="383751296"/>
+        <c:axId val="90352640"/>
+        <c:axId val="97240192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383727872"/>
+        <c:axId val="90352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,14 +1107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383751296"/>
+        <c:crossAx val="97240192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="383751296"/>
+        <c:axId val="97240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383727872"/>
+        <c:crossAx val="90352640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1308,7 +1326,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1386,6 +1404,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,8 +1421,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396776960"/>
-        <c:axId val="396758400"/>
+        <c:axId val="500072448"/>
+        <c:axId val="500066560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1426,7 +1447,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1504,6 +1525,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1537,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1591,6 +1615,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1607,11 +1634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396754944"/>
-        <c:axId val="396756864"/>
+        <c:axId val="495856256"/>
+        <c:axId val="500064640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396754944"/>
+        <c:axId val="495856256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,14 +1681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396756864"/>
+        <c:crossAx val="500064640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396756864"/>
+        <c:axId val="500064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,12 +1739,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396754944"/>
+        <c:crossAx val="495856256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396758400"/>
+        <c:axId val="500066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,12 +1781,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396776960"/>
+        <c:crossAx val="500072448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396776960"/>
+        <c:axId val="500072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396758400"/>
+        <c:crossAx val="500066560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2204,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3473,6 +3500,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="13">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="14">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7301237.6358299535</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5213083.5745005477</v>
+      </c>
+      <c r="I29" s="14">
+        <v>5570385.9603669886</v>
+      </c>
+      <c r="J29" s="14">
+        <v>5213083.5745005477</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-357302.38586644083</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -523,6 +523,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +535,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -613,6 +616,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5570385.9603669886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5918816.6014320971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +661,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -736,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +754,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -826,6 +835,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5213083.5745005477</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5349778.4390161335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +880,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -949,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +973,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1039,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-357302.38586644083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-569038.1624159636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90352640"/>
-        <c:axId val="97240192"/>
+        <c:axId val="79541376"/>
+        <c:axId val="79542912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90352640"/>
+        <c:axId val="79541376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,14 +1125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97240192"/>
+        <c:crossAx val="79542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97240192"/>
+        <c:axId val="79542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90352640"/>
+        <c:crossAx val="79541376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1344,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1407,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,8 +1442,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500072448"/>
-        <c:axId val="500066560"/>
+        <c:axId val="160279168"/>
+        <c:axId val="160277632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1447,7 +1468,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1528,6 +1549,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +1561,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1618,6 +1642,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,11 +1661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495856256"/>
-        <c:axId val="500064640"/>
+        <c:axId val="93415296"/>
+        <c:axId val="103504896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495856256"/>
+        <c:axId val="93415296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,14 +1708,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500064640"/>
+        <c:crossAx val="103504896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500064640"/>
+        <c:axId val="103504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,12 +1766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495856256"/>
+        <c:crossAx val="93415296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500066560"/>
+        <c:axId val="160277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,12 +1808,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500072448"/>
+        <c:crossAx val="160279168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500072448"/>
+        <c:axId val="160279168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500066560"/>
+        <c:crossAx val="160277632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2231,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3541,6 +3568,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="11">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="12">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="13">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="13">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="14">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="14">
+        <v>7809895.5042275796</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5349778.4390161335</v>
+      </c>
+      <c r="I30" s="14">
+        <v>5918816.6014320971</v>
+      </c>
+      <c r="J30" s="14">
+        <v>5349778.4390161335</v>
+      </c>
+      <c r="K30" s="14">
+        <v>-569038.1624159636</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -526,6 +526,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +538,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -619,6 +622,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5918816.6014320971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6283009.524875991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,7 +667,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -745,6 +751,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -754,7 +763,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,6 +847,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5349778.4390161335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5542153.5459215222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,7 +892,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -964,6 +976,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +988,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1057,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-569038.1624159636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-740855.97895446885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,11 +1096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79541376"/>
-        <c:axId val="79542912"/>
+        <c:axId val="40784640"/>
+        <c:axId val="40786176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79541376"/>
+        <c:axId val="40784640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,14 +1143,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79542912"/>
+        <c:crossAx val="40786176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79542912"/>
+        <c:axId val="40786176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79541376"/>
+        <c:crossAx val="40784640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1344,7 +1362,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1428,6 +1446,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,8 +1463,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160279168"/>
-        <c:axId val="160277632"/>
+        <c:axId val="447621376"/>
+        <c:axId val="447619456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1468,7 +1489,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1552,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,7 +1585,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1645,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,11 +1688,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93415296"/>
-        <c:axId val="103504896"/>
+        <c:axId val="444488704"/>
+        <c:axId val="447551744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93415296"/>
+        <c:axId val="444488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,14 +1735,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103504896"/>
+        <c:crossAx val="447551744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103504896"/>
+        <c:axId val="447551744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,12 +1793,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93415296"/>
+        <c:crossAx val="444488704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160277632"/>
+        <c:axId val="447619456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,12 +1835,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160279168"/>
+        <c:crossAx val="447621376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160279168"/>
+        <c:axId val="447621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160277632"/>
+        <c:crossAx val="447619456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2258,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3609,6 +3636,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="13">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="14">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="14">
+        <v>8359206.1079291161</v>
+      </c>
+      <c r="H31" s="14">
+        <v>5542153.5459215222</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6283009.524875991</v>
+      </c>
+      <c r="J31" s="14">
+        <v>5542153.5459215222</v>
+      </c>
+      <c r="K31" s="14">
+        <v>-740855.97895446885</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -529,6 +529,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +544,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -625,6 +631,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6283009.524875991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6686094.0423632581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7079964.3112825733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,7 +679,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -754,6 +766,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +781,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -850,6 +868,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5542153.5459215222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5844927.8850761652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6184927.4760532547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +916,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -979,6 +1003,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +1018,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1075,6 +1105,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-740855.97895446885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-841166.15728709288</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-895036.83522931859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,11 +1132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40784640"/>
-        <c:axId val="40786176"/>
+        <c:axId val="436285824"/>
+        <c:axId val="436287744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="40784640"/>
+        <c:axId val="436285824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,14 +1179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40786176"/>
+        <c:crossAx val="436287744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="40786176"/>
+        <c:axId val="436287744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40784640"/>
+        <c:crossAx val="436285824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1398,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1485,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,8 +1505,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447621376"/>
-        <c:axId val="447619456"/>
+        <c:axId val="495102208"/>
+        <c:axId val="494902656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1489,7 +1531,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1576,6 +1618,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,7 +1633,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1672,6 +1720,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,11 +1742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444488704"/>
-        <c:axId val="447551744"/>
+        <c:axId val="493712512"/>
+        <c:axId val="493714816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444488704"/>
+        <c:axId val="493712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,14 +1789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447551744"/>
+        <c:crossAx val="493714816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447551744"/>
+        <c:axId val="493714816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,12 +1847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444488704"/>
+        <c:crossAx val="493712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447619456"/>
+        <c:axId val="494902656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,12 +1889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447621376"/>
+        <c:crossAx val="495102208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447621376"/>
+        <c:axId val="495102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447619456"/>
+        <c:crossAx val="494902656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,7 +2312,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3677,6 +3731,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="12">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="13">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="13">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="14">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="14">
+        <v>8978383.5323767662</v>
+      </c>
+      <c r="H32" s="14">
+        <v>5844927.8850761652</v>
+      </c>
+      <c r="I32" s="14">
+        <v>6686094.0423632581</v>
+      </c>
+      <c r="J32" s="14">
+        <v>5844927.8850761652</v>
+      </c>
+      <c r="K32" s="14">
+        <v>-841166.15728709288</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75">
+      <c r="A33" s="11">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="13">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="14">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="14">
+        <v>9589035.1301543955</v>
+      </c>
+      <c r="H33" s="14">
+        <v>6184927.4760532547</v>
+      </c>
+      <c r="I33" s="14">
+        <v>7079964.3112825733</v>
+      </c>
+      <c r="J33" s="14">
+        <v>6184927.4760532547</v>
+      </c>
+      <c r="K33" s="14">
+        <v>-895036.83522931859</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -535,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,7 +547,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -637,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7079964.3112825733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7644659.7229041681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +685,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -772,6 +778,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +790,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -874,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6184927.4760532547</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5944144.0190452291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +928,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1009,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1033,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1111,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-895036.83522931859</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1700515.703858939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,11 +1150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436285824"/>
-        <c:axId val="436287744"/>
+        <c:axId val="404257792"/>
+        <c:axId val="447947520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436285824"/>
+        <c:axId val="404257792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,14 +1197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436287744"/>
+        <c:crossAx val="447947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436287744"/>
+        <c:axId val="447947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1255,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436285824"/>
+        <c:crossAx val="404257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1416,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1491,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,8 +1526,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495102208"/>
-        <c:axId val="494902656"/>
+        <c:axId val="487793792"/>
+        <c:axId val="458295552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1531,7 +1552,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1624,6 +1645,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,7 +1657,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1726,6 +1750,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,11 +1769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493712512"/>
-        <c:axId val="493714816"/>
+        <c:axId val="457934336"/>
+        <c:axId val="458294016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493712512"/>
+        <c:axId val="457934336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,14 +1816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493714816"/>
+        <c:crossAx val="458294016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493714816"/>
+        <c:axId val="458294016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +1874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493712512"/>
+        <c:crossAx val="457934336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494902656"/>
+        <c:axId val="458295552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,12 +1916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495102208"/>
+        <c:crossAx val="487793792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495102208"/>
+        <c:axId val="487793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494902656"/>
+        <c:crossAx val="458295552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2339,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3813,6 +3840,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="12.75">
+      <c r="A34" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="13">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="13">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="14">
+        <v>10595622.335468326</v>
+      </c>
+      <c r="H34" s="14">
+        <v>5944144.0190452291</v>
+      </c>
+      <c r="I34" s="14">
+        <v>7644659.7229041681</v>
+      </c>
+      <c r="J34" s="14">
+        <v>5944144.0190452291</v>
+      </c>
+      <c r="K34" s="14">
+        <v>-1700515.703858939</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -538,6 +538,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +550,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -643,6 +646,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7644659.7229041681</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8010700.8553322274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +691,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -781,6 +787,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +799,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +895,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5944144.0190452291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7126048.3037141254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +940,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1024,6 +1036,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,7 +1048,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1129,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1700515.703858939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-884652.55161810201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,11 +1168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404257792"/>
-        <c:axId val="447947520"/>
+        <c:axId val="92125056"/>
+        <c:axId val="92246016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404257792"/>
+        <c:axId val="92125056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,14 +1215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447947520"/>
+        <c:crossAx val="92246016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447947520"/>
+        <c:axId val="92246016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404257792"/>
+        <c:crossAx val="92125056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1416,7 +1434,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1512,6 +1530,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,8 +1547,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487793792"/>
-        <c:axId val="458295552"/>
+        <c:axId val="155918336"/>
+        <c:axId val="98052736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1552,7 +1573,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1648,6 +1669,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1681,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1753,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,11 +1796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457934336"/>
-        <c:axId val="458294016"/>
+        <c:axId val="97697152"/>
+        <c:axId val="98051200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457934336"/>
+        <c:axId val="97697152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,14 +1843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458294016"/>
+        <c:crossAx val="98051200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458294016"/>
+        <c:axId val="98051200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,12 +1901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457934336"/>
+        <c:crossAx val="97697152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458295552"/>
+        <c:axId val="98052736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,12 +1943,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487793792"/>
+        <c:crossAx val="155918336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487793792"/>
+        <c:axId val="155918336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458295552"/>
+        <c:crossAx val="98052736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2339,7 +2366,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3881,6 +3908,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:13" ht="12.75">
+      <c r="A35" s="11">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="12">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="13">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="13">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="14">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="14">
+        <v>11169354.507666156</v>
+      </c>
+      <c r="H35" s="14">
+        <v>7126048.3037141254</v>
+      </c>
+      <c r="I35" s="14">
+        <v>8010700.8553322274</v>
+      </c>
+      <c r="J35" s="14">
+        <v>7126048.3037141254</v>
+      </c>
+      <c r="K35" s="14">
+        <v>-884652.55161810201</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -541,6 +541,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +553,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -649,6 +652,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8010700.8553322274</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8343549.2573070405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,7 +697,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -790,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +808,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -898,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7126048.3037141254</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7548251.7228330187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +952,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1039,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1063,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1147,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-884652.55161810201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-795297.53447402176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +1186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92125056"/>
-        <c:axId val="92246016"/>
+        <c:axId val="524124160"/>
+        <c:axId val="524279808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92125056"/>
+        <c:axId val="524124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,14 +1233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92246016"/>
+        <c:crossAx val="524279808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92246016"/>
+        <c:axId val="524279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1291,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92125056"/>
+        <c:crossAx val="524124160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1452,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1533,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,8 +1568,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155918336"/>
-        <c:axId val="98052736"/>
+        <c:axId val="617499648"/>
+        <c:axId val="567380992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1573,7 +1594,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1672,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,7 +1705,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1780,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,11 +1823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97697152"/>
-        <c:axId val="98051200"/>
+        <c:axId val="564301184"/>
+        <c:axId val="567379072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97697152"/>
+        <c:axId val="564301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,14 +1870,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98051200"/>
+        <c:crossAx val="567379072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="98051200"/>
+        <c:axId val="567379072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,12 +1928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97697152"/>
+        <c:crossAx val="564301184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98052736"/>
+        <c:axId val="567380992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,12 +1970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155918336"/>
+        <c:crossAx val="617499648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155918336"/>
+        <c:axId val="617499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98052736"/>
+        <c:crossAx val="567380992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2366,7 +2393,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3949,6 +3976,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:13" ht="12.75">
+      <c r="A36" s="11">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="13">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="13">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="14">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="14">
+        <v>11684599.689902853</v>
+      </c>
+      <c r="H36" s="14">
+        <v>7548251.7228330187</v>
+      </c>
+      <c r="I36" s="14">
+        <v>8343549.2573070405</v>
+      </c>
+      <c r="J36" s="14">
+        <v>7548251.7228330187</v>
+      </c>
+      <c r="K36" s="14">
+        <v>-795297.53447402176</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -544,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +556,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -655,6 +658,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8343549.2573070405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8912219.5366344433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +703,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -799,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +817,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -910,6 +919,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7548251.7228330187</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8327244.1781253787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +964,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1054,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,7 +1078,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1165,6 +1180,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-795297.53447402176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-584975.35850906465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524124160"/>
-        <c:axId val="524279808"/>
+        <c:axId val="162406784"/>
+        <c:axId val="162409088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524124160"/>
+        <c:axId val="162406784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524279808"/>
+        <c:crossAx val="162409088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524279808"/>
+        <c:axId val="162409088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524124160"/>
+        <c:crossAx val="162406784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1470,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1554,6 +1572,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>568670.27932740364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617499648"/>
-        <c:axId val="567380992"/>
+        <c:axId val="458233728"/>
+        <c:axId val="458231808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1594,7 +1615,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1696,6 +1717,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1729,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1807,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564301184"/>
-        <c:axId val="567379072"/>
+        <c:axId val="439253632"/>
+        <c:axId val="446073088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564301184"/>
+        <c:axId val="439253632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567379072"/>
+        <c:crossAx val="446073088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567379072"/>
+        <c:axId val="446073088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564301184"/>
+        <c:crossAx val="439253632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="567380992"/>
+        <c:axId val="458231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617499648"/>
+        <c:crossAx val="458233728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617499648"/>
+        <c:axId val="458233728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567380992"/>
+        <c:crossAx val="458231808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2393,10 +2420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4017,6 +4044,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="A37" s="11">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="12">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="13">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="13">
+        <v>568670.27932740364</v>
+      </c>
+      <c r="F37" s="14">
+        <v>856431.1761618203</v>
+      </c>
+      <c r="G37" s="14">
+        <v>12541030.866064673</v>
+      </c>
+      <c r="H37" s="14">
+        <v>8327244.1781253787</v>
+      </c>
+      <c r="I37" s="14">
+        <v>8912219.5366344433</v>
+      </c>
+      <c r="J37" s="14">
+        <v>8327244.1781253787</v>
+      </c>
+      <c r="K37" s="14">
+        <v>-584975.35850906465</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -570,97 +570,97 @@
                   <c:v>205658.0960735089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>274576.85953330022</c:v>
+                  <c:v>274576.85966817412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>357789.69393141213</c:v>
+                  <c:v>357789.65517815872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460092.89506698097</c:v>
+                  <c:v>460092.79671082116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>636869.02192495705</c:v>
+                  <c:v>636868.90045189066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>789645.40941293107</c:v>
+                  <c:v>789645.28870255675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1088623.800668576</c:v>
+                  <c:v>1088623.6811554795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1518828.2596948277</c:v>
+                  <c:v>1518828.1414224168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1963494.130583649</c:v>
+                  <c:v>1963494.0134836917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2120712.9209530167</c:v>
+                  <c:v>2120712.8047386352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2333272.3302846407</c:v>
+                  <c:v>2333272.2146004243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2585895.966957612</c:v>
+                  <c:v>2585895.8523361892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2983244.3812844427</c:v>
+                  <c:v>2983244.2191796582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3377774.7250939691</c:v>
+                  <c:v>3377774.563739988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3691185.5975952549</c:v>
+                  <c:v>3691185.4372342029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3978732.9667154895</c:v>
+                  <c:v>3978732.8069236916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4126193.0502062975</c:v>
+                  <c:v>4126192.8908593752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4306081.0038451338</c:v>
+                  <c:v>4306080.8448487334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4459543.9456519447</c:v>
+                  <c:v>4459543.787196531</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4630272.8246680694</c:v>
+                  <c:v>4630272.6664418085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4915951.1129773855</c:v>
+                  <c:v>4915950.9550265912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5128787.9025565619</c:v>
+                  <c:v>5128787.7448716825</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5314295.3367163166</c:v>
+                  <c:v>5314295.1795647619</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5570385.9603669886</c:v>
+                  <c:v>5570385.8037519203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5918816.6014320971</c:v>
+                  <c:v>5918816.4453167673</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6283009.524875991</c:v>
+                  <c:v>6283009.3694258975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6686094.0423632581</c:v>
+                  <c:v>6686093.8878035322</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7079964.3112825733</c:v>
+                  <c:v>7079964.1568562984</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7644659.7229041681</c:v>
+                  <c:v>7644659.568621086</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8010700.8553322274</c:v>
+                  <c:v>8010700.7013253663</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8343549.2573070405</c:v>
+                  <c:v>8340658.5816808688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8912219.5366344433</c:v>
+                  <c:v>8909328.8617098443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,97 +831,97 @@
                   <c:v>205344.64166221116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281101.09769257216</c:v>
+                  <c:v>281101.09782744606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>369409.4391784615</c:v>
+                  <c:v>369409.40042765293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464770.20825194201</c:v>
+                  <c:v>464770.11062648369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>594225.97533383046</c:v>
+                  <c:v>594225.86453115556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>741000.11758503818</c:v>
+                  <c:v>741000.00866426725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>964366.22639526217</c:v>
+                  <c:v>964366.12978613726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1305683.3770328257</c:v>
+                  <c:v>1305683.2905690172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1801196.440887809</c:v>
+                  <c:v>1801196.3522292967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2194716.898577204</c:v>
+                  <c:v>2194716.7991730236</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2292995.1183796148</c:v>
+                  <c:v>2292995.0246816785</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2442562.7563325665</c:v>
+                  <c:v>2442562.6679085684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2619601.5663261195</c:v>
+                  <c:v>2619601.4383942583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2980257.7384126545</c:v>
+                  <c:v>2980257.6128858882</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3436825.3265065444</c:v>
+                  <c:v>3436825.1959430273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3738692.616219189</c:v>
+                  <c:v>3738692.4856809187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4227444.0676769307</c:v>
+                  <c:v>4227443.9256671816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4268024.8045053268</c:v>
+                  <c:v>4268024.6675257552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4466237.7687487239</c:v>
+                  <c:v>4466237.6308739157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4521110.7032867828</c:v>
+                  <c:v>4521110.569217653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4620165.4940633783</c:v>
+                  <c:v>4620165.3658038536</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5057593.4387147119</c:v>
+                  <c:v>5057593.3044862701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5283293.5504810195</c:v>
+                  <c:v>5283293.4157191906</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5213083.5745005477</c:v>
+                  <c:v>5213083.448598207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5349778.4390161335</c:v>
+                  <c:v>5349778.3187272092</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5542153.5459215222</c:v>
+                  <c:v>5542153.4301611297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5844927.8850761652</c:v>
+                  <c:v>5844927.7723013461</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6184927.4760532547</c:v>
+                  <c:v>6184927.364451291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5944144.0190452291</c:v>
+                  <c:v>5944143.9221206671</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7126048.3037141254</c:v>
+                  <c:v>7126048.1937624086</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7548251.7228330187</c:v>
+                  <c:v>7545361.0898832837</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8327244.1781253787</c:v>
+                  <c:v>8324273.0021653427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,94 +1095,94 @@
                   <c:v>6524.2381592719466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11619.745247049374</c:v>
+                  <c:v>11619.745249494212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4677.3131849610363</c:v>
+                  <c:v>4677.3139156625257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-42643.046591126593</c:v>
+                  <c:v>-42643.035920735099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-48645.291827892885</c:v>
+                  <c:v>-48645.280038289493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-124257.57427331386</c:v>
+                  <c:v>-124257.55136934225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-213144.882662002</c:v>
+                  <c:v>-213144.85085339961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-162297.68969584</c:v>
+                  <c:v>-162297.66125439503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74003.977624187246</c:v>
+                  <c:v>74003.994434388354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-40277.211905025877</c:v>
+                  <c:v>-40277.189918745775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-143333.21062504547</c:v>
+                  <c:v>-143333.18442762084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-363642.81495832326</c:v>
+                  <c:v>-363642.78078539995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-397516.98668131465</c:v>
+                  <c:v>-397516.95085409982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-254360.27108871052</c:v>
+                  <c:v>-254360.2412911756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-240040.3504963005</c:v>
+                  <c:v>-240040.32124277297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101251.01747063315</c:v>
+                  <c:v>101251.03480780637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-38056.199339807034</c:v>
+                  <c:v>-38056.177322978154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6693.8230967791751</c:v>
+                  <c:v>6693.8436773847789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-109162.12138128653</c:v>
+                  <c:v>-109162.09722415544</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-295785.61891400721</c:v>
+                  <c:v>-295785.58922273759</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-71194.463841849938</c:v>
+                  <c:v>-71194.440385412425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-31001.786235297099</c:v>
+                  <c:v>-31001.763845571317</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357302.38586644083</c:v>
+                  <c:v>-357302.35515371338</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-569038.1624159636</c:v>
+                  <c:v>-569038.12658955809</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-740855.97895446885</c:v>
+                  <c:v>-740855.9392647678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-841166.15728709288</c:v>
+                  <c:v>-841166.11550218612</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-895036.83522931859</c:v>
+                  <c:v>-895036.79240500741</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1700515.703858939</c:v>
+                  <c:v>-1700515.6465004189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-884652.55161810201</c:v>
+                  <c:v>-884652.5075629577</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-795297.53447402176</c:v>
+                  <c:v>-795297.49179758504</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-584975.35850906465</c:v>
+                  <c:v>-585055.85954450164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162406784"/>
-        <c:axId val="162409088"/>
+        <c:axId val="448860544"/>
+        <c:axId val="448862080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162406784"/>
+        <c:axId val="448860544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162409088"/>
+        <c:crossAx val="448862080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162409088"/>
+        <c:axId val="448862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162406784"/>
+        <c:crossAx val="448860544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,97 +1484,97 @@
                   <c:v>175315.35959658396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68918.763459791298</c:v>
+                  <c:v>68918.763594665201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83212.834398111911</c:v>
+                  <c:v>83212.795509984615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102303.20113556886</c:v>
+                  <c:v>102303.14153266246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>397348.36684346898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>394530.34456032957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403084.51748726668</c:v>
+                  <c:v>403084.51837763441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41162159434</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>568670.27932740364</c:v>
+                  <c:v>568670.28002897499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458233728"/>
-        <c:axId val="458231808"/>
+        <c:axId val="502269440"/>
+        <c:axId val="499825280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1850,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439253632"/>
-        <c:axId val="446073088"/>
+        <c:axId val="499815552"/>
+        <c:axId val="499823744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439253632"/>
+        <c:axId val="499815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446073088"/>
+        <c:crossAx val="499823744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446073088"/>
+        <c:axId val="499823744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439253632"/>
+        <c:crossAx val="499815552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458231808"/>
+        <c:axId val="499825280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458233728"/>
+        <c:crossAx val="502269440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458233728"/>
+        <c:axId val="502269440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458231808"/>
+        <c:crossAx val="499825280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2423,7 +2423,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2636,25 +2636,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="R4" s="7">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="S4" s="7">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="T4" s="7">
-        <v>4677.3131849610363</v>
+        <v>4677.3139156625257</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>1.0166019156370816E-2</v>
+        <v>1.0166022917768748E-2</v>
       </c>
       <c r="W4" s="18">
-        <v>1.0166019156370816E-2</v>
+        <v>1.0166022917768748E-2</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2715,22 +2715,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="17">
-        <v>3518640.0716485083</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="R5" s="7">
-        <v>3978732.9667154895</v>
+        <v>3978732.8069236916</v>
       </c>
       <c r="S5" s="7">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="T5" s="7">
-        <v>-240040.3504963005</v>
+        <v>-240040.32124277297</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-6.0330852184447503E-2</v>
+        <v>-6.0330847254950318E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-5.4384005588597684E-2</v>
@@ -2807,28 +2807,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="12">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="13">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="13">
-        <v>68918.763459791298</v>
+        <v>68918.763594665201</v>
       </c>
       <c r="F7" s="14">
-        <v>69404.597662202883</v>
+        <v>69404.597798027549</v>
       </c>
       <c r="G7" s="14">
-        <v>283082.68471965467</v>
+        <v>283082.68485547934</v>
       </c>
       <c r="H7" s="14">
-        <v>281101.09769257216</v>
+        <v>281101.09782744606</v>
       </c>
       <c r="I7" s="14">
-        <v>274576.85953330022</v>
+        <v>274576.85966817412</v>
       </c>
       <c r="J7" s="14">
-        <v>281101.09769257216</v>
+        <v>281101.09782744606</v>
       </c>
       <c r="K7" s="14">
         <v>6524.2381592719466</v>
@@ -2852,31 +2852,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="12">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="13">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="13">
-        <v>83212.834398111911</v>
+        <v>83212.795509984615</v>
       </c>
       <c r="F8" s="14">
-        <v>82307.449393497911</v>
+        <v>82307.410928487167</v>
       </c>
       <c r="G8" s="14">
-        <v>365390.13411315257</v>
+        <v>365390.09578396648</v>
       </c>
       <c r="H8" s="14">
-        <v>369409.4391784615</v>
+        <v>369409.40042765293</v>
       </c>
       <c r="I8" s="14">
-        <v>357789.69393141213</v>
+        <v>357789.65517815872</v>
       </c>
       <c r="J8" s="14">
-        <v>369409.4391784615</v>
+        <v>369409.40042765293</v>
       </c>
       <c r="K8" s="14">
-        <v>11619.745247049374</v>
+        <v>11619.745249494212</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2893,31 +2893,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="12">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="13">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="13">
-        <v>102303.20113556886</v>
+        <v>102303.14153266246</v>
       </c>
       <c r="F9" s="14">
-        <v>103128.22863662448</v>
+        <v>103128.1685530485</v>
       </c>
       <c r="G9" s="14">
-        <v>468518.36274977704</v>
+        <v>468518.26433701499</v>
       </c>
       <c r="H9" s="14">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="I9" s="14">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="J9" s="14">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="K9" s="14">
-        <v>4677.3131849610363</v>
+        <v>4677.3139156625257</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -2937,31 +2937,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="12">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="13">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="13">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F10" s="14">
-        <v>198401.94416440517</v>
+        <v>198401.91821950354</v>
       </c>
       <c r="G10" s="14">
-        <v>666920.30691418215</v>
+        <v>666920.18255651859</v>
       </c>
       <c r="H10" s="14">
-        <v>594225.97533383046</v>
+        <v>594225.86453115556</v>
       </c>
       <c r="I10" s="14">
-        <v>636869.02192495705</v>
+        <v>636868.90045189066</v>
       </c>
       <c r="J10" s="14">
-        <v>594225.97533383046</v>
+        <v>594225.86453115556</v>
       </c>
       <c r="K10" s="14">
-        <v>-42643.046591126593</v>
+        <v>-42643.035920735099</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -2981,31 +2981,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="12">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="13">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="13">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="14">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="14">
-        <v>840136.1600316799</v>
+        <v>840136.03653874644</v>
       </c>
       <c r="H11" s="14">
-        <v>741000.11758503818</v>
+        <v>741000.00866426725</v>
       </c>
       <c r="I11" s="14">
-        <v>789645.40941293107</v>
+        <v>789645.28870255675</v>
       </c>
       <c r="J11" s="14">
-        <v>741000.11758503818</v>
+        <v>741000.00866426725</v>
       </c>
       <c r="K11" s="14">
-        <v>-48645.291827892885</v>
+        <v>-48645.280038289493</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3025,31 +3025,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="12">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="13">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="13">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="14">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="14">
-        <v>1217634.1308343194</v>
+        <v>1217634.0088531005</v>
       </c>
       <c r="H12" s="14">
-        <v>964366.22639526217</v>
+        <v>964366.12978613726</v>
       </c>
       <c r="I12" s="14">
-        <v>1088623.800668576</v>
+        <v>1088623.6811554795</v>
       </c>
       <c r="J12" s="14">
-        <v>964366.22639526217</v>
+        <v>964366.12978613726</v>
       </c>
       <c r="K12" s="14">
-        <v>-124257.57427331386</v>
+        <v>-124257.55136934225</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3067,31 +3067,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="12">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="13">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="13">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="14">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="14">
-        <v>1815971.3629177823</v>
+        <v>1815971.2426621346</v>
       </c>
       <c r="H13" s="14">
-        <v>1305683.3770328257</v>
+        <v>1305683.2905690172</v>
       </c>
       <c r="I13" s="14">
-        <v>1518828.2596948277</v>
+        <v>1518828.1414224168</v>
       </c>
       <c r="J13" s="14">
-        <v>1305683.3770328257</v>
+        <v>1305683.2905690172</v>
       </c>
       <c r="K13" s="14">
-        <v>-213144.882662002</v>
+        <v>-213144.85085339961</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3109,31 +3109,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="12">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="13">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="13">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="14">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="14">
-        <v>2411240.2831026018</v>
+        <v>2411240.1644165041</v>
       </c>
       <c r="H14" s="14">
-        <v>1801196.440887809</v>
+        <v>1801196.3522292967</v>
       </c>
       <c r="I14" s="14">
-        <v>1963494.130583649</v>
+        <v>1963494.0134836917</v>
       </c>
       <c r="J14" s="14">
-        <v>1801196.440887809</v>
+        <v>1801196.3522292967</v>
       </c>
       <c r="K14" s="14">
-        <v>-162297.68969584</v>
+        <v>-162297.66125439503</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="12">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="13">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="13">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="14">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="14">
-        <v>2597298.0168851027</v>
+        <v>2597297.8992470233</v>
       </c>
       <c r="H15" s="14">
-        <v>2194716.898577204</v>
+        <v>2194716.7991730236</v>
       </c>
       <c r="I15" s="14">
-        <v>2120712.9209530167</v>
+        <v>2120712.8047386352</v>
       </c>
       <c r="J15" s="14">
-        <v>2194716.898577204</v>
+        <v>2194716.7991730236</v>
       </c>
       <c r="K15" s="14">
-        <v>74003.977624187246</v>
+        <v>74003.994434388354</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3191,31 +3191,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="12">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="13">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="13">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F16" s="14">
-        <v>265367.55254019768</v>
+        <v>265367.55320207629</v>
       </c>
       <c r="G16" s="14">
-        <v>2862665.5694253002</v>
+        <v>2862665.4524490996</v>
       </c>
       <c r="H16" s="14">
-        <v>2292995.1183796148</v>
+        <v>2292995.0246816785</v>
       </c>
       <c r="I16" s="14">
-        <v>2333272.3302846407</v>
+        <v>2333272.2146004243</v>
       </c>
       <c r="J16" s="14">
-        <v>2292995.1183796148</v>
+        <v>2292995.0246816785</v>
       </c>
       <c r="K16" s="14">
-        <v>-40277.211905025877</v>
+        <v>-40277.189918745775</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3232,31 +3232,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="12">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="13">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="13">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F17" s="14">
-        <v>330226.98221817799</v>
+        <v>330226.98360745073</v>
       </c>
       <c r="G17" s="14">
-        <v>3192892.5516434782</v>
+        <v>3192892.4360565506</v>
       </c>
       <c r="H17" s="14">
-        <v>2442562.7563325665</v>
+        <v>2442562.6679085684</v>
       </c>
       <c r="I17" s="14">
-        <v>2585895.966957612</v>
+        <v>2585895.8523361892</v>
       </c>
       <c r="J17" s="14">
-        <v>2442562.7563325665</v>
+        <v>2442562.6679085684</v>
       </c>
       <c r="K17" s="14">
-        <v>-143333.21062504547</v>
+        <v>-143333.18442762084</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3273,31 +3273,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="12">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="13">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="13">
-        <v>397348.414326831</v>
+        <v>397348.36684346898</v>
       </c>
       <c r="F18" s="14">
-        <v>570902.91057528066</v>
+        <v>570902.84235205734</v>
       </c>
       <c r="G18" s="14">
-        <v>3763795.4622187587</v>
+        <v>3763795.2784086079</v>
       </c>
       <c r="H18" s="14">
-        <v>2619601.5663261195</v>
+        <v>2619601.4383942583</v>
       </c>
       <c r="I18" s="14">
-        <v>2983244.3812844427</v>
+        <v>2983244.2191796582</v>
       </c>
       <c r="J18" s="14">
-        <v>2619601.5663261195</v>
+        <v>2619601.4383942583</v>
       </c>
       <c r="K18" s="14">
-        <v>-363642.81495832326</v>
+        <v>-363642.78078539995</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3314,31 +3314,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="12">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="13">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="13">
-        <v>394530.34380952618</v>
+        <v>394530.34456032957</v>
       </c>
       <c r="F19" s="14">
-        <v>574279.99596446904</v>
+        <v>574279.9970573415</v>
       </c>
       <c r="G19" s="14">
-        <v>4338075.458183228</v>
+        <v>4338075.2754659494</v>
       </c>
       <c r="H19" s="14">
-        <v>2980257.7384126545</v>
+        <v>2980257.6128858882</v>
       </c>
       <c r="I19" s="14">
-        <v>3377774.7250939691</v>
+        <v>3377774.563739988</v>
       </c>
       <c r="J19" s="14">
-        <v>2980257.7384126545</v>
+        <v>2980257.6128858882</v>
       </c>
       <c r="K19" s="14">
-        <v>-397516.98668131465</v>
+        <v>-397516.95085409982</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3355,31 +3355,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="12">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="13">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="13">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="14">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="14">
-        <v>4773368.3193602515</v>
+        <v>4773368.1380220409</v>
       </c>
       <c r="H20" s="14">
-        <v>3436825.3265065444</v>
+        <v>3436825.1959430273</v>
       </c>
       <c r="I20" s="14">
-        <v>3691185.5975952549</v>
+        <v>3691185.4372342029</v>
       </c>
       <c r="J20" s="14">
-        <v>3436825.3265065444</v>
+        <v>3436825.1959430273</v>
       </c>
       <c r="K20" s="14">
-        <v>-254360.27108871052</v>
+        <v>-254360.2412911756</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3396,31 +3396,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="12">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="13">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="13">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="14">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="14">
-        <v>5171082.528354411</v>
+        <v>5171082.3478035508</v>
       </c>
       <c r="H21" s="14">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="I21" s="14">
-        <v>3978732.9667154895</v>
+        <v>3978732.8069236916</v>
       </c>
       <c r="J21" s="14">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="K21" s="14">
-        <v>-240040.3504963005</v>
+        <v>-240040.32124277297</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="13">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="13">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="14">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="14">
-        <v>5357977.443708132</v>
+        <v>5357977.2637211187</v>
       </c>
       <c r="H22" s="14">
-        <v>4227444.0676769307</v>
+        <v>4227443.9256671816</v>
       </c>
       <c r="I22" s="14">
-        <v>4126193.0502062975</v>
+        <v>4126192.8908593752</v>
       </c>
       <c r="J22" s="14">
-        <v>4227444.0676769307</v>
+        <v>4227443.9256671816</v>
       </c>
       <c r="K22" s="14">
-        <v>101251.01747063315</v>
+        <v>101251.03480780637</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3478,31 +3478,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="12">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="13">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="13">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="14">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="14">
-        <v>5593741.4685321571</v>
+        <v>5593741.2890045429</v>
       </c>
       <c r="H23" s="14">
-        <v>4268024.8045053268</v>
+        <v>4268024.6675257552</v>
       </c>
       <c r="I23" s="14">
-        <v>4306081.0038451338</v>
+        <v>4306080.8448487334</v>
       </c>
       <c r="J23" s="14">
-        <v>4268024.8045053268</v>
+        <v>4268024.6675257552</v>
       </c>
       <c r="K23" s="14">
-        <v>-38056.199339807034</v>
+        <v>-38056.177322978154</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3519,31 +3519,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="13">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="14">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="14">
-        <v>5792785.4844879797</v>
+        <v>5792785.305662035</v>
       </c>
       <c r="H24" s="14">
-        <v>4466237.7687487239</v>
+        <v>4466237.6308739157</v>
       </c>
       <c r="I24" s="14">
-        <v>4459543.9456519447</v>
+        <v>4459543.787196531</v>
       </c>
       <c r="J24" s="14">
-        <v>4466237.7687487239</v>
+        <v>4466237.6308739157</v>
       </c>
       <c r="K24" s="14">
-        <v>6693.8230967791751</v>
+        <v>6693.8436773847789</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3560,31 +3560,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="13">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="13">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="14">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="14">
-        <v>6020120.8798847543</v>
+        <v>6020120.7013639398</v>
       </c>
       <c r="H25" s="14">
-        <v>4521110.7032867828</v>
+        <v>4521110.569217653</v>
       </c>
       <c r="I25" s="14">
-        <v>4630272.8246680694</v>
+        <v>4630272.6664418085</v>
       </c>
       <c r="J25" s="14">
-        <v>4521110.7032867828</v>
+        <v>4521110.569217653</v>
       </c>
       <c r="K25" s="14">
-        <v>-109162.12138128653</v>
+        <v>-109162.09722415544</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3601,31 +3601,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="13">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F26" s="14">
-        <v>396775.38466316788</v>
+        <v>396775.38504576066</v>
       </c>
       <c r="G26" s="14">
-        <v>6416896.2645479217</v>
+        <v>6416896.0864097001</v>
       </c>
       <c r="H26" s="14">
-        <v>4620165.4940633783</v>
+        <v>4620165.3658038536</v>
       </c>
       <c r="I26" s="14">
-        <v>4915951.1129773855</v>
+        <v>4915950.9550265912</v>
       </c>
       <c r="J26" s="14">
-        <v>4620165.4940633783</v>
+        <v>4620165.3658038536</v>
       </c>
       <c r="K26" s="14">
-        <v>-295785.61891400721</v>
+        <v>-295785.58922273759</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3642,31 +3642,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="13">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="14">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="14">
-        <v>6698799.2988835443</v>
+        <v>6698799.1210975274</v>
       </c>
       <c r="H27" s="14">
-        <v>5057593.4387147119</v>
+        <v>5057593.3044862701</v>
       </c>
       <c r="I27" s="14">
-        <v>5128787.9025565619</v>
+        <v>5128787.7448716825</v>
       </c>
       <c r="J27" s="14">
-        <v>5057593.4387147119</v>
+        <v>5057593.3044862701</v>
       </c>
       <c r="K27" s="14">
-        <v>-71194.463841849938</v>
+        <v>-71194.440385412425</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3683,31 +3683,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="13">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="13">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="14">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="14">
-        <v>6942567.2878755592</v>
+        <v>6942567.1107903644</v>
       </c>
       <c r="H28" s="14">
-        <v>5283293.5504810195</v>
+        <v>5283293.4157191906</v>
       </c>
       <c r="I28" s="14">
-        <v>5314295.3367163166</v>
+        <v>5314295.1795647619</v>
       </c>
       <c r="J28" s="14">
-        <v>5283293.5504810195</v>
+        <v>5283293.4157191906</v>
       </c>
       <c r="K28" s="14">
-        <v>-31001.786235297099</v>
+        <v>-31001.763845571317</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3724,31 +3724,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="13">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="14">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="14">
-        <v>7301237.6358299535</v>
+        <v>7301237.4594961405</v>
       </c>
       <c r="H29" s="14">
-        <v>5213083.5745005477</v>
+        <v>5213083.448598207</v>
       </c>
       <c r="I29" s="14">
-        <v>5570385.9603669886</v>
+        <v>5570385.8037519203</v>
       </c>
       <c r="J29" s="14">
-        <v>5213083.5745005477</v>
+        <v>5213083.448598207</v>
       </c>
       <c r="K29" s="14">
-        <v>-357302.38586644083</v>
+        <v>-357302.35515371338</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3768,28 +3768,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="13">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F30" s="14">
-        <v>508657.86839762604</v>
+        <v>508657.8691271703</v>
       </c>
       <c r="G30" s="14">
-        <v>7809895.5042275796</v>
+        <v>7809895.3286233107</v>
       </c>
       <c r="H30" s="14">
-        <v>5349778.4390161335</v>
+        <v>5349778.3187272092</v>
       </c>
       <c r="I30" s="14">
-        <v>5918816.6014320971</v>
+        <v>5918816.4453167673</v>
       </c>
       <c r="J30" s="14">
-        <v>5349778.4390161335</v>
+        <v>5349778.3187272092</v>
       </c>
       <c r="K30" s="14">
-        <v>-569038.1624159636</v>
+        <v>-569038.12658955809</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3806,31 +3806,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="13">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F31" s="14">
-        <v>549310.60370153643</v>
+        <v>549310.60470490914</v>
       </c>
       <c r="G31" s="14">
-        <v>8359206.1079291161</v>
+        <v>8359205.9333282197</v>
       </c>
       <c r="H31" s="14">
-        <v>5542153.5459215222</v>
+        <v>5542153.4301611297</v>
       </c>
       <c r="I31" s="14">
-        <v>6283009.524875991</v>
+        <v>6283009.3694258975</v>
       </c>
       <c r="J31" s="14">
-        <v>5542153.5459215222</v>
+        <v>5542153.4301611297</v>
       </c>
       <c r="K31" s="14">
-        <v>-740855.97895446885</v>
+        <v>-740855.9392647678</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3847,31 +3847,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="13">
-        <v>403084.51748726668</v>
+        <v>403084.51837763441</v>
       </c>
       <c r="F32" s="14">
-        <v>619177.42444764997</v>
+        <v>619177.42581534223</v>
       </c>
       <c r="G32" s="14">
-        <v>8978383.5323767662</v>
+        <v>8978383.3591435626</v>
       </c>
       <c r="H32" s="14">
-        <v>5844927.8850761652</v>
+        <v>5844927.7723013461</v>
       </c>
       <c r="I32" s="14">
-        <v>6686094.0423632581</v>
+        <v>6686093.8878035322</v>
       </c>
       <c r="J32" s="14">
-        <v>5844927.8850761652</v>
+        <v>5844927.7723013461</v>
       </c>
       <c r="K32" s="14">
-        <v>-841166.15728709288</v>
+        <v>-841166.11550218612</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3888,31 +3888,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="13">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F33" s="14">
-        <v>610651.59777762846</v>
+        <v>610651.59798452829</v>
       </c>
       <c r="G33" s="14">
-        <v>9589035.1301543955</v>
+        <v>9589034.9571280908</v>
       </c>
       <c r="H33" s="14">
-        <v>6184927.4760532547</v>
+        <v>6184927.364451291</v>
       </c>
       <c r="I33" s="14">
-        <v>7079964.3112825733</v>
+        <v>7079964.1568562984</v>
       </c>
       <c r="J33" s="14">
-        <v>6184927.4760532547</v>
+        <v>6184927.364451291</v>
       </c>
       <c r="K33" s="14">
-        <v>-895036.83522931859</v>
+        <v>-895036.79240500741</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3929,31 +3929,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="13">
-        <v>564695.41162159434</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="14">
-        <v>1006587.2053139294</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="14">
-        <v>10595622.335468326</v>
+        <v>10595622.162697267</v>
       </c>
       <c r="H34" s="14">
-        <v>5944144.0190452291</v>
+        <v>5944143.9221206671</v>
       </c>
       <c r="I34" s="14">
-        <v>7644659.7229041681</v>
+        <v>7644659.568621086</v>
       </c>
       <c r="J34" s="14">
-        <v>5944144.0190452291</v>
+        <v>5944143.9221206671</v>
       </c>
       <c r="K34" s="14">
-        <v>-1700515.703858939</v>
+        <v>-1700515.6465004189</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -3970,31 +3970,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="13">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="14">
-        <v>573732.17219783086</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="14">
-        <v>11169354.507666156</v>
+        <v>11169354.335328044</v>
       </c>
       <c r="H35" s="14">
-        <v>7126048.3037141254</v>
+        <v>7126048.1937624086</v>
       </c>
       <c r="I35" s="14">
-        <v>8010700.8553322274</v>
+        <v>8010700.7013253663</v>
       </c>
       <c r="J35" s="14">
-        <v>7126048.3037141254</v>
+        <v>7126048.1937624086</v>
       </c>
       <c r="K35" s="14">
-        <v>-884652.55161810201</v>
+        <v>-884652.5075629577</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4011,31 +4011,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="13">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="14">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="14">
-        <v>11684599.689902853</v>
+        <v>11680125.026085544</v>
       </c>
       <c r="H36" s="14">
-        <v>7548251.7228330187</v>
+        <v>7545361.0898832837</v>
       </c>
       <c r="I36" s="14">
-        <v>8343549.2573070405</v>
+        <v>8340658.5816808688</v>
       </c>
       <c r="J36" s="14">
-        <v>7548251.7228330187</v>
+        <v>7545361.0898832837</v>
       </c>
       <c r="K36" s="14">
-        <v>-795297.53447402176</v>
+        <v>-795297.49179758504</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4052,31 +4052,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="13">
-        <v>568670.27932740364</v>
+        <v>568670.28002897499</v>
       </c>
       <c r="F37" s="14">
-        <v>856431.1761618203</v>
+        <v>856431.17721840367</v>
       </c>
       <c r="G37" s="14">
-        <v>12541030.866064673</v>
+        <v>12536556.203303948</v>
       </c>
       <c r="H37" s="14">
-        <v>8327244.1781253787</v>
+        <v>8324273.0021653427</v>
       </c>
       <c r="I37" s="14">
-        <v>8912219.5366344433</v>
+        <v>8909328.8617098443</v>
       </c>
       <c r="J37" s="14">
-        <v>8327244.1781253787</v>
+        <v>8324273.0021653427</v>
       </c>
       <c r="K37" s="14">
-        <v>-584975.35850906465</v>
+        <v>-585055.85954450164</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -1204,11 +1204,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448860544"/>
-        <c:axId val="448862080"/>
+        <c:axId val="68572672"/>
+        <c:axId val="68574208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448860544"/>
+        <c:axId val="68572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448862080"/>
+        <c:crossAx val="68574208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448862080"/>
+        <c:axId val="68574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1309,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448860544"/>
+        <c:crossAx val="68572672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502269440"/>
-        <c:axId val="499825280"/>
+        <c:axId val="507359232"/>
+        <c:axId val="507349248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1850,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499815552"/>
-        <c:axId val="499823744"/>
+        <c:axId val="506636160"/>
+        <c:axId val="507347712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499815552"/>
+        <c:axId val="506636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499823744"/>
+        <c:crossAx val="507347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499823744"/>
+        <c:axId val="507347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499815552"/>
+        <c:crossAx val="506636160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499825280"/>
+        <c:axId val="507349248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502269440"/>
+        <c:crossAx val="507359232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502269440"/>
+        <c:axId val="507359232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499825280"/>
+        <c:crossAx val="507349248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>szse innovation100</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +90,9 @@
   <si>
     <t>annualized RR</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
   </si>
 </sst>
 </file>
@@ -259,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +317,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -547,6 +547,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +559,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -621,46 +624,49 @@
                   <c:v>4306080.8448487334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4459543.787196531</c:v>
+                  <c:v>4459543.787068801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4630272.6664418085</c:v>
+                  <c:v>4630272.6665043449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4915950.9550265912</c:v>
+                  <c:v>4915950.9553354559</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5128787.7448716825</c:v>
+                  <c:v>5128787.7453484293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5314295.1795647619</c:v>
+                  <c:v>5314295.1798980944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5570385.8037519203</c:v>
+                  <c:v>5570385.8039889373</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5918816.4453167673</c:v>
+                  <c:v>5918816.445550561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6283009.3694258975</c:v>
+                  <c:v>6283009.3694882477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6686093.8878035322</c:v>
+                  <c:v>6686093.8874773122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7079964.1568562984</c:v>
+                  <c:v>7079964.156877039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7644659.568621086</c:v>
+                  <c:v>7644659.5690554995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8010700.7013253663</c:v>
+                  <c:v>8010700.7019223478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8340658.5816808688</c:v>
+                  <c:v>8340658.5824809633</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8909328.8617098443</c:v>
+                  <c:v>8909328.8625392579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9422505.3887087591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +709,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -808,6 +814,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -817,7 +826,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -882,46 +891,49 @@
                   <c:v>4268024.6675257552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4466237.6308739157</c:v>
+                  <c:v>4466237.6307461848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4521110.569217653</c:v>
+                  <c:v>4521110.5692835022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4620165.3658038536</c:v>
+                  <c:v>4620165.3661133135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5057593.3044862701</c:v>
+                  <c:v>5057593.3049786557</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5283293.4157191906</c:v>
+                  <c:v>5283293.4160720743</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5213083.448598207</c:v>
+                  <c:v>5213083.4488329813</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5349778.3187272092</c:v>
+                  <c:v>5349778.3189492244</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5542153.4301611297</c:v>
+                  <c:v>5542153.4302045703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5844927.7723013461</c:v>
+                  <c:v>5844927.7719554286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6184927.364451291</c:v>
+                  <c:v>6184927.3644555239</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5944143.9221206671</c:v>
+                  <c:v>5944143.9225380206</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7126048.1937624086</c:v>
+                  <c:v>7126048.1943996148</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7545361.0898832837</c:v>
+                  <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324273.0021653427</c:v>
+                  <c:v>8324273.0030666078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8661937.7603045385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +976,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1069,6 +1081,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,7 +1093,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,46 +1158,49 @@
                   <c:v>-38056.177322978154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6693.8436773847789</c:v>
+                  <c:v>6693.8436773838475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-109162.09722415544</c:v>
+                  <c:v>-109162.09722084273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-295785.58922273759</c:v>
+                  <c:v>-295785.58922214247</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-71194.440385412425</c:v>
+                  <c:v>-71194.440369773656</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-31001.763845571317</c:v>
+                  <c:v>-31001.763826020062</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357302.35515371338</c:v>
+                  <c:v>-357302.355155956</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-569038.12658955809</c:v>
+                  <c:v>-569038.12660133652</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-740855.9392647678</c:v>
+                  <c:v>-740855.93928367738</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-841166.11550218612</c:v>
+                  <c:v>-841166.11552188359</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-895036.79240500741</c:v>
+                  <c:v>-895036.7924215151</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1700515.6465004189</c:v>
+                  <c:v>-1700515.6465174789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-884652.5075629577</c:v>
+                  <c:v>-884652.50752273295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-795297.49179758504</c:v>
+                  <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585055.85954450164</c:v>
+                  <c:v>-585055.8594726501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-760567.62840422057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1204,11 +1222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68572672"/>
-        <c:axId val="68574208"/>
+        <c:axId val="77424896"/>
+        <c:axId val="90706304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68572672"/>
+        <c:axId val="77424896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,14 +1269,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68574208"/>
+        <c:crossAx val="90706304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
+        <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="68574208"/>
+        <c:axId val="90706304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68572672"/>
+        <c:crossAx val="77424896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,7 +1488,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1535,46 +1553,49 @@
                   <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94234779794</c:v>
+                  <c:v>153462.94222006755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87924527752</c:v>
+                  <c:v>170728.87943554402</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28858478251</c:v>
+                  <c:v>285678.28883111075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78984509152</c:v>
+                  <c:v>212836.79001297336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43469307973</c:v>
+                  <c:v>185507.43454966496</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62418715825</c:v>
+                  <c:v>256090.62409084282</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.6415648465</c:v>
+                  <c:v>348430.64156162366</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.9241091304</c:v>
+                  <c:v>364192.92393768637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403084.51837763441</c:v>
+                  <c:v>403084.5179890641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26905276586</c:v>
+                  <c:v>393870.26939972723</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41176478763</c:v>
+                  <c:v>564695.41217846051</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.1327042802</c:v>
+                  <c:v>366041.13286684826</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>329957.88035550242</c:v>
+                  <c:v>329957.88055861578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>568670.28002897499</c:v>
+                  <c:v>568670.28005829395</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>513176.5261695009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,8 +1610,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507359232"/>
-        <c:axId val="507349248"/>
+        <c:axId val="390675840"/>
+        <c:axId val="390674304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1615,7 +1636,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1720,6 +1741,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,7 +1753,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1834,6 +1858,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,11 +1877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506636160"/>
-        <c:axId val="507347712"/>
+        <c:axId val="181835264"/>
+        <c:axId val="181837184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506636160"/>
+        <c:axId val="181835264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1924,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507347712"/>
+        <c:crossAx val="181837184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507347712"/>
+        <c:axId val="181837184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1982,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506636160"/>
+        <c:crossAx val="181835264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507349248"/>
+        <c:axId val="390674304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +2024,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507359232"/>
+        <c:crossAx val="390675840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507359232"/>
+        <c:axId val="390675840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507349248"/>
+        <c:crossAx val="390674304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,7 +2447,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2464,37 +2491,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>0</v>
@@ -2563,35 +2590,45 @@
         <v>1</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
       </c>
       <c r="Z3" s="10">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="AA3" s="10">
         <f>-Z3</f>
-        <v>-460092.89506698097</v>
+        <v>-460092.79671082116</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>460092.79671082116</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>-AC3</f>
+        <v>-460092.79671082116</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -2660,15 +2697,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="8">
-        <v>3518640.0716485083</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="AA4" s="8">
         <f>-Z4</f>
-        <v>-3518640.0716485083</v>
-      </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+        <v>-3518640.0102128703</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="8">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -2733,18 +2777,25 @@
         <v>-6.0330847254950318E-2</v>
       </c>
       <c r="W5" s="18">
-        <v>-5.4384005588597684E-2</v>
+        <v>-5.4384002055657077E-2</v>
       </c>
       <c r="Y5" s="21">
         <v>44925</v>
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8">
-        <v>3738692.616219189</v>
-      </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+        <v>3738692.4856809187</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>3246072.3111430067</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>-AC5</f>
+        <v>-3246072.3111430067</v>
+      </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -2789,14 +2840,42 @@
       <c r="M6" s="8">
         <v>1</v>
       </c>
+      <c r="P6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="R6" s="7">
+        <v>7079964.156877039</v>
+      </c>
+      <c r="S6" s="7">
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="T6" s="7">
+        <v>-895036.7924215151</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>-0.12641826605183187</v>
+      </c>
+      <c r="W6" s="18">
+        <v>-7.9485707976947206E-2</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="19">
-        <v>-5.4384005588597684E-2</v>
-      </c>
-      <c r="AB6" s="8"/>
+        <v>-5.4384002055657077E-2</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="19"/>
+      <c r="AD6" s="19">
+        <v>6328433.3766216012</v>
+      </c>
       <c r="AE6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -2842,6 +2921,9 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
+      <c r="AD7" s="9">
+        <v>-7.9485707976947206E-2</v>
+      </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -3519,31 +3601,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999847412109</v>
+        <v>24.159999849999998</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087189136843</v>
+        <v>30.393087189130767</v>
       </c>
       <c r="E24" s="13">
-        <v>153462.94234779794</v>
+        <v>153462.94222006755</v>
       </c>
       <c r="F24" s="14">
-        <v>199044.01665749171</v>
+        <v>199044.01649182325</v>
       </c>
       <c r="G24" s="14">
-        <v>5792785.305662035</v>
+        <v>5792785.3054963658</v>
       </c>
       <c r="H24" s="14">
-        <v>4466237.6308739157</v>
+        <v>4466237.6307461848</v>
       </c>
       <c r="I24" s="14">
-        <v>4459543.787196531</v>
+        <v>4459543.787068801</v>
       </c>
       <c r="J24" s="14">
-        <v>4466237.6308739157</v>
+        <v>4466237.6307461848</v>
       </c>
       <c r="K24" s="14">
-        <v>6693.8436773847789</v>
+        <v>6693.8436773838475</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3560,31 +3642,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999923706055</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="13">
-        <v>30.1543821056874</v>
+        <v>30.154382105644711</v>
       </c>
       <c r="E25" s="13">
-        <v>170728.87924527752</v>
+        <v>170728.87943554402</v>
       </c>
       <c r="F25" s="14">
-        <v>227335.39570190487</v>
+        <v>227335.39595525572</v>
       </c>
       <c r="G25" s="14">
-        <v>6020120.7013639398</v>
+        <v>6020120.7014516219</v>
       </c>
       <c r="H25" s="14">
-        <v>4521110.569217653</v>
+        <v>4521110.5692835022</v>
       </c>
       <c r="I25" s="14">
-        <v>4630272.6664418085</v>
+        <v>4630272.6665043449</v>
       </c>
       <c r="J25" s="14">
-        <v>4521110.569217653</v>
+        <v>4521110.5692835022</v>
       </c>
       <c r="K25" s="14">
-        <v>-109162.09722415544</v>
+        <v>-109162.09722084273</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3601,31 +3683,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999923706055</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329254302094</v>
+        <v>29.834329254262499</v>
       </c>
       <c r="E26" s="13">
-        <v>285678.28858478251</v>
+        <v>285678.28883111075</v>
       </c>
       <c r="F26" s="14">
-        <v>396775.38504576066</v>
+        <v>396775.38538788323</v>
       </c>
       <c r="G26" s="14">
-        <v>6416896.0864097001</v>
+        <v>6416896.0868395055</v>
       </c>
       <c r="H26" s="14">
-        <v>4620165.3658038536</v>
+        <v>4620165.3661133135</v>
       </c>
       <c r="I26" s="14">
-        <v>4915950.9550265912</v>
+        <v>4915950.9553354559</v>
       </c>
       <c r="J26" s="14">
-        <v>4620165.3658038536</v>
+        <v>4620165.3661133135</v>
       </c>
       <c r="K26" s="14">
-        <v>-295785.58922273759</v>
+        <v>-295785.58922214247</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3642,31 +3724,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000762939453</v>
+        <v>22.200000760000002</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486551111261</v>
+        <v>29.540486551066831</v>
       </c>
       <c r="E27" s="13">
-        <v>212836.78984509152</v>
+        <v>212836.79001297336</v>
       </c>
       <c r="F27" s="14">
-        <v>281903.03468782775</v>
+        <v>281903.03491018777</v>
       </c>
       <c r="G27" s="14">
-        <v>6698799.1210975274</v>
+        <v>6698799.1217496935</v>
       </c>
       <c r="H27" s="14">
-        <v>5057593.3044862701</v>
+        <v>5057593.3049786557</v>
       </c>
       <c r="I27" s="14">
-        <v>5128787.7448716825</v>
+        <v>5128787.7453484293</v>
       </c>
       <c r="J27" s="14">
-        <v>5057593.3044862701</v>
+        <v>5057593.3049786557</v>
       </c>
       <c r="K27" s="14">
-        <v>-71194.440385412425</v>
+        <v>-71194.440369773656</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3683,31 +3765,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999847412109</v>
+        <v>22.409999849999998</v>
       </c>
       <c r="D28" s="13">
-        <v>29.26302162741802</v>
+        <v>29.263021627356892</v>
       </c>
       <c r="E28" s="13">
-        <v>185507.43469307973</v>
+        <v>185507.43454966496</v>
       </c>
       <c r="F28" s="14">
-        <v>243767.98969283653</v>
+        <v>243767.98950438085</v>
       </c>
       <c r="G28" s="14">
-        <v>6942567.1107903644</v>
+        <v>6942567.1112540746</v>
       </c>
       <c r="H28" s="14">
-        <v>5283293.4157191906</v>
+        <v>5283293.4160720743</v>
       </c>
       <c r="I28" s="14">
-        <v>5314295.1795647619</v>
+        <v>5314295.1798980944</v>
       </c>
       <c r="J28" s="14">
-        <v>5283293.4157191906</v>
+        <v>5283293.4160720743</v>
       </c>
       <c r="K28" s="14">
-        <v>-31001.763845571317</v>
+        <v>-31001.763826020062</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3724,31 +3806,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999618530273</v>
+        <v>20.899999619999999</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898116056832</v>
+        <v>28.951898116012401</v>
       </c>
       <c r="E29" s="13">
-        <v>256090.62418715825</v>
+        <v>256090.62409084282</v>
       </c>
       <c r="F29" s="14">
-        <v>358670.34870577598</v>
+        <v>358670.34857088042</v>
       </c>
       <c r="G29" s="14">
-        <v>7301237.4594961405</v>
+        <v>7301237.4598249551</v>
       </c>
       <c r="H29" s="14">
-        <v>5213083.448598207</v>
+        <v>5213083.4488329813</v>
       </c>
       <c r="I29" s="14">
-        <v>5570385.8037519203</v>
+        <v>5570385.8039889373</v>
       </c>
       <c r="J29" s="14">
-        <v>5213083.448598207</v>
+        <v>5213083.4488329813</v>
       </c>
       <c r="K29" s="14">
-        <v>-357302.35515371338</v>
+        <v>-357302.355155956</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3768,28 +3850,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033273139454</v>
+        <v>28.642033273096018</v>
       </c>
       <c r="E30" s="13">
-        <v>348430.6415648465</v>
+        <v>348430.64156162366</v>
       </c>
       <c r="F30" s="14">
-        <v>508657.8691271703</v>
+        <v>508657.86912246537</v>
       </c>
       <c r="G30" s="14">
-        <v>7809895.3286233107</v>
+        <v>7809895.3289474202</v>
       </c>
       <c r="H30" s="14">
-        <v>5349778.3187272092</v>
+        <v>5349778.3189492244</v>
       </c>
       <c r="I30" s="14">
-        <v>5918816.4453167673</v>
+        <v>5918816.445550561</v>
       </c>
       <c r="J30" s="14">
-        <v>5349778.3187272092</v>
+        <v>5349778.3189492244</v>
       </c>
       <c r="K30" s="14">
-        <v>-569038.12658955809</v>
+        <v>-569038.12660133652</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3806,31 +3888,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000457763672</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122112939287</v>
+        <v>28.372122112915513</v>
       </c>
       <c r="E31" s="13">
-        <v>364192.9241091304</v>
+        <v>364192.92393768637</v>
       </c>
       <c r="F31" s="14">
-        <v>549310.60470490914</v>
+        <v>549310.60444632091</v>
       </c>
       <c r="G31" s="14">
-        <v>8359205.9333282197</v>
+        <v>8359205.933393741</v>
       </c>
       <c r="H31" s="14">
-        <v>5542153.4301611297</v>
+        <v>5542153.4302045703</v>
       </c>
       <c r="I31" s="14">
-        <v>6283009.3694258975</v>
+        <v>6283009.3694882477</v>
       </c>
       <c r="J31" s="14">
-        <v>5542153.4301611297</v>
+        <v>5542153.4302045703</v>
       </c>
       <c r="K31" s="14">
-        <v>-740855.9392647678</v>
+        <v>-740855.93928367738</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3847,31 +3929,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.930000305175781</v>
+        <v>17.93000031</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817642334733</v>
+        <v>28.031817642289916</v>
       </c>
       <c r="E32" s="13">
-        <v>403084.51837763441</v>
+        <v>403084.5179890641</v>
       </c>
       <c r="F32" s="14">
-        <v>619177.42581534223</v>
+        <v>619177.42521846003</v>
       </c>
       <c r="G32" s="14">
-        <v>8978383.3591435626</v>
+        <v>8978383.3586122002</v>
       </c>
       <c r="H32" s="14">
-        <v>5844927.7723013461</v>
+        <v>5844927.7719554286</v>
       </c>
       <c r="I32" s="14">
-        <v>6686093.8878035322</v>
+        <v>6686093.8874773122</v>
       </c>
       <c r="J32" s="14">
-        <v>5844927.7723013461</v>
+        <v>5844927.7719554286</v>
       </c>
       <c r="K32" s="14">
-        <v>-841166.11550218612</v>
+        <v>-841166.11552188359</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3888,31 +3970,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999084472656</v>
+        <v>17.709999079999999</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688453026897</v>
+        <v>27.695688452952449</v>
       </c>
       <c r="E33" s="13">
-        <v>393870.26905276586</v>
+        <v>393870.26939972723</v>
       </c>
       <c r="F33" s="14">
-        <v>610651.59798452829</v>
+        <v>610651.59852245299</v>
       </c>
       <c r="G33" s="14">
-        <v>9589034.9571280908</v>
+        <v>9589034.9571346529</v>
       </c>
       <c r="H33" s="14">
-        <v>6184927.364451291</v>
+        <v>6184927.3644555239</v>
       </c>
       <c r="I33" s="14">
-        <v>7079964.1568562984</v>
+        <v>7079964.156877039</v>
       </c>
       <c r="J33" s="14">
-        <v>6184927.364451291</v>
+        <v>6184927.3644555239</v>
       </c>
       <c r="K33" s="14">
-        <v>-895036.79240500741</v>
+        <v>-895036.7924215151</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3929,31 +4011,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000114440918</v>
+        <v>15.380000109999999</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624376243282</v>
+        <v>27.336624376181831</v>
       </c>
       <c r="E34" s="13">
-        <v>564695.41176478763</v>
+        <v>564695.41217846051</v>
       </c>
       <c r="F34" s="14">
-        <v>1006587.2055691759</v>
+        <v>1006587.2063065607</v>
       </c>
       <c r="G34" s="14">
-        <v>10595622.162697267</v>
+        <v>10595622.163441213</v>
       </c>
       <c r="H34" s="14">
-        <v>5944143.9221206671</v>
+        <v>5944143.9225380206</v>
       </c>
       <c r="I34" s="14">
-        <v>7644659.568621086</v>
+        <v>7644659.5690554995</v>
       </c>
       <c r="J34" s="14">
-        <v>5944143.9221206671</v>
+        <v>5944143.9225380206</v>
       </c>
       <c r="K34" s="14">
-        <v>-1700515.6465004189</v>
+        <v>-1700515.6465174789</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -3970,31 +4052,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999542236328</v>
+        <v>17.479999540000001</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454818762419</v>
+        <v>27.106454818663767</v>
       </c>
       <c r="E35" s="13">
-        <v>366041.1327042802</v>
+        <v>366041.13286684826</v>
       </c>
       <c r="F35" s="14">
-        <v>573732.17263077828</v>
+        <v>573732.17288558721</v>
       </c>
       <c r="G35" s="14">
-        <v>11169354.335328044</v>
+        <v>11169354.3363268</v>
       </c>
       <c r="H35" s="14">
-        <v>7126048.1937624086</v>
+        <v>7126048.1943996148</v>
       </c>
       <c r="I35" s="14">
-        <v>8010700.7013253663</v>
+        <v>8010700.7019223478</v>
       </c>
       <c r="J35" s="14">
-        <v>7126048.1937624086</v>
+        <v>7126048.1943996148</v>
       </c>
       <c r="K35" s="14">
-        <v>-884652.5075629577</v>
+        <v>-884652.50752273295</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4011,31 +4093,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.700000762939453</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839674750359887</v>
+        <v>26.839674750233506</v>
       </c>
       <c r="E36" s="13">
-        <v>329957.88035550242</v>
+        <v>329957.88055861578</v>
       </c>
       <c r="F36" s="14">
-        <v>510770.69075749943</v>
+        <v>510770.69107191637</v>
       </c>
       <c r="G36" s="14">
-        <v>11680125.026085544</v>
+        <v>11680125.027398717</v>
       </c>
       <c r="H36" s="14">
-        <v>7545361.0898832837</v>
+        <v>7545361.0907315928</v>
       </c>
       <c r="I36" s="14">
-        <v>8340658.5816808688</v>
+        <v>8340658.5824809633</v>
       </c>
       <c r="J36" s="14">
-        <v>7545361.0898832837</v>
+        <v>7545361.0907315928</v>
       </c>
       <c r="K36" s="14">
-        <v>-795297.49179758504</v>
+        <v>-795297.49174937047</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4052,31 +4134,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.110000610351563</v>
+        <v>18.11000061</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314356937268</v>
+        <v>26.594314356804418</v>
       </c>
       <c r="E37" s="13">
-        <v>568670.28002897499</v>
+        <v>568670.28005829395</v>
       </c>
       <c r="F37" s="14">
-        <v>856431.17721840367</v>
+        <v>856431.17726255872</v>
       </c>
       <c r="G37" s="14">
-        <v>12536556.203303948</v>
+        <v>12536556.204661276</v>
       </c>
       <c r="H37" s="14">
-        <v>8324273.0021653427</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="I37" s="14">
-        <v>8909328.8617098443</v>
+        <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324273.0021653427</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585055.85954450164</v>
+        <v>-585055.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4084,6 +4166,50 @@
       <c r="M37" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="A38" s="11">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="12">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="13">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="13">
+        <v>513176.5261695009</v>
+      </c>
+      <c r="F38" s="14">
+        <v>789502.37691185286</v>
+      </c>
+      <c r="G38" s="14">
+        <v>13326058.581573129</v>
+      </c>
+      <c r="H38" s="14">
+        <v>8661937.7603045385</v>
+      </c>
+      <c r="I38" s="14">
+        <v>9422505.3887087591</v>
+      </c>
+      <c r="J38" s="14">
+        <v>8661937.7603045385</v>
+      </c>
+      <c r="K38" s="14">
+        <v>-760567.62840422057</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -258,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,7 +317,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -550,6 +549,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,7 +561,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -667,6 +669,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9422505.3887087591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9971187.101954896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +714,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -817,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,7 +834,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -934,6 +942,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8661937.7603045385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9024054.6724717319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +987,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1084,6 +1095,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1107,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1201,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-760567.62840422057</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-947132.4294831641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,11 +1239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77424896"/>
-        <c:axId val="90706304"/>
+        <c:axId val="103043456"/>
+        <c:axId val="104993536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="77424896"/>
+        <c:axId val="103043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,14 +1286,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90706304"/>
+        <c:crossAx val="104993536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90706304"/>
+        <c:axId val="104993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77424896"/>
+        <c:crossAx val="103043456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +1505,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1596,6 +1613,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>513176.5261695009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>548681.71324613784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,8 +1630,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390675840"/>
-        <c:axId val="390674304"/>
+        <c:axId val="462902400"/>
+        <c:axId val="462323072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1636,7 +1656,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1744,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1776,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1861,6 +1884,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,11 +1903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181835264"/>
-        <c:axId val="181837184"/>
+        <c:axId val="348858240"/>
+        <c:axId val="462321536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181835264"/>
+        <c:axId val="348858240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,14 +1950,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181837184"/>
+        <c:crossAx val="462321536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181837184"/>
+        <c:axId val="462321536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,12 +2008,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181835264"/>
+        <c:crossAx val="348858240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390674304"/>
+        <c:axId val="462323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,12 +2050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390675840"/>
+        <c:crossAx val="462902400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390675840"/>
+        <c:axId val="462902400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390674304"/>
+        <c:crossAx val="462323072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4208,8 +4234,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="A39" s="11">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="13">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="13">
+        <v>548681.71324613784</v>
+      </c>
+      <c r="F39" s="14">
+        <v>862707.12669900339</v>
+      </c>
+      <c r="G39" s="14">
+        <v>14188765.708272133</v>
+      </c>
+      <c r="H39" s="14">
+        <v>9024054.6724717319</v>
+      </c>
+      <c r="I39" s="14">
+        <v>9971187.101954896</v>
+      </c>
+      <c r="J39" s="14">
+        <v>9024054.6724717319</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-947132.4294831641</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -552,6 +552,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,7 +564,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -672,6 +675,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9971187.101954896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10507741.892435335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,7 +720,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -825,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,7 +843,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -938,13 +947,16 @@
                   <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324273.0030666078</c:v>
+                  <c:v>8324274.0030666078</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8661937.7603045385</c:v>
+                  <c:v>8661938.7603045385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9024054.6724717319</c:v>
+                  <c:v>9024055.6724717319</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9518043.713851545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +999,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1098,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,7 +1122,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1211,13 +1226,16 @@
                   <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585055.8594726501</c:v>
+                  <c:v>-585054.8594726501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-760567.62840422057</c:v>
+                  <c:v>-760566.62840422057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-947132.4294831641</c:v>
+                  <c:v>-947131.4294831641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-989698.17858378962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,11 +1257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103043456"/>
-        <c:axId val="104993536"/>
+        <c:axId val="473536384"/>
+        <c:axId val="427732992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103043456"/>
+        <c:axId val="473536384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,14 +1304,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104993536"/>
+        <c:crossAx val="427732992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104993536"/>
+        <c:axId val="427732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,7 +1362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103043456"/>
+        <c:crossAx val="473536384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,7 +1488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1505,7 +1522,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1616,6 +1633,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>548681.71324613784</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>536554.7904804392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,8 +1650,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="462902400"/>
-        <c:axId val="462323072"/>
+        <c:axId val="427920000"/>
+        <c:axId val="427918464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1656,7 +1676,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1767,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,7 +1799,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1887,6 +1910,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +1929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348858240"/>
-        <c:axId val="462321536"/>
+        <c:axId val="427857792"/>
+        <c:axId val="427859328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="348858240"/>
+        <c:axId val="427857792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,14 +1976,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462321536"/>
+        <c:crossAx val="427859328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462321536"/>
+        <c:axId val="427859328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,12 +2034,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348858240"/>
+        <c:crossAx val="427857792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462323072"/>
+        <c:axId val="427918464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,12 +2076,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462902400"/>
+        <c:crossAx val="427920000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="462902400"/>
+        <c:axId val="427920000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462323072"/>
+        <c:crossAx val="427918464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,10 +2499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4181,10 +4207,10 @@
         <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324273.0030666078</v>
+        <v>8324274.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585055.8594726501</v>
+        <v>-585054.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4222,10 +4248,10 @@
         <v>9422505.3887087591</v>
       </c>
       <c r="J38" s="14">
-        <v>8661937.7603045385</v>
+        <v>8661938.7603045385</v>
       </c>
       <c r="K38" s="14">
-        <v>-760567.62840422057</v>
+        <v>-760566.62840422057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4263,16 +4289,57 @@
         <v>9971187.101954896</v>
       </c>
       <c r="J39" s="14">
-        <v>9024054.6724717319</v>
+        <v>9024055.6724717319</v>
       </c>
       <c r="K39" s="14">
-        <v>-947132.4294831641</v>
+        <v>-947131.4294831641</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="A40" s="11">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="13">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="13">
+        <v>536554.7904804392</v>
+      </c>
+      <c r="F40" s="14">
+        <v>847637.87794335093</v>
+      </c>
+      <c r="G40" s="14">
+        <v>15036403.586215485</v>
+      </c>
+      <c r="H40" s="14">
+        <v>9518043.713851545</v>
+      </c>
+      <c r="I40" s="14">
+        <v>10507741.892435335</v>
+      </c>
+      <c r="J40" s="14">
+        <v>9518043.713851545</v>
+      </c>
+      <c r="K40" s="14">
+        <v>-989698.17858378962</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -555,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,7 +567,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -677,7 +680,10 @@
                   <c:v>9971187.101954896</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10507741.892435335</c:v>
+                  <c:v>10239464.497195115</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10344624.03488989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,7 +726,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -834,6 +840,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +852,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -947,16 +956,19 @@
                   <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324274.0030666078</c:v>
+                  <c:v>8324273.0030666078</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8661938.7603045385</c:v>
+                  <c:v>8661937.7603045385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9024055.6724717319</c:v>
+                  <c:v>9024054.6724717319</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9518043.713851545</c:v>
+                  <c:v>9249766.3186113238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9018836.3815481979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1011,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1113,6 +1125,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1137,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1226,16 +1241,19 @@
                   <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585054.8594726501</c:v>
+                  <c:v>-585055.8594726501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-760566.62840422057</c:v>
+                  <c:v>-760567.62840422057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-947131.4294831641</c:v>
+                  <c:v>-947132.4294831641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-989698.17858378962</c:v>
+                  <c:v>-989698.17858379148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1325787.6533416919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,11 +1275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473536384"/>
-        <c:axId val="427732992"/>
+        <c:axId val="322345216"/>
+        <c:axId val="342445056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473536384"/>
+        <c:axId val="322345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,14 +1322,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427732992"/>
+        <c:crossAx val="342445056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427732992"/>
+        <c:axId val="342445056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1380,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473536384"/>
+        <c:crossAx val="322345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,6 +1506,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +1541,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1635,7 +1654,10 @@
                   <c:v>548681.71324613784</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>536554.7904804392</c:v>
+                  <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,8 +1672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="427920000"/>
-        <c:axId val="427918464"/>
+        <c:axId val="497786240"/>
+        <c:axId val="497784704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1676,7 +1698,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1790,6 +1812,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1824,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1913,6 +1938,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,11 +1957,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427857792"/>
-        <c:axId val="427859328"/>
+        <c:axId val="470891904"/>
+        <c:axId val="497782784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427857792"/>
+        <c:axId val="470891904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,14 +2004,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427859328"/>
+        <c:crossAx val="497782784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427859328"/>
+        <c:axId val="497782784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,12 +2062,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427857792"/>
+        <c:crossAx val="470891904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427918464"/>
+        <c:axId val="497784704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,12 +2104,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427920000"/>
+        <c:crossAx val="497786240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="427920000"/>
+        <c:axId val="497786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427918464"/>
+        <c:crossAx val="497784704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2499,10 +2527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4207,10 +4235,10 @@
         <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324274.0030666078</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585054.8594726501</v>
+        <v>-585055.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4248,10 +4276,10 @@
         <v>9422505.3887087591</v>
       </c>
       <c r="J38" s="14">
-        <v>8661938.7603045385</v>
+        <v>8661937.7603045385</v>
       </c>
       <c r="K38" s="14">
-        <v>-760566.62840422057</v>
+        <v>-760567.62840422057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4289,10 +4317,10 @@
         <v>9971187.101954896</v>
       </c>
       <c r="J39" s="14">
-        <v>9024055.6724717319</v>
+        <v>9024054.6724717319</v>
       </c>
       <c r="K39" s="14">
-        <v>-947131.4294831641</v>
+        <v>-947132.4294831641</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
@@ -4315,30 +4343,71 @@
         <v>25.951256745485065</v>
       </c>
       <c r="E40" s="13">
-        <v>536554.7904804392</v>
+        <v>268277.3952402196</v>
       </c>
       <c r="F40" s="14">
-        <v>847637.87794335093</v>
+        <v>423818.93897167547</v>
       </c>
       <c r="G40" s="14">
-        <v>15036403.586215485</v>
+        <v>14612584.647243809</v>
       </c>
       <c r="H40" s="14">
-        <v>9518043.713851545</v>
+        <v>9249766.3186113238</v>
       </c>
       <c r="I40" s="14">
-        <v>10507741.892435335</v>
+        <v>10239464.497195115</v>
       </c>
       <c r="J40" s="14">
-        <v>9518043.713851545</v>
+        <v>9249766.3186113238</v>
       </c>
       <c r="K40" s="14">
-        <v>-989698.17858378962</v>
+        <v>-989698.17858379148</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="A41" s="11">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="13">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="13">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="14">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="14">
+        <v>14784977.327946559</v>
+      </c>
+      <c r="H41" s="14">
+        <v>9018836.3815481979</v>
+      </c>
+      <c r="I41" s="14">
+        <v>10344624.03488989</v>
+      </c>
+      <c r="J41" s="14">
+        <v>9018836.3815481979</v>
+      </c>
+      <c r="K41" s="14">
+        <v>-1325787.6533416919</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -558,6 +558,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +570,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -684,6 +687,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10344624.03488989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10345158.618239028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +732,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -843,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,7 +861,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -969,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9018836.3815481979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11340612.482935237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1023,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1128,6 +1140,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1152,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1254,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1325787.6533416919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>995453.86469620839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,11 +1293,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322345216"/>
-        <c:axId val="342445056"/>
+        <c:axId val="370584960"/>
+        <c:axId val="434712576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322345216"/>
+        <c:axId val="370584960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,14 +1340,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342445056"/>
+        <c:crossAx val="434712576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="342445056"/>
+        <c:axId val="434712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322345216"/>
+        <c:crossAx val="370584960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,7 +1559,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1658,6 +1676,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,8 +1693,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497786240"/>
-        <c:axId val="497784704"/>
+        <c:axId val="437023104"/>
+        <c:axId val="436591232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1698,7 +1719,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1815,6 +1836,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +1848,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1941,6 +1965,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1957,11 +1984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470891904"/>
-        <c:axId val="497782784"/>
+        <c:axId val="436550656"/>
+        <c:axId val="436589312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470891904"/>
+        <c:axId val="436550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,14 +2031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497782784"/>
+        <c:crossAx val="436589312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497782784"/>
+        <c:axId val="436589312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,12 +2089,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470891904"/>
+        <c:crossAx val="436550656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497784704"/>
+        <c:axId val="436591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,12 +2131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497786240"/>
+        <c:crossAx val="437023104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497786240"/>
+        <c:axId val="437023104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497784704"/>
+        <c:crossAx val="436591232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +2554,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4411,6 +4438,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="A42" s="11">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="12">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="13">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="13">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="14">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="14">
+        <v>14785674.307523496</v>
+      </c>
+      <c r="H42" s="14">
+        <v>11340612.482935237</v>
+      </c>
+      <c r="I42" s="14">
+        <v>10345158.618239028</v>
+      </c>
+      <c r="J42" s="14">
+        <v>11340612.482935237</v>
+      </c>
+      <c r="K42" s="14">
+        <v>995453.86469620839</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -564,6 +564,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +576,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -696,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10349143.041438431</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10355168.274743756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +744,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -861,6 +867,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,7 +879,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -993,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11492460.477991821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11557649.076136371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1047,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1158,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1182,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1290,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1143317.4365533907</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1202480.8013926148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,11 +1329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87816448"/>
-        <c:axId val="90244224"/>
+        <c:axId val="422133760"/>
+        <c:axId val="422136064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87816448"/>
+        <c:axId val="422133760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,14 +1376,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90244224"/>
+        <c:crossAx val="422136064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90244224"/>
+        <c:axId val="422136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1434,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87816448"/>
+        <c:crossAx val="422133760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1577,7 +1595,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1700,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3449.8398502661958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6025.2333053250577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,8 +1735,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485752832"/>
-        <c:axId val="482670848"/>
+        <c:axId val="476379008"/>
+        <c:axId val="476377088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1740,7 +1761,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1863,6 +1884,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1896,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1995,6 +2019,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,11 +2038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471906176"/>
-        <c:axId val="482668928"/>
+        <c:axId val="472617344"/>
+        <c:axId val="472618880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471906176"/>
+        <c:axId val="472617344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,14 +2085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482668928"/>
+        <c:crossAx val="472618880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482668928"/>
+        <c:axId val="472618880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,12 +2143,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471906176"/>
+        <c:crossAx val="472617344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482670848"/>
+        <c:axId val="476377088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485752832"/>
+        <c:crossAx val="476379008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485752832"/>
+        <c:axId val="476379008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,7 +2199,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482670848"/>
+        <c:crossAx val="476377088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2608,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4547,6 +4574,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="A44" s="11">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="13">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="13">
+        <v>6025.2333053250577</v>
+      </c>
+      <c r="F44" s="14">
+        <v>7714.7671773814682</v>
+      </c>
+      <c r="G44" s="14">
+        <v>14798526.002547838</v>
+      </c>
+      <c r="H44" s="14">
+        <v>11557649.076136371</v>
+      </c>
+      <c r="I44" s="14">
+        <v>10355168.274743756</v>
+      </c>
+      <c r="J44" s="14">
+        <v>11557649.076136371</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1202480.8013926148</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -258,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +317,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,7 +442,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -567,6 +568,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,7 +580,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,16 +696,19 @@
                   <c:v>10239464.497195115</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10344624.03488989</c:v>
+                  <c:v>10344624.034901198</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10345693.201588165</c:v>
+                  <c:v>10345693.201601051</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10349143.041438431</c:v>
+                  <c:v>10349143.041451316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10355168.274743756</c:v>
+                  <c:v>10355168.274756642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10359966.705196057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +751,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -870,6 +877,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +889,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -995,16 +1005,19 @@
                   <c:v>9249766.3186113238</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9018836.3815481979</c:v>
+                  <c:v>9018836.3815595061</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11341147.066284377</c:v>
+                  <c:v>11341147.066300172</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11492460.477991821</c:v>
+                  <c:v>11492460.478007823</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11557649.076136371</c:v>
+                  <c:v>11557649.076152453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11680835.07247209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1060,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1173,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1198,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1301,13 +1317,16 @@
                   <c:v>-1325787.6533416919</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>995453.86469621211</c:v>
+                  <c:v>995453.86469912156</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143317.4365533907</c:v>
+                  <c:v>1143317.4365565069</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1202480.8013926148</c:v>
+                  <c:v>1202480.8013958111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1320868.3672760334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,11 +1348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422133760"/>
-        <c:axId val="422136064"/>
+        <c:axId val="435381376"/>
+        <c:axId val="435382912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422133760"/>
+        <c:axId val="435381376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,14 +1395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422136064"/>
+        <c:crossAx val="435382912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422136064"/>
+        <c:axId val="435382912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422133760"/>
+        <c:crossAx val="435381376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,7 +1614,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1711,16 +1730,19 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1069.1666982757504</c:v>
+                  <c:v>1069.1666998522771</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3449.8398502661958</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6025.2333053250577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4798.4304394137898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,8 +1757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476379008"/>
-        <c:axId val="476377088"/>
+        <c:axId val="118346496"/>
+        <c:axId val="118344704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1761,7 +1783,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1887,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,7 +1921,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2022,6 +2047,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,11 +2066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472617344"/>
-        <c:axId val="472618880"/>
+        <c:axId val="118341632"/>
+        <c:axId val="118343168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472617344"/>
+        <c:axId val="118341632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,14 +2113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472618880"/>
+        <c:crossAx val="118343168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472618880"/>
+        <c:axId val="118343168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,12 +2171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472617344"/>
+        <c:crossAx val="118341632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476377088"/>
+        <c:axId val="118344704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476379008"/>
+        <c:crossAx val="118346496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476379008"/>
+        <c:axId val="118346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +2227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476377088"/>
+        <c:crossAx val="118344704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2608,7 +2636,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2791,6 +2819,16 @@
         <f>-AC3</f>
         <v>-460092.79671082116</v>
       </c>
+      <c r="AE3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>460092.79671082116</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>-AF3</f>
+        <v>-460092.79671082116</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
@@ -2874,9 +2912,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="AE4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
@@ -2951,15 +2996,22 @@
         <v>45289</v>
       </c>
       <c r="AC5" s="8">
-        <v>3246072.3111430067</v>
+        <v>3101231.3499533474</v>
       </c>
       <c r="AD5" s="8">
         <f>-AC5</f>
-        <v>-3246072.3111430067</v>
-      </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+        <v>-3101231.3499533474</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>-AF5</f>
+        <v>-3101231.3499533474</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
@@ -3023,7 +3075,7 @@
         <v>-0.12641826605183187</v>
       </c>
       <c r="W6" s="18">
-        <v>-7.9485707976947206E-2</v>
+        <v>-8.0432995871083768E-2</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -3035,9 +3087,18 @@
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="19">
-        <v>6328433.3766216012</v>
-      </c>
-      <c r="AE6" s="16"/>
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="AG6" s="10">
+        <f>-AF6</f>
+        <v>-3101231.3499533474</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
@@ -3079,13 +3140,42 @@
       <c r="M7" s="8">
         <v>1</v>
       </c>
+      <c r="P7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7079964.156877039</v>
+      </c>
+      <c r="S7" s="7">
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="T7" s="7">
+        <v>-895036.7924215151</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>-0.12641826605183187</v>
+      </c>
+      <c r="W7" s="18">
+        <v>-0.21743933173383112</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AD7" s="9">
-        <v>-7.9485707976947206E-2</v>
-      </c>
-      <c r="AG7" s="9"/>
+        <v>-8.0432995871083768E-2</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>6184927.3644555239</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
@@ -3126,6 +3216,9 @@
       </c>
       <c r="M8" s="8">
         <v>1</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>-0.21743933173383112</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -4462,25 +4555,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="13">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="13">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="14">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="14">
-        <v>14784977.327946559</v>
+        <v>14784977.327965098</v>
       </c>
       <c r="H41" s="14">
-        <v>9018836.3815481979</v>
+        <v>9018836.3815595061</v>
       </c>
       <c r="I41" s="14">
-        <v>10344624.03488989</v>
+        <v>10344624.034901198</v>
       </c>
       <c r="J41" s="14">
-        <v>9018836.3815481979</v>
+        <v>9018836.3815595061</v>
       </c>
       <c r="K41" s="14">
         <v>-1325787.6533416919</v>
@@ -4503,28 +4596,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="13">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="13">
-        <v>1069.1666982757504</v>
+        <v>1069.1666998522771</v>
       </c>
       <c r="F42" s="14">
-        <v>1393.9591538766597</v>
+        <v>1393.9591559321052</v>
       </c>
       <c r="G42" s="14">
-        <v>14786371.287100436</v>
+        <v>14786371.28712103</v>
       </c>
       <c r="H42" s="14">
-        <v>11341147.066284377</v>
+        <v>11341147.066300172</v>
       </c>
       <c r="I42" s="14">
-        <v>10345693.201588165</v>
+        <v>10345693.201601051</v>
       </c>
       <c r="J42" s="14">
-        <v>11341147.066284377</v>
+        <v>11341147.066300172</v>
       </c>
       <c r="K42" s="14">
-        <v>995453.86469621211</v>
+        <v>995453.86469912156</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
@@ -4553,19 +4646,19 @@
         <v>4439.9482700211292</v>
       </c>
       <c r="G43" s="14">
-        <v>14790811.235370457</v>
+        <v>14790811.235391051</v>
       </c>
       <c r="H43" s="14">
-        <v>11492460.477991821</v>
+        <v>11492460.478007823</v>
       </c>
       <c r="I43" s="14">
-        <v>10349143.041438431</v>
+        <v>10349143.041451316</v>
       </c>
       <c r="J43" s="14">
-        <v>11492460.477991821</v>
+        <v>11492460.478007823</v>
       </c>
       <c r="K43" s="14">
-        <v>1143317.4365533907</v>
+        <v>1143317.4365565069</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4594,19 +4687,19 @@
         <v>7714.7671773814682</v>
       </c>
       <c r="G44" s="14">
-        <v>14798526.002547838</v>
+        <v>14798526.002568431</v>
       </c>
       <c r="H44" s="14">
-        <v>11557649.076136371</v>
+        <v>11557649.076152453</v>
       </c>
       <c r="I44" s="14">
-        <v>10355168.274743756</v>
+        <v>10355168.274756642</v>
       </c>
       <c r="J44" s="14">
-        <v>11557649.076136371</v>
+        <v>11557649.076152453</v>
       </c>
       <c r="K44" s="14">
-        <v>1202480.8013926148</v>
+        <v>1202480.8013958111</v>
       </c>
       <c r="L44" s="13">
         <v>0</v>
@@ -4614,6 +4707,50 @@
       <c r="M44" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="A45" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="12">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="13">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="13">
+        <v>4798.4304394137898</v>
+      </c>
+      <c r="F45" s="14">
+        <v>6081.6610812570025</v>
+      </c>
+      <c r="G45" s="14">
+        <v>14804607.663649688</v>
+      </c>
+      <c r="H45" s="14">
+        <v>11680835.07247209</v>
+      </c>
+      <c r="I45" s="14">
+        <v>10359966.705196057</v>
+      </c>
+      <c r="J45" s="14">
+        <v>11680835.07247209</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1320868.3672760334</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -258,7 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,7 +317,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1348,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435381376"/>
-        <c:axId val="435382912"/>
+        <c:axId val="403768064"/>
+        <c:axId val="403769600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435381376"/>
+        <c:axId val="403768064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,14 +1394,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435382912"/>
+        <c:crossAx val="403769600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435382912"/>
+        <c:axId val="403769600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435381376"/>
+        <c:crossAx val="403768064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1757,8 +1756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118346496"/>
-        <c:axId val="118344704"/>
+        <c:axId val="453156864"/>
+        <c:axId val="446326656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2066,11 +2065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118341632"/>
-        <c:axId val="118343168"/>
+        <c:axId val="435136768"/>
+        <c:axId val="446325120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118341632"/>
+        <c:axId val="435136768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,14 +2112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118343168"/>
+        <c:crossAx val="446325120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118343168"/>
+        <c:axId val="446325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,12 +2170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118341632"/>
+        <c:crossAx val="435136768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118344704"/>
+        <c:axId val="446326656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,12 +2212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118346496"/>
+        <c:crossAx val="453156864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118346496"/>
+        <c:axId val="453156864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118344704"/>
+        <c:crossAx val="446326656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2635,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4749,9 +4748,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="28"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -570,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,7 +582,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -708,6 +711,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10359966.705196057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +756,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -879,6 +885,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +897,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1017,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11680835.07247209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11572671.024608156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1071,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1188,6 +1200,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +1212,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1326,6 +1341,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1320868.3672760334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1202432.1483710576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,11 +1365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403768064"/>
-        <c:axId val="403769600"/>
+        <c:axId val="87109632"/>
+        <c:axId val="87113088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403768064"/>
+        <c:axId val="87109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,14 +1412,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403769600"/>
+        <c:crossAx val="87113088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403769600"/>
+        <c:axId val="87113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403768064"/>
+        <c:crossAx val="87109632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,7 +1631,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1742,6 +1760,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4798.4304394137898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10272.171041041865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,8 +1777,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453156864"/>
-        <c:axId val="446326656"/>
+        <c:axId val="425974400"/>
+        <c:axId val="425972864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1782,7 +1803,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1911,6 +1932,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,7 +1944,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2049,6 +2073,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,11 +2092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435136768"/>
-        <c:axId val="446325120"/>
+        <c:axId val="385117184"/>
+        <c:axId val="422734848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435136768"/>
+        <c:axId val="385117184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,14 +2139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446325120"/>
+        <c:crossAx val="422734848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446325120"/>
+        <c:axId val="422734848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,12 +2197,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435136768"/>
+        <c:crossAx val="385117184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446326656"/>
+        <c:axId val="425972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,12 +2239,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453156864"/>
+        <c:crossAx val="425974400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453156864"/>
+        <c:axId val="425974400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446326656"/>
+        <c:crossAx val="425972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2635,7 +2662,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4748,6 +4775,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="A46" s="11">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="12">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="13">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="13">
+        <v>10272.171041041865</v>
+      </c>
+      <c r="F46" s="14">
+        <v>13152.58745546665</v>
+      </c>
+      <c r="G46" s="14">
+        <v>14817760.251105154</v>
+      </c>
+      <c r="H46" s="14">
+        <v>11572671.024608156</v>
+      </c>
+      <c r="I46" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J46" s="14">
+        <v>11572671.024608156</v>
+      </c>
+      <c r="K46" s="14">
+        <v>1202432.1483710576</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -573,6 +573,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +585,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -713,6 +716,9 @@
                   <c:v>10359966.705196057</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
@@ -756,7 +762,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -888,6 +894,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -897,7 +906,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1029,6 +1038,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11572671.024608156</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12254288.052684262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1083,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1203,6 +1215,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1227,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1344,6 +1359,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1202432.1483710576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1884049.1764471643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,11 +1383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87109632"/>
-        <c:axId val="87113088"/>
+        <c:axId val="412303360"/>
+        <c:axId val="412304896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87109632"/>
+        <c:axId val="412303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,14 +1430,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87113088"/>
+        <c:crossAx val="412304896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="87113088"/>
+        <c:axId val="412304896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87109632"/>
+        <c:crossAx val="412303360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1631,7 +1649,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1763,6 +1781,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10272.171041041865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2109.0834862773509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,8 +1798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425974400"/>
-        <c:axId val="425972864"/>
+        <c:axId val="465490304"/>
+        <c:axId val="452360064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1803,7 +1824,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1935,6 +1956,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +1968,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2076,6 +2100,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,11 +2119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="385117184"/>
-        <c:axId val="422734848"/>
+        <c:axId val="442542336"/>
+        <c:axId val="452358144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="385117184"/>
+        <c:axId val="442542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,14 +2166,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422734848"/>
+        <c:crossAx val="452358144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422734848"/>
+        <c:axId val="452358144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,12 +2224,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385117184"/>
+        <c:crossAx val="442542336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425972864"/>
+        <c:axId val="452360064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425974400"/>
+        <c:crossAx val="465490304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425974400"/>
+        <c:axId val="465490304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425972864"/>
+        <c:crossAx val="452360064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2662,7 +2689,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4816,6 +4843,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:13" ht="12.75">
+      <c r="A47" s="11">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="12">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="13">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="13">
+        <v>-2109.0834862773509</v>
+      </c>
+      <c r="F47" s="14">
+        <v>-2550.2822615939067</v>
+      </c>
+      <c r="G47" s="14">
+        <v>14815209.968843561</v>
+      </c>
+      <c r="H47" s="14">
+        <v>12252178.969197985</v>
+      </c>
+      <c r="I47" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J47" s="14">
+        <v>12254288.052684262</v>
+      </c>
+      <c r="K47" s="14">
+        <v>1884049.1764471643</v>
+      </c>
+      <c r="L47" s="13">
+        <v>2109.0834862773509</v>
+      </c>
+      <c r="M47" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -576,6 +576,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +588,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -719,6 +722,9 @@
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
@@ -762,7 +768,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -897,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +915,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1041,6 +1050,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12254288.052684262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12061690.153542675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1095,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1218,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1242,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1362,6 +1377,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1884049.1764471643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1691451.277305577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,11 +1401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412303360"/>
-        <c:axId val="412304896"/>
+        <c:axId val="160766208"/>
+        <c:axId val="161386496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="412303360"/>
+        <c:axId val="160766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,14 +1448,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412304896"/>
+        <c:crossAx val="161386496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="412304896"/>
+        <c:axId val="161386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1506,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412303360"/>
+        <c:crossAx val="160766208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1649,7 +1667,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1784,6 +1802,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2109.0834862773509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-22.101905759162022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1798,8 +1819,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465490304"/>
-        <c:axId val="452360064"/>
+        <c:axId val="475606400"/>
+        <c:axId val="475604480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1824,7 +1845,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1959,6 +1980,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,7 +1992,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2103,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,11 +2146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442542336"/>
-        <c:axId val="452358144"/>
+        <c:axId val="455805184"/>
+        <c:axId val="475602944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442542336"/>
+        <c:axId val="455805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,14 +2193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452358144"/>
+        <c:crossAx val="475602944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452358144"/>
+        <c:axId val="475602944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,12 +2251,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442542336"/>
+        <c:crossAx val="455805184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452360064"/>
+        <c:axId val="475604480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2293,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465490304"/>
+        <c:crossAx val="475606400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465490304"/>
+        <c:axId val="475606400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452360064"/>
+        <c:crossAx val="475604480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2716,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4884,6 +4911,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:13" ht="12.75">
+      <c r="A48" s="11">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="12">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="13">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="13">
+        <v>-22.101905759162022</v>
+      </c>
+      <c r="F48" s="14">
+        <v>-27.152218027424961</v>
+      </c>
+      <c r="G48" s="14">
+        <v>14815182.816625534</v>
+      </c>
+      <c r="H48" s="14">
+        <v>12059558.968150638</v>
+      </c>
+      <c r="I48" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J48" s="14">
+        <v>12061690.153542675</v>
+      </c>
+      <c r="K48" s="14">
+        <v>1691451.277305577</v>
+      </c>
+      <c r="L48" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M48" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -579,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +591,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -726,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10388717.145658603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,7 +774,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -906,6 +912,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +924,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,6 +1062,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12061690.153542675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11413484.948960992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1107,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1233,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,7 +1257,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1380,6 +1395,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1691451.277305577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1024767.8033023886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,11 +1419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160766208"/>
-        <c:axId val="161386496"/>
+        <c:axId val="417951104"/>
+        <c:axId val="429413504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160766208"/>
+        <c:axId val="417951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161386496"/>
+        <c:crossAx val="429413504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161386496"/>
+        <c:axId val="429413504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160766208"/>
+        <c:crossAx val="417951104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,7 +1685,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1805,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-22.101905759162022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18478.269421505425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,8 +1840,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475606400"/>
-        <c:axId val="475604480"/>
+        <c:axId val="468651008"/>
+        <c:axId val="468649088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1845,7 +1866,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1983,6 +2004,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,7 +2016,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2130,6 +2154,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,11 +2173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455805184"/>
-        <c:axId val="475602944"/>
+        <c:axId val="452990848"/>
+        <c:axId val="452992384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455805184"/>
+        <c:axId val="452990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,14 +2220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475602944"/>
+        <c:crossAx val="452992384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475602944"/>
+        <c:axId val="452992384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455805184"/>
+        <c:crossAx val="452990848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475604480"/>
+        <c:axId val="468649088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475606400"/>
+        <c:crossAx val="468651008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="475606400"/>
+        <c:axId val="468651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475604480"/>
+        <c:crossAx val="468649088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2716,7 +2743,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4952,6 +4979,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:13" ht="12.75">
+      <c r="A49" s="11">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="12">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="13">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="13">
+        <v>18478.269421505425</v>
+      </c>
+      <c r="F49" s="14">
+        <v>24028.959129334373</v>
+      </c>
+      <c r="G49" s="14">
+        <v>14839211.775754867</v>
+      </c>
+      <c r="H49" s="14">
+        <v>11411353.763568955</v>
+      </c>
+      <c r="I49" s="14">
+        <v>10388717.145658603</v>
+      </c>
+      <c r="J49" s="14">
+        <v>11413484.948960992</v>
+      </c>
+      <c r="K49" s="14">
+        <v>1024767.8033023886</v>
+      </c>
+      <c r="L49" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M49" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -582,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +594,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -732,6 +735,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10388717.145658603</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10427171.308653828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +780,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -915,6 +921,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +933,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1065,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>11413484.948960992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11644849.034862332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,7 +1119,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1248,6 +1260,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,7 +1272,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1398,6 +1413,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1024767.8033023886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1217677.7262085043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,11 +1437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="417951104"/>
-        <c:axId val="429413504"/>
+        <c:axId val="160492928"/>
+        <c:axId val="179411200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="417951104"/>
+        <c:axId val="160492928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,14 +1484,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429413504"/>
+        <c:crossAx val="179411200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429413504"/>
+        <c:axId val="179411200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417951104"/>
+        <c:crossAx val="160492928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1685,7 +1703,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1826,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>18478.269421505425</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38454.162995225663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,8 +1861,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468651008"/>
-        <c:axId val="468649088"/>
+        <c:axId val="542408064"/>
+        <c:axId val="542406528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1866,7 +1887,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2007,6 +2028,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,7 +2040,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2157,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,11 +2200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452990848"/>
-        <c:axId val="452992384"/>
+        <c:axId val="536840448"/>
+        <c:axId val="542404608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452990848"/>
+        <c:axId val="536840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,14 +2247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452992384"/>
+        <c:crossAx val="542404608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452992384"/>
+        <c:axId val="542404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,12 +2305,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452990848"/>
+        <c:crossAx val="536840448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468649088"/>
+        <c:axId val="542406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468651008"/>
+        <c:crossAx val="542408064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468651008"/>
+        <c:axId val="542408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468649088"/>
+        <c:crossAx val="542406528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2743,7 +2770,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3200,11 +3227,11 @@
         <v>45657</v>
       </c>
       <c r="AF6" s="10">
-        <v>3101231.3499533474</v>
+        <v>3280002.5483190175</v>
       </c>
       <c r="AG6" s="10">
         <f>-AF6</f>
-        <v>-3101231.3499533474</v>
+        <v>-3280002.5483190175</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -3251,25 +3278,25 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="17">
-        <v>3101231.3499533474</v>
+        <v>3280002.5483190175</v>
       </c>
       <c r="R7" s="7">
-        <v>7079964.156877039</v>
+        <v>10359966.705196057</v>
       </c>
       <c r="S7" s="7">
-        <v>6184927.3644555239</v>
+        <v>11680835.07247209</v>
       </c>
       <c r="T7" s="7">
-        <v>-895036.7924215151</v>
+        <v>1320868.3672760334</v>
       </c>
       <c r="U7" s="7">
         <v>0</v>
       </c>
       <c r="V7" s="18">
-        <v>-0.12641826605183187</v>
+        <v>0.12749735639725077</v>
       </c>
       <c r="W7" s="18">
-        <v>-0.21743933173383112</v>
+        <v>5.7816253801587836E-2</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3281,7 +3308,7 @@
         <v>45657</v>
       </c>
       <c r="AG7" s="9">
-        <v>6184927.3644555239</v>
+        <v>11680835.07247209</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -3325,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="9">
-        <v>-0.21743933173383112</v>
+        <v>5.7816253801587836E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -5017,6 +5044,47 @@
         <v>2131.1853920365129</v>
       </c>
       <c r="M49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75">
+      <c r="A50" s="11">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="12">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="13">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="13">
+        <v>38454.162995225663</v>
+      </c>
+      <c r="F50" s="14">
+        <v>49174.121147438789</v>
+      </c>
+      <c r="G50" s="14">
+        <v>14888385.896902306</v>
+      </c>
+      <c r="H50" s="14">
+        <v>11642717.849470295</v>
+      </c>
+      <c r="I50" s="14">
+        <v>10427171.308653828</v>
+      </c>
+      <c r="J50" s="14">
+        <v>11644849.034862332</v>
+      </c>
+      <c r="K50" s="14">
+        <v>1217677.7262085043</v>
+      </c>
+      <c r="L50" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M50" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -585,6 +585,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +597,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -738,6 +741,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10427171.308653828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10437977.42151631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -780,7 +786,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -924,6 +930,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,7 +942,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1077,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11644849.034862332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12102306.298671745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1131,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1263,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1287,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1416,6 +1431,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1217677.7262085043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1664328.8771554343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,11 +1455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160492928"/>
-        <c:axId val="179411200"/>
+        <c:axId val="103441152"/>
+        <c:axId val="161209344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160492928"/>
+        <c:axId val="103441152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,14 +1502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179411200"/>
+        <c:crossAx val="161209344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179411200"/>
+        <c:axId val="161209344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160492928"/>
+        <c:crossAx val="103441152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,7 +1721,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1847,6 +1865,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>38454.162995225663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10806.112862482138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,8 +1882,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542408064"/>
-        <c:axId val="542406528"/>
+        <c:axId val="161876224"/>
+        <c:axId val="161340800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1887,7 +1908,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2031,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,7 +2064,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2184,6 +2208,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2200,11 +2227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536840448"/>
-        <c:axId val="542404608"/>
+        <c:axId val="161303936"/>
+        <c:axId val="161338880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536840448"/>
+        <c:axId val="161303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,14 +2274,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542404608"/>
+        <c:crossAx val="161338880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542404608"/>
+        <c:axId val="161338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,12 +2332,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536840448"/>
+        <c:crossAx val="161303936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542406528"/>
+        <c:axId val="161340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,12 +2374,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542408064"/>
+        <c:crossAx val="161876224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542408064"/>
+        <c:axId val="161876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542406528"/>
+        <c:crossAx val="161340800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2797,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5088,6 +5115,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:13" ht="12.75">
+      <c r="A51" s="11">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="12">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="13">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="13">
+        <v>10806.112862482138</v>
+      </c>
+      <c r="F51" s="14">
+        <v>13308.02114953735</v>
+      </c>
+      <c r="G51" s="14">
+        <v>14901693.918051843</v>
+      </c>
+      <c r="H51" s="14">
+        <v>12100175.113279708</v>
+      </c>
+      <c r="I51" s="14">
+        <v>10437977.42151631</v>
+      </c>
+      <c r="J51" s="14">
+        <v>12102306.298671745</v>
+      </c>
+      <c r="K51" s="14">
+        <v>1664328.8771554343</v>
+      </c>
+      <c r="L51" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -588,6 +588,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +600,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -744,6 +747,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10437977.42151631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,7 +792,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -933,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,7 +951,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1089,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>12102306.298671745</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12594409.732861409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1143,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1278,6 +1290,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +1302,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1434,6 +1449,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1664328.8771554343</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2156085.5509704165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,11 +1473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103441152"/>
-        <c:axId val="161209344"/>
+        <c:axId val="154949504"/>
+        <c:axId val="361323520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103441152"/>
+        <c:axId val="154949504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,14 +1520,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161209344"/>
+        <c:crossAx val="361323520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161209344"/>
+        <c:axId val="361323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1578,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103441152"/>
+        <c:crossAx val="154949504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,7 +1739,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1868,6 +1886,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10806.112862482138</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>346.76037468151208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,8 +1903,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161876224"/>
-        <c:axId val="161340800"/>
+        <c:axId val="455336704"/>
+        <c:axId val="454958080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1908,7 +1929,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2055,6 +2076,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,7 +2088,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2211,6 +2235,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,11 +2254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161303936"/>
-        <c:axId val="161338880"/>
+        <c:axId val="451311488"/>
+        <c:axId val="454956160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161303936"/>
+        <c:axId val="451311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,14 +2301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161338880"/>
+        <c:crossAx val="454956160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161338880"/>
+        <c:axId val="454956160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,12 +2359,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161303936"/>
+        <c:crossAx val="451311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161340800"/>
+        <c:axId val="454958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,12 +2401,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161876224"/>
+        <c:crossAx val="455336704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="161876224"/>
+        <c:axId val="455336704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161340800"/>
+        <c:crossAx val="454958080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2797,7 +2824,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5156,6 +5183,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:13" ht="12.75">
+      <c r="A52" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="12">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="13">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="13">
+        <v>346.76037468151208</v>
+      </c>
+      <c r="F52" s="14">
+        <v>410.36729342107651</v>
+      </c>
+      <c r="G52" s="14">
+        <v>14902104.285345264</v>
+      </c>
+      <c r="H52" s="14">
+        <v>12592278.547469372</v>
+      </c>
+      <c r="I52" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J52" s="14">
+        <v>12594409.732861409</v>
+      </c>
+      <c r="K52" s="14">
+        <v>2156085.5509704165</v>
+      </c>
+      <c r="L52" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M52" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -591,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,7 +603,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -749,6 +752,9 @@
                   <c:v>10437977.42151631</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -792,7 +798,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -942,6 +948,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +960,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1101,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12594409.732861409</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15038353.570811914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1155,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1293,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +1317,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1452,6 +1467,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2156085.5509704165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4600029.3889209218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,11 +1491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154949504"/>
-        <c:axId val="361323520"/>
+        <c:axId val="94622080"/>
+        <c:axId val="94623616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="154949504"/>
+        <c:axId val="94622080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,14 +1538,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361323520"/>
+        <c:crossAx val="94623616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="361323520"/>
+        <c:axId val="94623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154949504"/>
+        <c:crossAx val="94622080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1739,7 +1757,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1889,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>346.76037468151208</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-161942.32858104029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,8 +1924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455336704"/>
-        <c:axId val="454958080"/>
+        <c:axId val="442636928"/>
+        <c:axId val="442635008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1929,7 +1950,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2079,6 +2100,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,7 +2112,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2238,6 +2262,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,11 +2281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451311488"/>
-        <c:axId val="454956160"/>
+        <c:axId val="383544320"/>
+        <c:axId val="418151424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451311488"/>
+        <c:axId val="383544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,14 +2328,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454956160"/>
+        <c:crossAx val="418151424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454956160"/>
+        <c:axId val="418151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,12 +2386,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451311488"/>
+        <c:crossAx val="383544320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454958080"/>
+        <c:axId val="442635008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455336704"/>
+        <c:crossAx val="442636928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="455336704"/>
+        <c:axId val="442636928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="454958080"/>
+        <c:crossAx val="442635008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +2851,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5224,6 +5251,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:13" ht="12.75">
+      <c r="A53" s="11">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="12">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="13">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="13">
+        <v>-161942.32858104029</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-160497.85689964186</v>
+      </c>
+      <c r="G53" s="14">
+        <v>14741606.428445622</v>
+      </c>
+      <c r="H53" s="14">
+        <v>14874280.056838838</v>
+      </c>
+      <c r="I53" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J53" s="14">
+        <v>15038353.570811914</v>
+      </c>
+      <c r="K53" s="14">
+        <v>4600029.3889209218</v>
+      </c>
+      <c r="L53" s="13">
+        <v>164073.5139730768</v>
+      </c>
+      <c r="M53" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -594,6 +594,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +606,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -755,6 +758,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,7 +804,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -951,6 +957,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +969,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1113,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>15038353.570811914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16202942.179760782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,7 +1167,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1308,6 +1320,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1332,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1470,6 +1485,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4600029.3889209218</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5764617.9978697896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,11 +1509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94622080"/>
-        <c:axId val="94623616"/>
+        <c:axId val="86480768"/>
+        <c:axId val="86482304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94622080"/>
+        <c:axId val="86480768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,14 +1556,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94623616"/>
+        <c:crossAx val="86482304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94623616"/>
+        <c:axId val="86482304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94622080"/>
+        <c:crossAx val="86480768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1757,7 +1775,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1910,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-161942.32858104029</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-415753.10211345047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,8 +1945,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442636928"/>
-        <c:axId val="442635008"/>
+        <c:axId val="306950528"/>
+        <c:axId val="92139904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1950,7 +1971,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2103,6 +2124,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,7 +2136,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2265,6 +2289,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,11 +2308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383544320"/>
-        <c:axId val="418151424"/>
+        <c:axId val="90571520"/>
+        <c:axId val="90573824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="383544320"/>
+        <c:axId val="90571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,14 +2355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418151424"/>
+        <c:crossAx val="90573824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="418151424"/>
+        <c:axId val="90573824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,12 +2413,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383544320"/>
+        <c:crossAx val="90571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442635008"/>
+        <c:axId val="92139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442636928"/>
+        <c:crossAx val="306950528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442636928"/>
+        <c:axId val="306950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442635008"/>
+        <c:crossAx val="92139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,7 +2878,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5292,6 +5319,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:13" ht="12.75">
+      <c r="A54" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="12">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="13">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="13">
+        <v>-415753.10211345047</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-382125.99220512714</v>
+      </c>
+      <c r="G54" s="14">
+        <v>14359480.436240494</v>
+      </c>
+      <c r="H54" s="14">
+        <v>15623115.563674254</v>
+      </c>
+      <c r="I54" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J54" s="14">
+        <v>16202942.179760782</v>
+      </c>
+      <c r="K54" s="14">
+        <v>5764617.9978697896</v>
+      </c>
+      <c r="L54" s="13">
+        <v>579826.61608652724</v>
+      </c>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -597,6 +597,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,7 +609,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +764,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -804,7 +810,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -960,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +978,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>16202942.179760782</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15987548.466847729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1179,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1323,6 +1335,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,7 +1347,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1488,6 +1503,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5764617.9978697896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5549224.2849567365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1509,11 +1527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86480768"/>
-        <c:axId val="86482304"/>
+        <c:axId val="452371200"/>
+        <c:axId val="452372736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86480768"/>
+        <c:axId val="452371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,14 +1574,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86482304"/>
+        <c:crossAx val="452372736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86482304"/>
+        <c:axId val="452372736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1632,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86480768"/>
+        <c:crossAx val="452371200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1775,7 +1793,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1931,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-415753.10211345047</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-330664.76027766021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,8 +1966,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="306950528"/>
-        <c:axId val="92139904"/>
+        <c:axId val="480987776"/>
+        <c:axId val="480985856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1971,7 +1992,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2127,6 +2148,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,7 +2160,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2292,6 +2316,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,11 +2335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90571520"/>
-        <c:axId val="90573824"/>
+        <c:axId val="468141568"/>
+        <c:axId val="468143104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90571520"/>
+        <c:axId val="468141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,14 +2382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90573824"/>
+        <c:crossAx val="468143104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90573824"/>
+        <c:axId val="468143104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,12 +2440,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90571520"/>
+        <c:crossAx val="468141568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92139904"/>
+        <c:axId val="480985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306950528"/>
+        <c:crossAx val="480987776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="306950528"/>
+        <c:axId val="480987776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92139904"/>
+        <c:crossAx val="480985856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2878,7 +2905,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5360,6 +5387,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:13" ht="12.75">
+      <c r="A55" s="11">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="12">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="13">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="13">
+        <v>-330664.76027766021</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-308168.47566122416</v>
+      </c>
+      <c r="G55" s="14">
+        <v>14051311.96057927</v>
+      </c>
+      <c r="H55" s="14">
+        <v>15077057.090483541</v>
+      </c>
+      <c r="I55" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J55" s="14">
+        <v>15987548.466847729</v>
+      </c>
+      <c r="K55" s="14">
+        <v>5549224.2849567365</v>
+      </c>
+      <c r="L55" s="13">
+        <v>910491.37636418745</v>
+      </c>
+      <c r="M55" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR).xlsx
@@ -441,7 +441,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -600,6 +600,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +612,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +770,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -810,7 +816,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -969,6 +975,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +987,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>15987548.466847729</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15523855.279351614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1191,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1338,6 +1350,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1362,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1506,6 +1521,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5549224.2849567365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5085531.097460622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,11 +1545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452371200"/>
-        <c:axId val="452372736"/>
+        <c:axId val="443522048"/>
+        <c:axId val="466713216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452371200"/>
+        <c:axId val="443522048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,14 +1592,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452372736"/>
+        <c:crossAx val="466713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452372736"/>
+        <c:axId val="466713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452371200"/>
+        <c:crossAx val="443522048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1793,7 +1811,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1952,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-330664.76027766021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-127166.75771952557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,8 +1987,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480987776"/>
-        <c:axId val="480985856"/>
+        <c:axId val="474833664"/>
+        <c:axId val="474495232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1992,7 +2013,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2151,6 +2172,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,7 +2184,7 @@
               <c:f>'model4(1)&amp;SAR_manual_oper'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2319,6 +2343,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,11 +2362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468141568"/>
-        <c:axId val="468143104"/>
+        <c:axId val="469383808"/>
+        <c:axId val="474493312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468141568"/>
+        <c:axId val="469383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,14 +2409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468143104"/>
+        <c:crossAx val="474493312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468143104"/>
+        <c:axId val="474493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,12 +2467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468141568"/>
+        <c:crossAx val="469383808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480985856"/>
+        <c:axId val="474495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480987776"/>
+        <c:crossAx val="474833664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480987776"/>
+        <c:axId val="474833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480985856"/>
+        <c:crossAx val="474495232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,7 +2932,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5428,6 +5455,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:13" ht="12.75">
+      <c r="A56" s="11">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="12">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="13">
+        <v>-127166.75771952557</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-122275.73306151405</v>
+      </c>
+      <c r="G56" s="14">
+        <v>13929036.227517756</v>
+      </c>
+      <c r="H56" s="14">
+        <v>14486197.145267902</v>
+      </c>
+      <c r="I56" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J56" s="14">
+        <v>15523855.279351614</v>
+      </c>
+      <c r="K56" s="14">
+        <v>5085531.097460622</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1037658.1340837131</v>
+      </c>
+      <c r="M56" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">
